--- a/elhunytak.xlsx
+++ b/elhunytak.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrasszesztai/Desktop/coronavirus-hungary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57794624-1A37-F841-BCF5-E7FA48DC7B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A2BABD-8B6D-6E41-970B-6D80A13812AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16820" xr2:uid="{0544A352-7DB0-2A45-8CF4-AF47C37FBE51}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="6">
   <si>
     <t>Nő</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC04843-EAC7-1448-A924-51BE772E7CA9}">
-  <dimension ref="A1:H670"/>
+  <dimension ref="A1:H677"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A656" workbookViewId="0">
+      <selection activeCell="F678" sqref="F678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9942,9 +9942,96 @@
         <v>44092</v>
       </c>
     </row>
+    <row r="671" spans="1:4" ht="18">
+      <c r="A671" s="1">
+        <v>670</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C671" s="1">
+        <v>81</v>
+      </c>
+      <c r="D671" s="3">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" ht="18">
+      <c r="A672" s="1">
+        <v>671</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C672" s="1">
+        <v>71</v>
+      </c>
+      <c r="D672" s="3">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" ht="18">
+      <c r="A673" s="1">
+        <v>672</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C673" s="1">
+        <v>55</v>
+      </c>
+      <c r="D673" s="3">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" ht="18">
+      <c r="A674" s="1">
+        <v>673</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C674" s="1">
+        <v>65</v>
+      </c>
+      <c r="D674" s="3">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" ht="18">
+      <c r="A675" s="1">
+        <v>674</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C675" s="1">
+        <v>73</v>
+      </c>
+      <c r="D675" s="3">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" ht="18">
+      <c r="A676" s="1">
+        <v>675</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C676" s="1">
+        <v>70</v>
+      </c>
+      <c r="D676" s="3">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" ht="18">
+      <c r="D677" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D670">
-    <sortCondition ref="A621:A670"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D676">
+    <sortCondition ref="A676"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/elhunytak.xlsx
+++ b/elhunytak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrasszesztai/Desktop/coronavirus-hungary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A2BABD-8B6D-6E41-970B-6D80A13812AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38987A2-773E-4941-9625-CC0C4B743AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16820" xr2:uid="{0544A352-7DB0-2A45-8CF4-AF47C37FBE51}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="6">
   <si>
     <t>Nő</t>
   </si>
@@ -97,10 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -417,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC04843-EAC7-1448-A924-51BE772E7CA9}">
-  <dimension ref="A1:H677"/>
+  <dimension ref="A1:D719"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A656" workbookViewId="0">
-      <selection activeCell="F678" sqref="F678"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -438,9 +437,8 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
+    </row>
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -450,15 +448,11 @@
       <c r="C2" s="1">
         <v>76</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>43910</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="18">
+    </row>
+    <row r="3" spans="1:4" ht="18">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -468,15 +462,11 @@
       <c r="C3" s="1">
         <v>65</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>43910</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
+    </row>
+    <row r="4" spans="1:4" ht="18">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -486,15 +476,11 @@
       <c r="C4" s="1">
         <v>74</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>43910</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="18">
+    </row>
+    <row r="5" spans="1:4" ht="18">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -504,15 +490,11 @@
       <c r="C5" s="1">
         <v>79</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>43910</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="18">
+    </row>
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -522,15 +504,11 @@
       <c r="C6" s="1">
         <v>68</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>43912</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="18">
+    </row>
+    <row r="7" spans="1:4" ht="18">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -540,15 +518,11 @@
       <c r="C7" s="1">
         <v>41</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>43912</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="18">
+    </row>
+    <row r="8" spans="1:4" ht="18">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -558,15 +532,11 @@
       <c r="C8" s="1">
         <v>38</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>43913</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="18">
+    </row>
+    <row r="9" spans="1:4" ht="18">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -576,15 +546,11 @@
       <c r="C9" s="1">
         <v>53</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>43913</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="18">
+    </row>
+    <row r="10" spans="1:4" ht="18">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -594,15 +560,11 @@
       <c r="C10" s="1">
         <v>90</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>43914</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="18">
+    </row>
+    <row r="11" spans="1:4" ht="18">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -612,15 +574,11 @@
       <c r="C11" s="1">
         <v>75</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>43915</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="18">
+    </row>
+    <row r="12" spans="1:4" ht="18">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -630,15 +588,11 @@
       <c r="C12" s="1">
         <v>80</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>43918</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="18">
+    </row>
+    <row r="13" spans="1:4" ht="18">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -648,15 +602,11 @@
       <c r="C13" s="1">
         <v>73</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>43919</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="18">
+    </row>
+    <row r="14" spans="1:4" ht="18">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -666,15 +616,11 @@
       <c r="C14" s="1">
         <v>86</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>43919</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="18">
+    </row>
+    <row r="15" spans="1:4" ht="18">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -684,15 +630,11 @@
       <c r="C15" s="1">
         <v>92</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>43920</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="18">
+    </row>
+    <row r="16" spans="1:4" ht="18">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -702,15 +644,11 @@
       <c r="C16" s="1">
         <v>94</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>43920</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="18">
+    </row>
+    <row r="17" spans="1:4" ht="18">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -720,15 +658,11 @@
       <c r="C17" s="1">
         <v>59</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>43921</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="18">
+    </row>
+    <row r="18" spans="1:4" ht="18">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -738,15 +672,11 @@
       <c r="C18" s="1">
         <v>86</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>43921</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="18">
+    </row>
+    <row r="19" spans="1:4" ht="18">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -756,15 +686,11 @@
       <c r="C19" s="1">
         <v>67</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>43921</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="18">
+    </row>
+    <row r="20" spans="1:4" ht="18">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -774,15 +700,11 @@
       <c r="C20" s="1">
         <v>66</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>43921</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="18">
+    </row>
+    <row r="21" spans="1:4" ht="18">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -792,15 +714,11 @@
       <c r="C21" s="1">
         <v>91</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>43922</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="18">
+    </row>
+    <row r="22" spans="1:4" ht="18">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -810,15 +728,11 @@
       <c r="C22" s="1">
         <v>70</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>43923</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="18">
+    </row>
+    <row r="23" spans="1:4" ht="18">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -828,15 +742,11 @@
       <c r="C23" s="1">
         <v>89</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>43924</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="18">
+    </row>
+    <row r="24" spans="1:4" ht="18">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -846,15 +756,11 @@
       <c r="C24" s="1">
         <v>81</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>43924</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="18">
+    </row>
+    <row r="25" spans="1:4" ht="18">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -864,15 +770,11 @@
       <c r="C25" s="1">
         <v>79</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>43924</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="18">
+    </row>
+    <row r="26" spans="1:4" ht="18">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -882,15 +784,11 @@
       <c r="C26" s="1">
         <v>86</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>43924</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="18">
+    </row>
+    <row r="27" spans="1:4" ht="18">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -900,15 +798,11 @@
       <c r="C27" s="1">
         <v>80</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>43924</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="18">
+    </row>
+    <row r="28" spans="1:4" ht="18">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -918,15 +812,11 @@
       <c r="C28" s="1">
         <v>54</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>43925</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="18">
+    </row>
+    <row r="29" spans="1:4" ht="18">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -936,15 +826,11 @@
       <c r="C29" s="1">
         <v>77</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>43925</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="18">
+    </row>
+    <row r="30" spans="1:4" ht="18">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -954,15 +840,11 @@
       <c r="C30" s="1">
         <v>84</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>43925</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="18">
+    </row>
+    <row r="31" spans="1:4" ht="18">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -972,15 +854,11 @@
       <c r="C31" s="1">
         <v>85</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>43925</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="18">
+    </row>
+    <row r="32" spans="1:4" ht="18">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -990,15 +868,11 @@
       <c r="C32" s="1">
         <v>78</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>43925</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" ht="18">
+    </row>
+    <row r="33" spans="1:4" ht="18">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1008,15 +882,11 @@
       <c r="C33" s="1">
         <v>85</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>43925</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" ht="18">
+    </row>
+    <row r="34" spans="1:4" ht="18">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1026,15 +896,11 @@
       <c r="C34" s="1">
         <v>80</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>43926</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="18">
+    </row>
+    <row r="35" spans="1:4" ht="18">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1044,15 +910,11 @@
       <c r="C35" s="1">
         <v>86</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>43926</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="18">
+    </row>
+    <row r="36" spans="1:4" ht="18">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1062,11 +924,11 @@
       <c r="C36" s="1">
         <v>61</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>43927</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18">
+    <row r="37" spans="1:4" ht="18">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1076,11 +938,11 @@
       <c r="C37" s="1">
         <v>94</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>43927</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18">
+    <row r="38" spans="1:4" ht="18">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1090,11 +952,11 @@
       <c r="C38" s="1">
         <v>73</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>43927</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18">
+    <row r="39" spans="1:4" ht="18">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1104,11 +966,11 @@
       <c r="C39" s="1">
         <v>78</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>43927</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18">
+    <row r="40" spans="1:4" ht="18">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1118,11 +980,11 @@
       <c r="C40" s="1">
         <v>61</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>43928</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18">
+    <row r="41" spans="1:4" ht="18">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1132,11 +994,11 @@
       <c r="C41" s="1">
         <v>67</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>43928</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18">
+    <row r="42" spans="1:4" ht="18">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1146,11 +1008,11 @@
       <c r="C42" s="1">
         <v>84</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>43928</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18">
+    <row r="43" spans="1:4" ht="18">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1160,11 +1022,11 @@
       <c r="C43" s="1">
         <v>72</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>43928</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18">
+    <row r="44" spans="1:4" ht="18">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1174,11 +1036,11 @@
       <c r="C44" s="1">
         <v>65</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>43928</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18">
+    <row r="45" spans="1:4" ht="18">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1188,11 +1050,11 @@
       <c r="C45" s="1">
         <v>77</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>43928</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18">
+    <row r="46" spans="1:4" ht="18">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1202,11 +1064,11 @@
       <c r="C46" s="1">
         <v>82</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>43928</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18">
+    <row r="47" spans="1:4" ht="18">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1216,11 +1078,11 @@
       <c r="C47" s="1">
         <v>84</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>43928</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18">
+    <row r="48" spans="1:4" ht="18">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1230,7 +1092,7 @@
       <c r="C48" s="1">
         <v>92</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>43928</v>
       </c>
     </row>
@@ -1244,7 +1106,7 @@
       <c r="C49" s="1">
         <v>74</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>43929</v>
       </c>
     </row>
@@ -1258,7 +1120,7 @@
       <c r="C50" s="1">
         <v>79</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>43929</v>
       </c>
     </row>
@@ -1272,7 +1134,7 @@
       <c r="C51" s="1">
         <v>67</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>43929</v>
       </c>
     </row>
@@ -1286,7 +1148,7 @@
       <c r="C52" s="1">
         <v>78</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>43929</v>
       </c>
     </row>
@@ -1300,7 +1162,7 @@
       <c r="C53" s="1">
         <v>71</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>43929</v>
       </c>
     </row>
@@ -1314,7 +1176,7 @@
       <c r="C54" s="1">
         <v>49</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>43929</v>
       </c>
     </row>
@@ -1328,7 +1190,7 @@
       <c r="C55" s="1">
         <v>79</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>43929</v>
       </c>
     </row>
@@ -1342,7 +1204,7 @@
       <c r="C56" s="1">
         <v>67</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>43929</v>
       </c>
     </row>
@@ -1356,7 +1218,7 @@
       <c r="C57" s="1">
         <v>73</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>43929</v>
       </c>
     </row>
@@ -1370,7 +1232,7 @@
       <c r="C58" s="1">
         <v>89</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>43929</v>
       </c>
     </row>
@@ -1384,7 +1246,7 @@
       <c r="C59" s="1">
         <v>82</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>43929</v>
       </c>
     </row>
@@ -1398,7 +1260,7 @@
       <c r="C60" s="1">
         <v>67</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>43930</v>
       </c>
     </row>
@@ -1412,7 +1274,7 @@
       <c r="C61" s="1">
         <v>76</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>43930</v>
       </c>
     </row>
@@ -1426,7 +1288,7 @@
       <c r="C62" s="1">
         <v>48</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>43930</v>
       </c>
     </row>
@@ -1440,7 +1302,7 @@
       <c r="C63" s="1">
         <v>77</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <v>43930</v>
       </c>
     </row>
@@ -1454,7 +1316,7 @@
       <c r="C64" s="1">
         <v>93</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <v>43930</v>
       </c>
     </row>
@@ -1468,7 +1330,7 @@
       <c r="C65" s="1">
         <v>86</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <v>43930</v>
       </c>
     </row>
@@ -1482,7 +1344,7 @@
       <c r="C66" s="1">
         <v>89</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="2">
         <v>43930</v>
       </c>
     </row>
@@ -1496,7 +1358,7 @@
       <c r="C67" s="1">
         <v>71</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <v>43930</v>
       </c>
     </row>
@@ -1510,7 +1372,7 @@
       <c r="C68" s="1">
         <v>78</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="2">
         <v>43931</v>
       </c>
     </row>
@@ -1524,7 +1386,7 @@
       <c r="C69" s="1">
         <v>66</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <v>43931</v>
       </c>
     </row>
@@ -1538,7 +1400,7 @@
       <c r="C70" s="1">
         <v>85</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <v>43931</v>
       </c>
     </row>
@@ -1552,7 +1414,7 @@
       <c r="C71" s="1">
         <v>64</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <v>43931</v>
       </c>
     </row>
@@ -1566,7 +1428,7 @@
       <c r="C72" s="1">
         <v>65</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <v>43931</v>
       </c>
     </row>
@@ -1580,7 +1442,7 @@
       <c r="C73" s="1">
         <v>89</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <v>43931</v>
       </c>
     </row>
@@ -1594,7 +1456,7 @@
       <c r="C74" s="1">
         <v>58</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>43931</v>
       </c>
     </row>
@@ -1608,7 +1470,7 @@
       <c r="C75" s="1">
         <v>73</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <v>43931</v>
       </c>
     </row>
@@ -1622,7 +1484,7 @@
       <c r="C76" s="1">
         <v>76</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <v>43931</v>
       </c>
     </row>
@@ -1636,7 +1498,7 @@
       <c r="C77" s="1">
         <v>85</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <v>43931</v>
       </c>
     </row>
@@ -1650,7 +1512,7 @@
       <c r="C78" s="1">
         <v>74</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <v>43931</v>
       </c>
     </row>
@@ -1664,7 +1526,7 @@
       <c r="C79" s="1">
         <v>60</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="2">
         <v>43932</v>
       </c>
     </row>
@@ -1678,7 +1540,7 @@
       <c r="C80" s="1">
         <v>85</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="2">
         <v>43932</v>
       </c>
     </row>
@@ -1692,7 +1554,7 @@
       <c r="C81" s="1">
         <v>91</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="2">
         <v>43932</v>
       </c>
     </row>
@@ -1706,7 +1568,7 @@
       <c r="C82" s="1">
         <v>62</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <v>43932</v>
       </c>
     </row>
@@ -1720,7 +1582,7 @@
       <c r="C83" s="1">
         <v>84</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <v>43932</v>
       </c>
     </row>
@@ -1734,7 +1596,7 @@
       <c r="C84" s="1">
         <v>81</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <v>43932</v>
       </c>
     </row>
@@ -1748,7 +1610,7 @@
       <c r="C85" s="1">
         <v>90</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <v>43932</v>
       </c>
     </row>
@@ -1762,7 +1624,7 @@
       <c r="C86" s="1">
         <v>59</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="2">
         <v>43932</v>
       </c>
     </row>
@@ -1776,7 +1638,7 @@
       <c r="C87" s="1">
         <v>77</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
         <v>43933</v>
       </c>
     </row>
@@ -1790,7 +1652,7 @@
       <c r="C88" s="1">
         <v>89</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="2">
         <v>43933</v>
       </c>
     </row>
@@ -1804,7 +1666,7 @@
       <c r="C89" s="1">
         <v>93</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="2">
         <v>43933</v>
       </c>
     </row>
@@ -1818,7 +1680,7 @@
       <c r="C90" s="1">
         <v>89</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="2">
         <v>43933</v>
       </c>
     </row>
@@ -1832,7 +1694,7 @@
       <c r="C91" s="1">
         <v>77</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="2">
         <v>43933</v>
       </c>
     </row>
@@ -1846,7 +1708,7 @@
       <c r="C92" s="1">
         <v>78</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="2">
         <v>43933</v>
       </c>
     </row>
@@ -1860,7 +1722,7 @@
       <c r="C93" s="1">
         <v>85</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="2">
         <v>43933</v>
       </c>
     </row>
@@ -1874,7 +1736,7 @@
       <c r="C94" s="1">
         <v>84</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <v>43933</v>
       </c>
     </row>
@@ -1888,7 +1750,7 @@
       <c r="C95" s="1">
         <v>70</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <v>43933</v>
       </c>
     </row>
@@ -1902,7 +1764,7 @@
       <c r="C96" s="1">
         <v>78</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <v>43933</v>
       </c>
     </row>
@@ -1916,7 +1778,7 @@
       <c r="C97" s="1">
         <v>90</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="2">
         <v>43933</v>
       </c>
     </row>
@@ -1930,7 +1792,7 @@
       <c r="C98" s="1">
         <v>86</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="2">
         <v>43933</v>
       </c>
     </row>
@@ -1944,7 +1806,7 @@
       <c r="C99" s="1">
         <v>78</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="2">
         <v>43933</v>
       </c>
     </row>
@@ -1958,7 +1820,7 @@
       <c r="C100" s="1">
         <v>92</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="2">
         <v>43933</v>
       </c>
     </row>
@@ -1972,7 +1834,7 @@
       <c r="C101" s="1">
         <v>66</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="2">
         <v>43934</v>
       </c>
     </row>
@@ -1986,7 +1848,7 @@
       <c r="C102" s="1">
         <v>80</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="2">
         <v>43934</v>
       </c>
     </row>
@@ -2000,7 +1862,7 @@
       <c r="C103" s="1">
         <v>92</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="2">
         <v>43934</v>
       </c>
     </row>
@@ -2014,7 +1876,7 @@
       <c r="C104" s="1">
         <v>76</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="2">
         <v>43934</v>
       </c>
     </row>
@@ -2028,7 +1890,7 @@
       <c r="C105" s="1">
         <v>83</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="2">
         <v>43934</v>
       </c>
     </row>
@@ -2042,7 +1904,7 @@
       <c r="C106" s="1">
         <v>75</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="2">
         <v>43934</v>
       </c>
     </row>
@@ -2056,7 +1918,7 @@
       <c r="C107" s="1">
         <v>46</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="2">
         <v>43934</v>
       </c>
     </row>
@@ -2070,7 +1932,7 @@
       <c r="C108" s="1">
         <v>66</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="2">
         <v>43934</v>
       </c>
     </row>
@@ -2084,7 +1946,7 @@
       <c r="C109" s="1">
         <v>89</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="2">
         <v>43934</v>
       </c>
     </row>
@@ -2098,7 +1960,7 @@
       <c r="C110" s="1">
         <v>75</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="2">
         <v>43934</v>
       </c>
     </row>
@@ -2112,7 +1974,7 @@
       <c r="C111" s="1">
         <v>85</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="2">
         <v>43935</v>
       </c>
     </row>
@@ -2126,7 +1988,7 @@
       <c r="C112" s="1">
         <v>63</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="2">
         <v>43935</v>
       </c>
     </row>
@@ -2140,7 +2002,7 @@
       <c r="C113" s="1">
         <v>89</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="2">
         <v>43935</v>
       </c>
     </row>
@@ -2154,7 +2016,7 @@
       <c r="C114" s="1">
         <v>89</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="2">
         <v>43935</v>
       </c>
     </row>
@@ -2168,7 +2030,7 @@
       <c r="C115" s="1">
         <v>78</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="2">
         <v>43935</v>
       </c>
     </row>
@@ -2182,7 +2044,7 @@
       <c r="C116" s="1">
         <v>97</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="2">
         <v>43935</v>
       </c>
     </row>
@@ -2196,7 +2058,7 @@
       <c r="C117" s="1">
         <v>80</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="2">
         <v>43935</v>
       </c>
     </row>
@@ -2210,7 +2072,7 @@
       <c r="C118" s="1">
         <v>65</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="2">
         <v>43935</v>
       </c>
     </row>
@@ -2224,7 +2086,7 @@
       <c r="C119" s="1">
         <v>88</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="2">
         <v>43935</v>
       </c>
     </row>
@@ -2238,7 +2100,7 @@
       <c r="C120" s="1">
         <v>78</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="2">
         <v>43935</v>
       </c>
     </row>
@@ -2252,7 +2114,7 @@
       <c r="C121" s="1">
         <v>96</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="2">
         <v>43935</v>
       </c>
     </row>
@@ -2266,7 +2128,7 @@
       <c r="C122" s="1">
         <v>73</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="2">
         <v>43935</v>
       </c>
     </row>
@@ -2280,7 +2142,7 @@
       <c r="C123" s="1">
         <v>75</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="2">
         <v>43935</v>
       </c>
     </row>
@@ -2294,7 +2156,7 @@
       <c r="C124" s="1">
         <v>88</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="2">
         <v>43936</v>
       </c>
     </row>
@@ -2308,7 +2170,7 @@
       <c r="C125" s="1">
         <v>76</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="2">
         <v>43936</v>
       </c>
     </row>
@@ -2322,7 +2184,7 @@
       <c r="C126" s="1">
         <v>81</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="2">
         <v>43936</v>
       </c>
     </row>
@@ -2336,7 +2198,7 @@
       <c r="C127" s="1">
         <v>78</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="2">
         <v>43936</v>
       </c>
     </row>
@@ -2350,7 +2212,7 @@
       <c r="C128" s="1">
         <v>81</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="2">
         <v>43936</v>
       </c>
     </row>
@@ -2364,7 +2226,7 @@
       <c r="C129" s="1">
         <v>65</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="2">
         <v>43936</v>
       </c>
     </row>
@@ -2378,7 +2240,7 @@
       <c r="C130" s="1">
         <v>89</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="2">
         <v>43936</v>
       </c>
     </row>
@@ -2392,7 +2254,7 @@
       <c r="C131" s="1">
         <v>86</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="2">
         <v>43936</v>
       </c>
     </row>
@@ -2406,7 +2268,7 @@
       <c r="C132" s="1">
         <v>81</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="2">
         <v>43936</v>
       </c>
     </row>
@@ -2420,7 +2282,7 @@
       <c r="C133" s="1">
         <v>67</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="2">
         <v>43936</v>
       </c>
     </row>
@@ -2434,7 +2296,7 @@
       <c r="C134" s="1">
         <v>64</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="2">
         <v>43936</v>
       </c>
     </row>
@@ -2448,7 +2310,7 @@
       <c r="C135" s="1">
         <v>68</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="2">
         <v>43936</v>
       </c>
     </row>
@@ -2462,7 +2324,7 @@
       <c r="C136" s="1">
         <v>81</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="2">
         <v>43937</v>
       </c>
     </row>
@@ -2476,7 +2338,7 @@
       <c r="C137" s="1">
         <v>80</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="2">
         <v>43937</v>
       </c>
     </row>
@@ -2490,7 +2352,7 @@
       <c r="C138" s="1">
         <v>90</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="2">
         <v>43937</v>
       </c>
     </row>
@@ -2504,7 +2366,7 @@
       <c r="C139" s="1">
         <v>78</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="2">
         <v>43937</v>
       </c>
     </row>
@@ -2518,7 +2380,7 @@
       <c r="C140" s="1">
         <v>82</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="2">
         <v>43937</v>
       </c>
     </row>
@@ -2532,7 +2394,7 @@
       <c r="C141" s="1">
         <v>65</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="2">
         <v>43937</v>
       </c>
     </row>
@@ -2546,7 +2408,7 @@
       <c r="C142" s="1">
         <v>82</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="2">
         <v>43937</v>
       </c>
     </row>
@@ -2560,7 +2422,7 @@
       <c r="C143" s="1">
         <v>53</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="2">
         <v>43937</v>
       </c>
     </row>
@@ -2574,7 +2436,7 @@
       <c r="C144" s="1">
         <v>81</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="2">
         <v>43938</v>
       </c>
     </row>
@@ -2588,7 +2450,7 @@
       <c r="C145" s="1">
         <v>69</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="2">
         <v>43938</v>
       </c>
     </row>
@@ -2602,7 +2464,7 @@
       <c r="C146" s="1">
         <v>83</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="2">
         <v>43938</v>
       </c>
     </row>
@@ -2616,7 +2478,7 @@
       <c r="C147" s="1">
         <v>67</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="2">
         <v>43938</v>
       </c>
     </row>
@@ -2630,7 +2492,7 @@
       <c r="C148" s="1">
         <v>76</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="2">
         <v>43938</v>
       </c>
     </row>
@@ -2644,7 +2506,7 @@
       <c r="C149" s="1">
         <v>73</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="2">
         <v>43938</v>
       </c>
     </row>
@@ -2658,7 +2520,7 @@
       <c r="C150" s="1">
         <v>93</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="2">
         <v>43938</v>
       </c>
     </row>
@@ -2672,7 +2534,7 @@
       <c r="C151" s="1">
         <v>71</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="2">
         <v>43938</v>
       </c>
     </row>
@@ -2686,7 +2548,7 @@
       <c r="C152" s="1">
         <v>78</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="2">
         <v>43938</v>
       </c>
     </row>
@@ -2700,7 +2562,7 @@
       <c r="C153" s="1">
         <v>84</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="2">
         <v>43938</v>
       </c>
     </row>
@@ -2714,7 +2576,7 @@
       <c r="C154" s="1">
         <v>91</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="2">
         <v>43938</v>
       </c>
     </row>
@@ -2728,7 +2590,7 @@
       <c r="C155" s="1">
         <v>76</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="2">
         <v>43938</v>
       </c>
     </row>
@@ -2742,7 +2604,7 @@
       <c r="C156" s="1">
         <v>84</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="2">
         <v>43938</v>
       </c>
     </row>
@@ -2756,7 +2618,7 @@
       <c r="C157" s="1">
         <v>94</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="2">
         <v>43938</v>
       </c>
     </row>
@@ -2770,7 +2632,7 @@
       <c r="C158" s="1">
         <v>81</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2784,7 +2646,7 @@
       <c r="C159" s="1">
         <v>94</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2798,7 +2660,7 @@
       <c r="C160" s="1">
         <v>76</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2812,7 +2674,7 @@
       <c r="C161" s="1">
         <v>77</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2826,7 +2688,7 @@
       <c r="C162" s="1">
         <v>92</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2840,7 +2702,7 @@
       <c r="C163" s="1">
         <v>88</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2854,7 +2716,7 @@
       <c r="C164" s="1">
         <v>88</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2868,7 +2730,7 @@
       <c r="C165" s="1">
         <v>82</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2882,7 +2744,7 @@
       <c r="C166" s="1">
         <v>70</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2896,7 +2758,7 @@
       <c r="C167" s="1">
         <v>90</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2910,7 +2772,7 @@
       <c r="C168" s="1">
         <v>79</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2924,7 +2786,7 @@
       <c r="C169" s="1">
         <v>80</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2938,7 +2800,7 @@
       <c r="C170" s="1">
         <v>78</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2952,7 +2814,7 @@
       <c r="C171" s="1">
         <v>90</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2966,7 +2828,7 @@
       <c r="C172" s="1">
         <v>82</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2980,7 +2842,7 @@
       <c r="C173" s="1">
         <v>42</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173" s="2">
         <v>43939</v>
       </c>
     </row>
@@ -2994,7 +2856,7 @@
       <c r="C174" s="1">
         <v>65</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3008,7 +2870,7 @@
       <c r="C175" s="1">
         <v>67</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3022,7 +2884,7 @@
       <c r="C176" s="1">
         <v>81</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3036,7 +2898,7 @@
       <c r="C177" s="1">
         <v>59</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3050,7 +2912,7 @@
       <c r="C178" s="1">
         <v>87</v>
       </c>
-      <c r="D178" s="3">
+      <c r="D178" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3064,7 +2926,7 @@
       <c r="C179" s="1">
         <v>78</v>
       </c>
-      <c r="D179" s="3">
+      <c r="D179" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3078,7 +2940,7 @@
       <c r="C180" s="1">
         <v>85</v>
       </c>
-      <c r="D180" s="3">
+      <c r="D180" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3092,7 +2954,7 @@
       <c r="C181" s="1">
         <v>77</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D181" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3106,7 +2968,7 @@
       <c r="C182" s="1">
         <v>83</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D182" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3120,7 +2982,7 @@
       <c r="C183" s="1">
         <v>73</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D183" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3134,7 +2996,7 @@
       <c r="C184" s="1">
         <v>72</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3148,7 +3010,7 @@
       <c r="C185" s="1">
         <v>88</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D185" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3162,7 +3024,7 @@
       <c r="C186" s="1">
         <v>72</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3176,7 +3038,7 @@
       <c r="C187" s="1">
         <v>65</v>
       </c>
-      <c r="D187" s="3">
+      <c r="D187" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3190,7 +3052,7 @@
       <c r="C188" s="1">
         <v>83</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3204,7 +3066,7 @@
       <c r="C189" s="1">
         <v>77</v>
       </c>
-      <c r="D189" s="3">
+      <c r="D189" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3218,7 +3080,7 @@
       <c r="C190" s="1">
         <v>81</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190" s="2">
         <v>43940</v>
       </c>
     </row>
@@ -3232,7 +3094,7 @@
       <c r="C191" s="1">
         <v>92</v>
       </c>
-      <c r="D191" s="3">
+      <c r="D191" s="2">
         <v>43941</v>
       </c>
     </row>
@@ -3246,7 +3108,7 @@
       <c r="C192" s="1">
         <v>87</v>
       </c>
-      <c r="D192" s="3">
+      <c r="D192" s="2">
         <v>43941</v>
       </c>
     </row>
@@ -3260,7 +3122,7 @@
       <c r="C193" s="1">
         <v>71</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D193" s="2">
         <v>43941</v>
       </c>
     </row>
@@ -3274,7 +3136,7 @@
       <c r="C194" s="1">
         <v>94</v>
       </c>
-      <c r="D194" s="3">
+      <c r="D194" s="2">
         <v>43941</v>
       </c>
     </row>
@@ -3288,7 +3150,7 @@
       <c r="C195" s="1">
         <v>70</v>
       </c>
-      <c r="D195" s="3">
+      <c r="D195" s="2">
         <v>43941</v>
       </c>
     </row>
@@ -3302,7 +3164,7 @@
       <c r="C196" s="1">
         <v>81</v>
       </c>
-      <c r="D196" s="3">
+      <c r="D196" s="2">
         <v>43941</v>
       </c>
     </row>
@@ -3316,7 +3178,7 @@
       <c r="C197" s="1">
         <v>85</v>
       </c>
-      <c r="D197" s="3">
+      <c r="D197" s="2">
         <v>43941</v>
       </c>
     </row>
@@ -3330,7 +3192,7 @@
       <c r="C198" s="1">
         <v>87</v>
       </c>
-      <c r="D198" s="3">
+      <c r="D198" s="2">
         <v>43941</v>
       </c>
     </row>
@@ -3344,7 +3206,7 @@
       <c r="C199" s="1">
         <v>84</v>
       </c>
-      <c r="D199" s="3">
+      <c r="D199" s="2">
         <v>43941</v>
       </c>
     </row>
@@ -3358,7 +3220,7 @@
       <c r="C200" s="1">
         <v>75</v>
       </c>
-      <c r="D200" s="3">
+      <c r="D200" s="2">
         <v>43941</v>
       </c>
     </row>
@@ -3372,7 +3234,7 @@
       <c r="C201" s="1">
         <v>78</v>
       </c>
-      <c r="D201" s="3">
+      <c r="D201" s="2">
         <v>43942</v>
       </c>
     </row>
@@ -3386,7 +3248,7 @@
       <c r="C202" s="1">
         <v>81</v>
       </c>
-      <c r="D202" s="3">
+      <c r="D202" s="2">
         <v>43942</v>
       </c>
     </row>
@@ -3400,7 +3262,7 @@
       <c r="C203" s="1">
         <v>75</v>
       </c>
-      <c r="D203" s="3">
+      <c r="D203" s="2">
         <v>43942</v>
       </c>
     </row>
@@ -3414,7 +3276,7 @@
       <c r="C204" s="1">
         <v>83</v>
       </c>
-      <c r="D204" s="3">
+      <c r="D204" s="2">
         <v>43942</v>
       </c>
     </row>
@@ -3428,7 +3290,7 @@
       <c r="C205" s="1">
         <v>83</v>
       </c>
-      <c r="D205" s="3">
+      <c r="D205" s="2">
         <v>43942</v>
       </c>
     </row>
@@ -3442,7 +3304,7 @@
       <c r="C206" s="1">
         <v>66</v>
       </c>
-      <c r="D206" s="3">
+      <c r="D206" s="2">
         <v>43942</v>
       </c>
     </row>
@@ -3456,7 +3318,7 @@
       <c r="C207" s="1">
         <v>87</v>
       </c>
-      <c r="D207" s="3">
+      <c r="D207" s="2">
         <v>43942</v>
       </c>
     </row>
@@ -3470,7 +3332,7 @@
       <c r="C208" s="1">
         <v>74</v>
       </c>
-      <c r="D208" s="3">
+      <c r="D208" s="2">
         <v>43942</v>
       </c>
     </row>
@@ -3484,7 +3346,7 @@
       <c r="C209" s="1">
         <v>60</v>
       </c>
-      <c r="D209" s="3">
+      <c r="D209" s="2">
         <v>43942</v>
       </c>
     </row>
@@ -3498,7 +3360,7 @@
       <c r="C210" s="1">
         <v>81</v>
       </c>
-      <c r="D210" s="3">
+      <c r="D210" s="2">
         <v>43942</v>
       </c>
     </row>
@@ -3512,7 +3374,7 @@
       <c r="C211" s="1">
         <v>79</v>
       </c>
-      <c r="D211" s="3">
+      <c r="D211" s="2">
         <v>43942</v>
       </c>
     </row>
@@ -3526,7 +3388,7 @@
       <c r="C212" s="1">
         <v>63</v>
       </c>
-      <c r="D212" s="3">
+      <c r="D212" s="2">
         <v>43942</v>
       </c>
     </row>
@@ -3540,7 +3402,7 @@
       <c r="C213" s="1">
         <v>66</v>
       </c>
-      <c r="D213" s="3">
+      <c r="D213" s="2">
         <v>43942</v>
       </c>
     </row>
@@ -3554,7 +3416,7 @@
       <c r="C214" s="1">
         <v>73</v>
       </c>
-      <c r="D214" s="3">
+      <c r="D214" s="2">
         <v>43943</v>
       </c>
     </row>
@@ -3568,7 +3430,7 @@
       <c r="C215" s="1">
         <v>89</v>
       </c>
-      <c r="D215" s="3">
+      <c r="D215" s="2">
         <v>43943</v>
       </c>
     </row>
@@ -3582,7 +3444,7 @@
       <c r="C216" s="1">
         <v>70</v>
       </c>
-      <c r="D216" s="3">
+      <c r="D216" s="2">
         <v>43943</v>
       </c>
     </row>
@@ -3596,7 +3458,7 @@
       <c r="C217" s="1">
         <v>93</v>
       </c>
-      <c r="D217" s="3">
+      <c r="D217" s="2">
         <v>43943</v>
       </c>
     </row>
@@ -3610,7 +3472,7 @@
       <c r="C218" s="1">
         <v>79</v>
       </c>
-      <c r="D218" s="3">
+      <c r="D218" s="2">
         <v>43943</v>
       </c>
     </row>
@@ -3624,7 +3486,7 @@
       <c r="C219" s="1">
         <v>96</v>
       </c>
-      <c r="D219" s="3">
+      <c r="D219" s="2">
         <v>43943</v>
       </c>
     </row>
@@ -3638,7 +3500,7 @@
       <c r="C220" s="1">
         <v>68</v>
       </c>
-      <c r="D220" s="3">
+      <c r="D220" s="2">
         <v>43943</v>
       </c>
     </row>
@@ -3652,7 +3514,7 @@
       <c r="C221" s="1">
         <v>87</v>
       </c>
-      <c r="D221" s="3">
+      <c r="D221" s="2">
         <v>43943</v>
       </c>
     </row>
@@ -3666,7 +3528,7 @@
       <c r="C222" s="1">
         <v>89</v>
       </c>
-      <c r="D222" s="3">
+      <c r="D222" s="2">
         <v>43943</v>
       </c>
     </row>
@@ -3680,7 +3542,7 @@
       <c r="C223" s="1">
         <v>86</v>
       </c>
-      <c r="D223" s="3">
+      <c r="D223" s="2">
         <v>43943</v>
       </c>
     </row>
@@ -3694,7 +3556,7 @@
       <c r="C224" s="1">
         <v>68</v>
       </c>
-      <c r="D224" s="3">
+      <c r="D224" s="2">
         <v>43943</v>
       </c>
     </row>
@@ -3708,7 +3570,7 @@
       <c r="C225" s="1">
         <v>87</v>
       </c>
-      <c r="D225" s="3">
+      <c r="D225" s="2">
         <v>43943</v>
       </c>
     </row>
@@ -3722,7 +3584,7 @@
       <c r="C226" s="1">
         <v>73</v>
       </c>
-      <c r="D226" s="3">
+      <c r="D226" s="2">
         <v>43943</v>
       </c>
     </row>
@@ -3736,7 +3598,7 @@
       <c r="C227" s="1">
         <v>64</v>
       </c>
-      <c r="D227" s="3">
+      <c r="D227" s="2">
         <v>43944</v>
       </c>
     </row>
@@ -3750,7 +3612,7 @@
       <c r="C228" s="1">
         <v>99</v>
       </c>
-      <c r="D228" s="3">
+      <c r="D228" s="2">
         <v>43944</v>
       </c>
     </row>
@@ -3764,7 +3626,7 @@
       <c r="C229" s="1">
         <v>77</v>
       </c>
-      <c r="D229" s="3">
+      <c r="D229" s="2">
         <v>43944</v>
       </c>
     </row>
@@ -3778,7 +3640,7 @@
       <c r="C230" s="1">
         <v>86</v>
       </c>
-      <c r="D230" s="3">
+      <c r="D230" s="2">
         <v>43944</v>
       </c>
     </row>
@@ -3792,7 +3654,7 @@
       <c r="C231" s="1">
         <v>85</v>
       </c>
-      <c r="D231" s="3">
+      <c r="D231" s="2">
         <v>43944</v>
       </c>
     </row>
@@ -3806,7 +3668,7 @@
       <c r="C232" s="1">
         <v>82</v>
       </c>
-      <c r="D232" s="3">
+      <c r="D232" s="2">
         <v>43944</v>
       </c>
     </row>
@@ -3820,7 +3682,7 @@
       <c r="C233" s="1">
         <v>82</v>
       </c>
-      <c r="D233" s="3">
+      <c r="D233" s="2">
         <v>43944</v>
       </c>
     </row>
@@ -3834,7 +3696,7 @@
       <c r="C234" s="1">
         <v>69</v>
       </c>
-      <c r="D234" s="3">
+      <c r="D234" s="2">
         <v>43944</v>
       </c>
     </row>
@@ -3848,7 +3710,7 @@
       <c r="C235" s="1">
         <v>93</v>
       </c>
-      <c r="D235" s="3">
+      <c r="D235" s="2">
         <v>43944</v>
       </c>
     </row>
@@ -3862,7 +3724,7 @@
       <c r="C236" s="1">
         <v>74</v>
       </c>
-      <c r="D236" s="3">
+      <c r="D236" s="2">
         <v>43944</v>
       </c>
     </row>
@@ -3876,7 +3738,7 @@
       <c r="C237" s="1">
         <v>74</v>
       </c>
-      <c r="D237" s="3">
+      <c r="D237" s="2">
         <v>43944</v>
       </c>
     </row>
@@ -3890,7 +3752,7 @@
       <c r="C238" s="1">
         <v>88</v>
       </c>
-      <c r="D238" s="3">
+      <c r="D238" s="2">
         <v>43944</v>
       </c>
     </row>
@@ -3904,7 +3766,7 @@
       <c r="C239" s="1">
         <v>76</v>
       </c>
-      <c r="D239" s="3">
+      <c r="D239" s="2">
         <v>43944</v>
       </c>
     </row>
@@ -3918,7 +3780,7 @@
       <c r="C240" s="1">
         <v>87</v>
       </c>
-      <c r="D240" s="3">
+      <c r="D240" s="2">
         <v>43944</v>
       </c>
     </row>
@@ -3932,7 +3794,7 @@
       <c r="C241" s="1">
         <v>89</v>
       </c>
-      <c r="D241" s="3">
+      <c r="D241" s="2">
         <v>43945</v>
       </c>
     </row>
@@ -3946,7 +3808,7 @@
       <c r="C242" s="1">
         <v>60</v>
       </c>
-      <c r="D242" s="3">
+      <c r="D242" s="2">
         <v>43945</v>
       </c>
     </row>
@@ -3960,7 +3822,7 @@
       <c r="C243" s="1">
         <v>86</v>
       </c>
-      <c r="D243" s="3">
+      <c r="D243" s="2">
         <v>43945</v>
       </c>
     </row>
@@ -3974,7 +3836,7 @@
       <c r="C244" s="1">
         <v>61</v>
       </c>
-      <c r="D244" s="3">
+      <c r="D244" s="2">
         <v>43945</v>
       </c>
     </row>
@@ -3988,7 +3850,7 @@
       <c r="C245" s="1">
         <v>95</v>
       </c>
-      <c r="D245" s="3">
+      <c r="D245" s="2">
         <v>43945</v>
       </c>
     </row>
@@ -4002,7 +3864,7 @@
       <c r="C246" s="1">
         <v>91</v>
       </c>
-      <c r="D246" s="3">
+      <c r="D246" s="2">
         <v>43945</v>
       </c>
     </row>
@@ -4016,7 +3878,7 @@
       <c r="C247" s="1">
         <v>88</v>
       </c>
-      <c r="D247" s="3">
+      <c r="D247" s="2">
         <v>43945</v>
       </c>
     </row>
@@ -4030,7 +3892,7 @@
       <c r="C248" s="1">
         <v>85</v>
       </c>
-      <c r="D248" s="3">
+      <c r="D248" s="2">
         <v>43945</v>
       </c>
     </row>
@@ -4044,7 +3906,7 @@
       <c r="C249" s="1">
         <v>74</v>
       </c>
-      <c r="D249" s="3">
+      <c r="D249" s="2">
         <v>43945</v>
       </c>
     </row>
@@ -4058,7 +3920,7 @@
       <c r="C250" s="1">
         <v>76</v>
       </c>
-      <c r="D250" s="3">
+      <c r="D250" s="2">
         <v>43945</v>
       </c>
     </row>
@@ -4072,7 +3934,7 @@
       <c r="C251" s="1">
         <v>91</v>
       </c>
-      <c r="D251" s="3">
+      <c r="D251" s="2">
         <v>43945</v>
       </c>
     </row>
@@ -4086,7 +3948,7 @@
       <c r="C252" s="1">
         <v>91</v>
       </c>
-      <c r="D252" s="3">
+      <c r="D252" s="2">
         <v>43946</v>
       </c>
     </row>
@@ -4100,7 +3962,7 @@
       <c r="C253" s="1">
         <v>81</v>
       </c>
-      <c r="D253" s="3">
+      <c r="D253" s="2">
         <v>43946</v>
       </c>
     </row>
@@ -4114,7 +3976,7 @@
       <c r="C254" s="1">
         <v>80</v>
       </c>
-      <c r="D254" s="3">
+      <c r="D254" s="2">
         <v>43946</v>
       </c>
     </row>
@@ -4128,7 +3990,7 @@
       <c r="C255" s="1">
         <v>91</v>
       </c>
-      <c r="D255" s="3">
+      <c r="D255" s="2">
         <v>43946</v>
       </c>
     </row>
@@ -4142,7 +4004,7 @@
       <c r="C256" s="1">
         <v>86</v>
       </c>
-      <c r="D256" s="3">
+      <c r="D256" s="2">
         <v>43946</v>
       </c>
     </row>
@@ -4156,7 +4018,7 @@
       <c r="C257" s="1">
         <v>41</v>
       </c>
-      <c r="D257" s="3">
+      <c r="D257" s="2">
         <v>43946</v>
       </c>
     </row>
@@ -4170,7 +4032,7 @@
       <c r="C258" s="1">
         <v>91</v>
       </c>
-      <c r="D258" s="3">
+      <c r="D258" s="2">
         <v>43946</v>
       </c>
     </row>
@@ -4184,7 +4046,7 @@
       <c r="C259" s="1">
         <v>85</v>
       </c>
-      <c r="D259" s="3">
+      <c r="D259" s="2">
         <v>43946</v>
       </c>
     </row>
@@ -4198,7 +4060,7 @@
       <c r="C260" s="1">
         <v>80</v>
       </c>
-      <c r="D260" s="3">
+      <c r="D260" s="2">
         <v>43946</v>
       </c>
     </row>
@@ -4212,7 +4074,7 @@
       <c r="C261" s="1">
         <v>83</v>
       </c>
-      <c r="D261" s="3">
+      <c r="D261" s="2">
         <v>43946</v>
       </c>
     </row>
@@ -4226,7 +4088,7 @@
       <c r="C262" s="1">
         <v>71</v>
       </c>
-      <c r="D262" s="3">
+      <c r="D262" s="2">
         <v>43946</v>
       </c>
     </row>
@@ -4240,7 +4102,7 @@
       <c r="C263" s="1">
         <v>79</v>
       </c>
-      <c r="D263" s="3">
+      <c r="D263" s="2">
         <v>43946</v>
       </c>
     </row>
@@ -4254,7 +4116,7 @@
       <c r="C264" s="1">
         <v>71</v>
       </c>
-      <c r="D264" s="3">
+      <c r="D264" s="2">
         <v>43947</v>
       </c>
     </row>
@@ -4268,7 +4130,7 @@
       <c r="C265" s="1">
         <v>85</v>
       </c>
-      <c r="D265" s="3">
+      <c r="D265" s="2">
         <v>43947</v>
       </c>
     </row>
@@ -4282,7 +4144,7 @@
       <c r="C266" s="1">
         <v>85</v>
       </c>
-      <c r="D266" s="3">
+      <c r="D266" s="2">
         <v>43947</v>
       </c>
     </row>
@@ -4296,7 +4158,7 @@
       <c r="C267" s="1">
         <v>84</v>
       </c>
-      <c r="D267" s="3">
+      <c r="D267" s="2">
         <v>43947</v>
       </c>
     </row>
@@ -4310,7 +4172,7 @@
       <c r="C268" s="1">
         <v>76</v>
       </c>
-      <c r="D268" s="3">
+      <c r="D268" s="2">
         <v>43947</v>
       </c>
     </row>
@@ -4324,7 +4186,7 @@
       <c r="C269" s="1">
         <v>58</v>
       </c>
-      <c r="D269" s="3">
+      <c r="D269" s="2">
         <v>43947</v>
       </c>
     </row>
@@ -4338,7 +4200,7 @@
       <c r="C270" s="1">
         <v>86</v>
       </c>
-      <c r="D270" s="3">
+      <c r="D270" s="2">
         <v>43947</v>
       </c>
     </row>
@@ -4352,7 +4214,7 @@
       <c r="C271" s="1">
         <v>87</v>
       </c>
-      <c r="D271" s="3">
+      <c r="D271" s="2">
         <v>43947</v>
       </c>
     </row>
@@ -4366,7 +4228,7 @@
       <c r="C272" s="1">
         <v>37</v>
       </c>
-      <c r="D272" s="3">
+      <c r="D272" s="2">
         <v>43947</v>
       </c>
     </row>
@@ -4380,7 +4242,7 @@
       <c r="C273" s="1">
         <v>82</v>
       </c>
-      <c r="D273" s="3">
+      <c r="D273" s="2">
         <v>43947</v>
       </c>
     </row>
@@ -4394,7 +4256,7 @@
       <c r="C274" s="1">
         <v>81</v>
       </c>
-      <c r="D274" s="3">
+      <c r="D274" s="2">
         <v>43948</v>
       </c>
     </row>
@@ -4408,7 +4270,7 @@
       <c r="C275" s="1">
         <v>80</v>
       </c>
-      <c r="D275" s="3">
+      <c r="D275" s="2">
         <v>43948</v>
       </c>
     </row>
@@ -4422,7 +4284,7 @@
       <c r="C276" s="1">
         <v>86</v>
       </c>
-      <c r="D276" s="3">
+      <c r="D276" s="2">
         <v>43948</v>
       </c>
     </row>
@@ -4436,7 +4298,7 @@
       <c r="C277" s="1">
         <v>63</v>
       </c>
-      <c r="D277" s="3">
+      <c r="D277" s="2">
         <v>43948</v>
       </c>
     </row>
@@ -4450,7 +4312,7 @@
       <c r="C278" s="1">
         <v>66</v>
       </c>
-      <c r="D278" s="3">
+      <c r="D278" s="2">
         <v>43948</v>
       </c>
     </row>
@@ -4464,7 +4326,7 @@
       <c r="C279" s="1">
         <v>86</v>
       </c>
-      <c r="D279" s="3">
+      <c r="D279" s="2">
         <v>43948</v>
       </c>
     </row>
@@ -4478,7 +4340,7 @@
       <c r="C280" s="1">
         <v>86</v>
       </c>
-      <c r="D280" s="3">
+      <c r="D280" s="2">
         <v>43948</v>
       </c>
     </row>
@@ -4492,7 +4354,7 @@
       <c r="C281" s="1">
         <v>79</v>
       </c>
-      <c r="D281" s="3">
+      <c r="D281" s="2">
         <v>43948</v>
       </c>
     </row>
@@ -4506,7 +4368,7 @@
       <c r="C282" s="1">
         <v>87</v>
       </c>
-      <c r="D282" s="3">
+      <c r="D282" s="2">
         <v>43949</v>
       </c>
     </row>
@@ -4520,7 +4382,7 @@
       <c r="C283" s="1">
         <v>83</v>
       </c>
-      <c r="D283" s="3">
+      <c r="D283" s="2">
         <v>43949</v>
       </c>
     </row>
@@ -4534,7 +4396,7 @@
       <c r="C284" s="1">
         <v>63</v>
       </c>
-      <c r="D284" s="3">
+      <c r="D284" s="2">
         <v>43949</v>
       </c>
     </row>
@@ -4548,7 +4410,7 @@
       <c r="C285" s="1">
         <v>76</v>
       </c>
-      <c r="D285" s="3">
+      <c r="D285" s="2">
         <v>43949</v>
       </c>
     </row>
@@ -4562,7 +4424,7 @@
       <c r="C286" s="1">
         <v>59</v>
       </c>
-      <c r="D286" s="3">
+      <c r="D286" s="2">
         <v>43949</v>
       </c>
     </row>
@@ -4576,7 +4438,7 @@
       <c r="C287" s="1">
         <v>83</v>
       </c>
-      <c r="D287" s="3">
+      <c r="D287" s="2">
         <v>43949</v>
       </c>
     </row>
@@ -4590,7 +4452,7 @@
       <c r="C288" s="1">
         <v>97</v>
       </c>
-      <c r="D288" s="3">
+      <c r="D288" s="2">
         <v>43949</v>
       </c>
     </row>
@@ -4604,7 +4466,7 @@
       <c r="C289" s="1">
         <v>96</v>
       </c>
-      <c r="D289" s="3">
+      <c r="D289" s="2">
         <v>43949</v>
       </c>
     </row>
@@ -4618,7 +4480,7 @@
       <c r="C290" s="1">
         <v>74</v>
       </c>
-      <c r="D290" s="3">
+      <c r="D290" s="2">
         <v>43949</v>
       </c>
     </row>
@@ -4632,7 +4494,7 @@
       <c r="C291" s="1">
         <v>76</v>
       </c>
-      <c r="D291" s="3">
+      <c r="D291" s="2">
         <v>43949</v>
       </c>
     </row>
@@ -4646,7 +4508,7 @@
       <c r="C292" s="1">
         <v>84</v>
       </c>
-      <c r="D292" s="3">
+      <c r="D292" s="2">
         <v>43949</v>
       </c>
     </row>
@@ -4660,7 +4522,7 @@
       <c r="C293" s="1">
         <v>76</v>
       </c>
-      <c r="D293" s="3">
+      <c r="D293" s="2">
         <v>43950</v>
       </c>
     </row>
@@ -4674,7 +4536,7 @@
       <c r="C294" s="1">
         <v>66</v>
       </c>
-      <c r="D294" s="3">
+      <c r="D294" s="2">
         <v>43950</v>
       </c>
     </row>
@@ -4688,7 +4550,7 @@
       <c r="C295" s="1">
         <v>64</v>
       </c>
-      <c r="D295" s="3">
+      <c r="D295" s="2">
         <v>43950</v>
       </c>
     </row>
@@ -4702,7 +4564,7 @@
       <c r="C296" s="1">
         <v>84</v>
       </c>
-      <c r="D296" s="3">
+      <c r="D296" s="2">
         <v>43950</v>
       </c>
     </row>
@@ -4716,7 +4578,7 @@
       <c r="C297" s="1">
         <v>78</v>
       </c>
-      <c r="D297" s="3">
+      <c r="D297" s="2">
         <v>43950</v>
       </c>
     </row>
@@ -4730,7 +4592,7 @@
       <c r="C298" s="1">
         <v>44</v>
       </c>
-      <c r="D298" s="3">
+      <c r="D298" s="2">
         <v>43950</v>
       </c>
     </row>
@@ -4744,7 +4606,7 @@
       <c r="C299" s="1">
         <v>80</v>
       </c>
-      <c r="D299" s="3">
+      <c r="D299" s="2">
         <v>43950</v>
       </c>
     </row>
@@ -4758,7 +4620,7 @@
       <c r="C300" s="1">
         <v>87</v>
       </c>
-      <c r="D300" s="3">
+      <c r="D300" s="2">
         <v>43950</v>
       </c>
     </row>
@@ -4772,7 +4634,7 @@
       <c r="C301" s="1">
         <v>64</v>
       </c>
-      <c r="D301" s="3">
+      <c r="D301" s="2">
         <v>43950</v>
       </c>
     </row>
@@ -4786,7 +4648,7 @@
       <c r="C302" s="1">
         <v>76</v>
       </c>
-      <c r="D302" s="3">
+      <c r="D302" s="2">
         <v>43951</v>
       </c>
     </row>
@@ -4800,7 +4662,7 @@
       <c r="C303" s="1">
         <v>84</v>
       </c>
-      <c r="D303" s="3">
+      <c r="D303" s="2">
         <v>43951</v>
       </c>
     </row>
@@ -4814,7 +4676,7 @@
       <c r="C304" s="1">
         <v>90</v>
       </c>
-      <c r="D304" s="3">
+      <c r="D304" s="2">
         <v>43951</v>
       </c>
     </row>
@@ -4828,7 +4690,7 @@
       <c r="C305" s="1">
         <v>79</v>
       </c>
-      <c r="D305" s="3">
+      <c r="D305" s="2">
         <v>43951</v>
       </c>
     </row>
@@ -4842,7 +4704,7 @@
       <c r="C306" s="1">
         <v>77</v>
       </c>
-      <c r="D306" s="3">
+      <c r="D306" s="2">
         <v>43951</v>
       </c>
     </row>
@@ -4856,7 +4718,7 @@
       <c r="C307" s="1">
         <v>78</v>
       </c>
-      <c r="D307" s="3">
+      <c r="D307" s="2">
         <v>43951</v>
       </c>
     </row>
@@ -4870,7 +4732,7 @@
       <c r="C308" s="1">
         <v>84</v>
       </c>
-      <c r="D308" s="3">
+      <c r="D308" s="2">
         <v>43951</v>
       </c>
     </row>
@@ -4884,7 +4746,7 @@
       <c r="C309" s="1">
         <v>76</v>
       </c>
-      <c r="D309" s="3">
+      <c r="D309" s="2">
         <v>43951</v>
       </c>
     </row>
@@ -4898,7 +4760,7 @@
       <c r="C310" s="1">
         <v>87</v>
       </c>
-      <c r="D310" s="3">
+      <c r="D310" s="2">
         <v>43951</v>
       </c>
     </row>
@@ -4912,7 +4774,7 @@
       <c r="C311" s="1">
         <v>86</v>
       </c>
-      <c r="D311" s="3">
+      <c r="D311" s="2">
         <v>43951</v>
       </c>
     </row>
@@ -4926,7 +4788,7 @@
       <c r="C312" s="1">
         <v>72</v>
       </c>
-      <c r="D312" s="3">
+      <c r="D312" s="2">
         <v>43951</v>
       </c>
     </row>
@@ -4940,7 +4802,7 @@
       <c r="C313" s="1">
         <v>72</v>
       </c>
-      <c r="D313" s="3">
+      <c r="D313" s="2">
         <v>43951</v>
       </c>
     </row>
@@ -4954,7 +4816,7 @@
       <c r="C314" s="1">
         <v>69</v>
       </c>
-      <c r="D314" s="3">
+      <c r="D314" s="2">
         <v>43952</v>
       </c>
     </row>
@@ -4968,7 +4830,7 @@
       <c r="C315" s="1">
         <v>81</v>
       </c>
-      <c r="D315" s="3">
+      <c r="D315" s="2">
         <v>43952</v>
       </c>
     </row>
@@ -4982,7 +4844,7 @@
       <c r="C316" s="1">
         <v>69</v>
       </c>
-      <c r="D316" s="3">
+      <c r="D316" s="2">
         <v>43952</v>
       </c>
     </row>
@@ -4996,7 +4858,7 @@
       <c r="C317" s="1">
         <v>78</v>
       </c>
-      <c r="D317" s="3">
+      <c r="D317" s="2">
         <v>43952</v>
       </c>
     </row>
@@ -5010,7 +4872,7 @@
       <c r="C318" s="1">
         <v>79</v>
       </c>
-      <c r="D318" s="3">
+      <c r="D318" s="2">
         <v>43952</v>
       </c>
     </row>
@@ -5024,7 +4886,7 @@
       <c r="C319" s="1">
         <v>92</v>
       </c>
-      <c r="D319" s="3">
+      <c r="D319" s="2">
         <v>43952</v>
       </c>
     </row>
@@ -5038,7 +4900,7 @@
       <c r="C320" s="1">
         <v>54</v>
       </c>
-      <c r="D320" s="3">
+      <c r="D320" s="2">
         <v>43952</v>
       </c>
     </row>
@@ -5052,7 +4914,7 @@
       <c r="C321" s="1">
         <v>74</v>
       </c>
-      <c r="D321" s="3">
+      <c r="D321" s="2">
         <v>43952</v>
       </c>
     </row>
@@ -5066,7 +4928,7 @@
       <c r="C322" s="1">
         <v>77</v>
       </c>
-      <c r="D322" s="3">
+      <c r="D322" s="2">
         <v>43952</v>
       </c>
     </row>
@@ -5080,7 +4942,7 @@
       <c r="C323" s="1">
         <v>79</v>
       </c>
-      <c r="D323" s="3">
+      <c r="D323" s="2">
         <v>43952</v>
       </c>
     </row>
@@ -5094,7 +4956,7 @@
       <c r="C324" s="1">
         <v>68</v>
       </c>
-      <c r="D324" s="3">
+      <c r="D324" s="2">
         <v>43952</v>
       </c>
     </row>
@@ -5108,7 +4970,7 @@
       <c r="C325" s="1">
         <v>76</v>
       </c>
-      <c r="D325" s="3">
+      <c r="D325" s="2">
         <v>43953</v>
       </c>
     </row>
@@ -5122,7 +4984,7 @@
       <c r="C326" s="1">
         <v>52</v>
       </c>
-      <c r="D326" s="3">
+      <c r="D326" s="2">
         <v>43953</v>
       </c>
     </row>
@@ -5136,7 +4998,7 @@
       <c r="C327" s="1">
         <v>88</v>
       </c>
-      <c r="D327" s="3">
+      <c r="D327" s="2">
         <v>43953</v>
       </c>
     </row>
@@ -5150,7 +5012,7 @@
       <c r="C328" s="1">
         <v>74</v>
       </c>
-      <c r="D328" s="3">
+      <c r="D328" s="2">
         <v>43953</v>
       </c>
     </row>
@@ -5164,7 +5026,7 @@
       <c r="C329" s="1">
         <v>79</v>
       </c>
-      <c r="D329" s="3">
+      <c r="D329" s="2">
         <v>43953</v>
       </c>
     </row>
@@ -5178,7 +5040,7 @@
       <c r="C330" s="1">
         <v>33</v>
       </c>
-      <c r="D330" s="3">
+      <c r="D330" s="2">
         <v>43953</v>
       </c>
     </row>
@@ -5192,7 +5054,7 @@
       <c r="C331" s="1">
         <v>82</v>
       </c>
-      <c r="D331" s="3">
+      <c r="D331" s="2">
         <v>43953</v>
       </c>
     </row>
@@ -5206,7 +5068,7 @@
       <c r="C332" s="1">
         <v>92</v>
       </c>
-      <c r="D332" s="3">
+      <c r="D332" s="2">
         <v>43953</v>
       </c>
     </row>
@@ -5220,7 +5082,7 @@
       <c r="C333" s="1">
         <v>69</v>
       </c>
-      <c r="D333" s="3">
+      <c r="D333" s="2">
         <v>43953</v>
       </c>
     </row>
@@ -5234,7 +5096,7 @@
       <c r="C334" s="1">
         <v>79</v>
       </c>
-      <c r="D334" s="3">
+      <c r="D334" s="2">
         <v>43953</v>
       </c>
     </row>
@@ -5248,7 +5110,7 @@
       <c r="C335" s="1">
         <v>79</v>
       </c>
-      <c r="D335" s="3">
+      <c r="D335" s="2">
         <v>43953</v>
       </c>
     </row>
@@ -5262,7 +5124,7 @@
       <c r="C336" s="1">
         <v>67</v>
       </c>
-      <c r="D336" s="3">
+      <c r="D336" s="2">
         <v>43953</v>
       </c>
     </row>
@@ -5276,7 +5138,7 @@
       <c r="C337" s="1">
         <v>78</v>
       </c>
-      <c r="D337" s="3">
+      <c r="D337" s="2">
         <v>43954</v>
       </c>
     </row>
@@ -5290,7 +5152,7 @@
       <c r="C338" s="1">
         <v>78</v>
       </c>
-      <c r="D338" s="3">
+      <c r="D338" s="2">
         <v>43954</v>
       </c>
     </row>
@@ -5304,7 +5166,7 @@
       <c r="C339" s="1">
         <v>63</v>
       </c>
-      <c r="D339" s="3">
+      <c r="D339" s="2">
         <v>43954</v>
       </c>
     </row>
@@ -5318,7 +5180,7 @@
       <c r="C340" s="1">
         <v>71</v>
       </c>
-      <c r="D340" s="3">
+      <c r="D340" s="2">
         <v>43954</v>
       </c>
     </row>
@@ -5332,7 +5194,7 @@
       <c r="C341" s="1">
         <v>72</v>
       </c>
-      <c r="D341" s="3">
+      <c r="D341" s="2">
         <v>43954</v>
       </c>
     </row>
@@ -5346,7 +5208,7 @@
       <c r="C342" s="1">
         <v>84</v>
       </c>
-      <c r="D342" s="3">
+      <c r="D342" s="2">
         <v>43955</v>
       </c>
     </row>
@@ -5360,7 +5222,7 @@
       <c r="C343" s="1">
         <v>65</v>
       </c>
-      <c r="D343" s="3">
+      <c r="D343" s="2">
         <v>43955</v>
       </c>
     </row>
@@ -5374,7 +5236,7 @@
       <c r="C344" s="1">
         <v>88</v>
       </c>
-      <c r="D344" s="3">
+      <c r="D344" s="2">
         <v>43955</v>
       </c>
     </row>
@@ -5388,7 +5250,7 @@
       <c r="C345" s="1">
         <v>83</v>
       </c>
-      <c r="D345" s="3">
+      <c r="D345" s="2">
         <v>43955</v>
       </c>
     </row>
@@ -5402,7 +5264,7 @@
       <c r="C346" s="1">
         <v>95</v>
       </c>
-      <c r="D346" s="3">
+      <c r="D346" s="2">
         <v>43955</v>
       </c>
     </row>
@@ -5416,7 +5278,7 @@
       <c r="C347" s="1">
         <v>64</v>
       </c>
-      <c r="D347" s="3">
+      <c r="D347" s="2">
         <v>43955</v>
       </c>
     </row>
@@ -5430,7 +5292,7 @@
       <c r="C348" s="1">
         <v>75</v>
       </c>
-      <c r="D348" s="3">
+      <c r="D348" s="2">
         <v>43955</v>
       </c>
     </row>
@@ -5444,7 +5306,7 @@
       <c r="C349" s="1">
         <v>72</v>
       </c>
-      <c r="D349" s="3">
+      <c r="D349" s="2">
         <v>43955</v>
       </c>
     </row>
@@ -5458,7 +5320,7 @@
       <c r="C350" s="1">
         <v>95</v>
       </c>
-      <c r="D350" s="3">
+      <c r="D350" s="2">
         <v>43955</v>
       </c>
     </row>
@@ -5472,7 +5334,7 @@
       <c r="C351" s="1">
         <v>87</v>
       </c>
-      <c r="D351" s="3">
+      <c r="D351" s="2">
         <v>43955</v>
       </c>
     </row>
@@ -5486,7 +5348,7 @@
       <c r="C352" s="1">
         <v>85</v>
       </c>
-      <c r="D352" s="3">
+      <c r="D352" s="2">
         <v>43955</v>
       </c>
     </row>
@@ -5500,7 +5362,7 @@
       <c r="C353" s="1">
         <v>58</v>
       </c>
-      <c r="D353" s="3">
+      <c r="D353" s="2">
         <v>43956</v>
       </c>
     </row>
@@ -5514,7 +5376,7 @@
       <c r="C354" s="1">
         <v>93</v>
       </c>
-      <c r="D354" s="3">
+      <c r="D354" s="2">
         <v>43956</v>
       </c>
     </row>
@@ -5528,7 +5390,7 @@
       <c r="C355" s="1">
         <v>81</v>
       </c>
-      <c r="D355" s="3">
+      <c r="D355" s="2">
         <v>43956</v>
       </c>
     </row>
@@ -5542,7 +5404,7 @@
       <c r="C356" s="1">
         <v>80</v>
       </c>
-      <c r="D356" s="3">
+      <c r="D356" s="2">
         <v>43956</v>
       </c>
     </row>
@@ -5556,7 +5418,7 @@
       <c r="C357" s="1">
         <v>85</v>
       </c>
-      <c r="D357" s="3">
+      <c r="D357" s="2">
         <v>43956</v>
       </c>
     </row>
@@ -5570,7 +5432,7 @@
       <c r="C358" s="1">
         <v>74</v>
       </c>
-      <c r="D358" s="3">
+      <c r="D358" s="2">
         <v>43956</v>
       </c>
     </row>
@@ -5584,7 +5446,7 @@
       <c r="C359" s="1">
         <v>72</v>
       </c>
-      <c r="D359" s="3">
+      <c r="D359" s="2">
         <v>43956</v>
       </c>
     </row>
@@ -5598,7 +5460,7 @@
       <c r="C360" s="1">
         <v>85</v>
       </c>
-      <c r="D360" s="3">
+      <c r="D360" s="2">
         <v>43956</v>
       </c>
     </row>
@@ -5612,7 +5474,7 @@
       <c r="C361" s="1">
         <v>73</v>
       </c>
-      <c r="D361" s="3">
+      <c r="D361" s="2">
         <v>43956</v>
       </c>
     </row>
@@ -5626,7 +5488,7 @@
       <c r="C362" s="1">
         <v>86</v>
       </c>
-      <c r="D362" s="3">
+      <c r="D362" s="2">
         <v>43956</v>
       </c>
     </row>
@@ -5640,7 +5502,7 @@
       <c r="C363" s="1">
         <v>93</v>
       </c>
-      <c r="D363" s="3">
+      <c r="D363" s="2">
         <v>43956</v>
       </c>
     </row>
@@ -5654,7 +5516,7 @@
       <c r="C364" s="1">
         <v>86</v>
       </c>
-      <c r="D364" s="3">
+      <c r="D364" s="2">
         <v>43956</v>
       </c>
     </row>
@@ -5668,7 +5530,7 @@
       <c r="C365" s="1">
         <v>80</v>
       </c>
-      <c r="D365" s="3">
+      <c r="D365" s="2">
         <v>43957</v>
       </c>
     </row>
@@ -5682,7 +5544,7 @@
       <c r="C366" s="1">
         <v>69</v>
       </c>
-      <c r="D366" s="3">
+      <c r="D366" s="2">
         <v>43957</v>
       </c>
     </row>
@@ -5696,7 +5558,7 @@
       <c r="C367" s="1">
         <v>94</v>
       </c>
-      <c r="D367" s="3">
+      <c r="D367" s="2">
         <v>43957</v>
       </c>
     </row>
@@ -5710,7 +5572,7 @@
       <c r="C368" s="1">
         <v>84</v>
       </c>
-      <c r="D368" s="3">
+      <c r="D368" s="2">
         <v>43957</v>
       </c>
     </row>
@@ -5724,7 +5586,7 @@
       <c r="C369" s="1">
         <v>82</v>
       </c>
-      <c r="D369" s="3">
+      <c r="D369" s="2">
         <v>43957</v>
       </c>
     </row>
@@ -5738,7 +5600,7 @@
       <c r="C370" s="1">
         <v>68</v>
       </c>
-      <c r="D370" s="3">
+      <c r="D370" s="2">
         <v>43957</v>
       </c>
     </row>
@@ -5752,7 +5614,7 @@
       <c r="C371" s="1">
         <v>62</v>
       </c>
-      <c r="D371" s="3">
+      <c r="D371" s="2">
         <v>43957</v>
       </c>
     </row>
@@ -5766,7 +5628,7 @@
       <c r="C372" s="1">
         <v>82</v>
       </c>
-      <c r="D372" s="3">
+      <c r="D372" s="2">
         <v>43957</v>
       </c>
     </row>
@@ -5780,7 +5642,7 @@
       <c r="C373" s="1">
         <v>72</v>
       </c>
-      <c r="D373" s="3">
+      <c r="D373" s="2">
         <v>43957</v>
       </c>
     </row>
@@ -5794,7 +5656,7 @@
       <c r="C374" s="1">
         <v>58</v>
       </c>
-      <c r="D374" s="3">
+      <c r="D374" s="2">
         <v>43957</v>
       </c>
     </row>
@@ -5808,7 +5670,7 @@
       <c r="C375" s="1">
         <v>89</v>
       </c>
-      <c r="D375" s="3">
+      <c r="D375" s="2">
         <v>43958</v>
       </c>
     </row>
@@ -5822,7 +5684,7 @@
       <c r="C376" s="1">
         <v>77</v>
       </c>
-      <c r="D376" s="3">
+      <c r="D376" s="2">
         <v>43958</v>
       </c>
     </row>
@@ -5836,7 +5698,7 @@
       <c r="C377" s="1">
         <v>86</v>
       </c>
-      <c r="D377" s="3">
+      <c r="D377" s="2">
         <v>43958</v>
       </c>
     </row>
@@ -5850,7 +5712,7 @@
       <c r="C378" s="1">
         <v>83</v>
       </c>
-      <c r="D378" s="3">
+      <c r="D378" s="2">
         <v>43958</v>
       </c>
     </row>
@@ -5864,7 +5726,7 @@
       <c r="C379" s="1">
         <v>78</v>
       </c>
-      <c r="D379" s="3">
+      <c r="D379" s="2">
         <v>43958</v>
       </c>
     </row>
@@ -5878,7 +5740,7 @@
       <c r="C380" s="1">
         <v>77</v>
       </c>
-      <c r="D380" s="3">
+      <c r="D380" s="2">
         <v>43958</v>
       </c>
     </row>
@@ -5892,7 +5754,7 @@
       <c r="C381" s="1">
         <v>84</v>
       </c>
-      <c r="D381" s="3">
+      <c r="D381" s="2">
         <v>43958</v>
       </c>
     </row>
@@ -5906,7 +5768,7 @@
       <c r="C382" s="1">
         <v>72</v>
       </c>
-      <c r="D382" s="3">
+      <c r="D382" s="2">
         <v>43958</v>
       </c>
     </row>
@@ -5920,7 +5782,7 @@
       <c r="C383" s="1">
         <v>90</v>
       </c>
-      <c r="D383" s="3">
+      <c r="D383" s="2">
         <v>43958</v>
       </c>
     </row>
@@ -5934,7 +5796,7 @@
       <c r="C384" s="1">
         <v>77</v>
       </c>
-      <c r="D384" s="3">
+      <c r="D384" s="2">
         <v>43958</v>
       </c>
     </row>
@@ -5948,7 +5810,7 @@
       <c r="C385" s="1">
         <v>93</v>
       </c>
-      <c r="D385" s="3">
+      <c r="D385" s="2">
         <v>43959</v>
       </c>
     </row>
@@ -5962,7 +5824,7 @@
       <c r="C386" s="1">
         <v>60</v>
       </c>
-      <c r="D386" s="3">
+      <c r="D386" s="2">
         <v>43959</v>
       </c>
     </row>
@@ -5976,7 +5838,7 @@
       <c r="C387" s="1">
         <v>85</v>
       </c>
-      <c r="D387" s="3">
+      <c r="D387" s="2">
         <v>43959</v>
       </c>
     </row>
@@ -5990,7 +5852,7 @@
       <c r="C388" s="1">
         <v>94</v>
       </c>
-      <c r="D388" s="3">
+      <c r="D388" s="2">
         <v>43959</v>
       </c>
     </row>
@@ -6004,7 +5866,7 @@
       <c r="C389" s="1">
         <v>88</v>
       </c>
-      <c r="D389" s="3">
+      <c r="D389" s="2">
         <v>43959</v>
       </c>
     </row>
@@ -6018,7 +5880,7 @@
       <c r="C390" s="1">
         <v>85</v>
       </c>
-      <c r="D390" s="3">
+      <c r="D390" s="2">
         <v>43959</v>
       </c>
     </row>
@@ -6032,7 +5894,7 @@
       <c r="C391" s="1">
         <v>67</v>
       </c>
-      <c r="D391" s="3">
+      <c r="D391" s="2">
         <v>43959</v>
       </c>
     </row>
@@ -6046,7 +5908,7 @@
       <c r="C392" s="1">
         <v>89</v>
       </c>
-      <c r="D392" s="3">
+      <c r="D392" s="2">
         <v>43959</v>
       </c>
     </row>
@@ -6060,7 +5922,7 @@
       <c r="C393" s="1">
         <v>71</v>
       </c>
-      <c r="D393" s="3">
+      <c r="D393" s="2">
         <v>43959</v>
       </c>
     </row>
@@ -6074,7 +5936,7 @@
       <c r="C394" s="1">
         <v>81</v>
       </c>
-      <c r="D394" s="3">
+      <c r="D394" s="2">
         <v>43960</v>
       </c>
     </row>
@@ -6088,7 +5950,7 @@
       <c r="C395" s="1">
         <v>90</v>
       </c>
-      <c r="D395" s="3">
+      <c r="D395" s="2">
         <v>43960</v>
       </c>
     </row>
@@ -6102,7 +5964,7 @@
       <c r="C396" s="1">
         <v>68</v>
       </c>
-      <c r="D396" s="3">
+      <c r="D396" s="2">
         <v>43960</v>
       </c>
     </row>
@@ -6116,7 +5978,7 @@
       <c r="C397" s="1">
         <v>86</v>
       </c>
-      <c r="D397" s="3">
+      <c r="D397" s="2">
         <v>43960</v>
       </c>
     </row>
@@ -6130,7 +5992,7 @@
       <c r="C398" s="1">
         <v>90</v>
       </c>
-      <c r="D398" s="3">
+      <c r="D398" s="2">
         <v>43960</v>
       </c>
     </row>
@@ -6144,7 +6006,7 @@
       <c r="C399" s="1">
         <v>86</v>
       </c>
-      <c r="D399" s="3">
+      <c r="D399" s="2">
         <v>43960</v>
       </c>
     </row>
@@ -6158,7 +6020,7 @@
       <c r="C400" s="1">
         <v>76</v>
       </c>
-      <c r="D400" s="3">
+      <c r="D400" s="2">
         <v>43960</v>
       </c>
     </row>
@@ -6172,7 +6034,7 @@
       <c r="C401" s="1">
         <v>76</v>
       </c>
-      <c r="D401" s="3">
+      <c r="D401" s="2">
         <v>43960</v>
       </c>
     </row>
@@ -6186,7 +6048,7 @@
       <c r="C402" s="1">
         <v>47</v>
       </c>
-      <c r="D402" s="3">
+      <c r="D402" s="2">
         <v>43960</v>
       </c>
     </row>
@@ -6200,7 +6062,7 @@
       <c r="C403" s="1">
         <v>78</v>
       </c>
-      <c r="D403" s="3">
+      <c r="D403" s="2">
         <v>43960</v>
       </c>
     </row>
@@ -6214,7 +6076,7 @@
       <c r="C404" s="1">
         <v>78</v>
       </c>
-      <c r="D404" s="3">
+      <c r="D404" s="2">
         <v>43960</v>
       </c>
     </row>
@@ -6228,7 +6090,7 @@
       <c r="C405" s="1">
         <v>65</v>
       </c>
-      <c r="D405" s="3">
+      <c r="D405" s="2">
         <v>43960</v>
       </c>
     </row>
@@ -6242,7 +6104,7 @@
       <c r="C406" s="1">
         <v>79</v>
       </c>
-      <c r="D406" s="3">
+      <c r="D406" s="2">
         <v>43960</v>
       </c>
     </row>
@@ -6256,7 +6118,7 @@
       <c r="C407" s="1">
         <v>79</v>
       </c>
-      <c r="D407" s="3">
+      <c r="D407" s="2">
         <v>43961</v>
       </c>
     </row>
@@ -6270,7 +6132,7 @@
       <c r="C408" s="1">
         <v>73</v>
       </c>
-      <c r="D408" s="3">
+      <c r="D408" s="2">
         <v>43961</v>
       </c>
     </row>
@@ -6284,7 +6146,7 @@
       <c r="C409" s="1">
         <v>87</v>
       </c>
-      <c r="D409" s="3">
+      <c r="D409" s="2">
         <v>43961</v>
       </c>
     </row>
@@ -6298,7 +6160,7 @@
       <c r="C410" s="1">
         <v>76</v>
       </c>
-      <c r="D410" s="3">
+      <c r="D410" s="2">
         <v>43961</v>
       </c>
     </row>
@@ -6312,7 +6174,7 @@
       <c r="C411" s="1">
         <v>87</v>
       </c>
-      <c r="D411" s="3">
+      <c r="D411" s="2">
         <v>43961</v>
       </c>
     </row>
@@ -6326,7 +6188,7 @@
       <c r="C412" s="1">
         <v>78</v>
       </c>
-      <c r="D412" s="3">
+      <c r="D412" s="2">
         <v>43961</v>
       </c>
     </row>
@@ -6340,7 +6202,7 @@
       <c r="C413" s="1">
         <v>70</v>
       </c>
-      <c r="D413" s="3">
+      <c r="D413" s="2">
         <v>43961</v>
       </c>
     </row>
@@ -6354,7 +6216,7 @@
       <c r="C414" s="1">
         <v>70</v>
       </c>
-      <c r="D414" s="3">
+      <c r="D414" s="2">
         <v>43961</v>
       </c>
     </row>
@@ -6368,7 +6230,7 @@
       <c r="C415" s="1">
         <v>77</v>
       </c>
-      <c r="D415" s="3">
+      <c r="D415" s="2">
         <v>43962</v>
       </c>
     </row>
@@ -6382,7 +6244,7 @@
       <c r="C416" s="1">
         <v>67</v>
       </c>
-      <c r="D416" s="3">
+      <c r="D416" s="2">
         <v>43962</v>
       </c>
     </row>
@@ -6396,7 +6258,7 @@
       <c r="C417" s="1">
         <v>66</v>
       </c>
-      <c r="D417" s="3">
+      <c r="D417" s="2">
         <v>43962</v>
       </c>
     </row>
@@ -6410,7 +6272,7 @@
       <c r="C418" s="1">
         <v>87</v>
       </c>
-      <c r="D418" s="3">
+      <c r="D418" s="2">
         <v>43962</v>
       </c>
     </row>
@@ -6424,7 +6286,7 @@
       <c r="C419" s="1">
         <v>67</v>
       </c>
-      <c r="D419" s="3">
+      <c r="D419" s="2">
         <v>43962</v>
       </c>
     </row>
@@ -6438,7 +6300,7 @@
       <c r="C420" s="1">
         <v>72</v>
       </c>
-      <c r="D420" s="3">
+      <c r="D420" s="2">
         <v>43962</v>
       </c>
     </row>
@@ -6452,7 +6314,7 @@
       <c r="C421" s="1">
         <v>86</v>
       </c>
-      <c r="D421" s="3">
+      <c r="D421" s="2">
         <v>43962</v>
       </c>
     </row>
@@ -6466,7 +6328,7 @@
       <c r="C422" s="1">
         <v>51</v>
       </c>
-      <c r="D422" s="3">
+      <c r="D422" s="2">
         <v>43962</v>
       </c>
     </row>
@@ -6480,7 +6342,7 @@
       <c r="C423" s="1">
         <v>72</v>
       </c>
-      <c r="D423" s="3">
+      <c r="D423" s="2">
         <v>43963</v>
       </c>
     </row>
@@ -6494,7 +6356,7 @@
       <c r="C424" s="1">
         <v>78</v>
       </c>
-      <c r="D424" s="3">
+      <c r="D424" s="2">
         <v>43963</v>
       </c>
     </row>
@@ -6508,7 +6370,7 @@
       <c r="C425" s="1">
         <v>67</v>
       </c>
-      <c r="D425" s="3">
+      <c r="D425" s="2">
         <v>43963</v>
       </c>
     </row>
@@ -6522,861 +6384,861 @@
       <c r="C426" s="1">
         <v>85</v>
       </c>
-      <c r="D426" s="3">
+      <c r="D426" s="2">
         <v>43963</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="18">
-      <c r="A427" s="4">
+      <c r="A427" s="3">
         <v>426</v>
       </c>
-      <c r="B427" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C427" s="4">
+      <c r="B427" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C427" s="3">
         <v>78</v>
       </c>
-      <c r="D427" s="3">
+      <c r="D427" s="2">
         <v>43964</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="18">
-      <c r="A428" s="4">
+      <c r="A428" s="3">
         <v>427</v>
       </c>
-      <c r="B428" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C428" s="4">
+      <c r="B428" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C428" s="3">
         <v>87</v>
       </c>
-      <c r="D428" s="3">
+      <c r="D428" s="2">
         <v>43964</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="18">
-      <c r="A429" s="4">
+      <c r="A429" s="3">
         <v>428</v>
       </c>
-      <c r="B429" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C429" s="4">
+      <c r="B429" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C429" s="3">
         <v>89</v>
       </c>
-      <c r="D429" s="3">
+      <c r="D429" s="2">
         <v>43964</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="18">
-      <c r="A430" s="4">
+      <c r="A430" s="3">
         <v>429</v>
       </c>
-      <c r="B430" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C430" s="4">
+      <c r="B430" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C430" s="3">
         <v>78</v>
       </c>
-      <c r="D430" s="3">
+      <c r="D430" s="2">
         <v>43964</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="18">
-      <c r="A431" s="4">
+      <c r="A431" s="3">
         <v>430</v>
       </c>
-      <c r="B431" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C431" s="4">
+      <c r="B431" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C431" s="3">
         <v>95</v>
       </c>
-      <c r="D431" s="3">
+      <c r="D431" s="2">
         <v>43964</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="18">
-      <c r="A432" s="4">
+      <c r="A432" s="3">
         <v>431</v>
       </c>
-      <c r="B432" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C432" s="4">
+      <c r="B432" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C432" s="3">
         <v>81</v>
       </c>
-      <c r="D432" s="3">
+      <c r="D432" s="2">
         <v>43965</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="18">
-      <c r="A433" s="4">
+      <c r="A433" s="3">
         <v>432</v>
       </c>
-      <c r="B433" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C433" s="4">
+      <c r="B433" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C433" s="3">
         <v>89</v>
       </c>
-      <c r="D433" s="3">
+      <c r="D433" s="2">
         <v>43965</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="18">
-      <c r="A434" s="4">
+      <c r="A434" s="3">
         <v>433</v>
       </c>
-      <c r="B434" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C434" s="4">
+      <c r="B434" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C434" s="3">
         <v>81</v>
       </c>
-      <c r="D434" s="3">
+      <c r="D434" s="2">
         <v>43965</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="18">
-      <c r="A435" s="4">
+      <c r="A435" s="3">
         <v>434</v>
       </c>
-      <c r="B435" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C435" s="4">
+      <c r="B435" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C435" s="3">
         <v>65</v>
       </c>
-      <c r="D435" s="3">
+      <c r="D435" s="2">
         <v>43965</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="18">
-      <c r="A436" s="4">
+      <c r="A436" s="3">
         <v>435</v>
       </c>
-      <c r="B436" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C436" s="4">
+      <c r="B436" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C436" s="3">
         <v>58</v>
       </c>
-      <c r="D436" s="3">
+      <c r="D436" s="2">
         <v>43965</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="18">
-      <c r="A437" s="4">
+      <c r="A437" s="3">
         <v>436</v>
       </c>
-      <c r="B437" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C437" s="4">
+      <c r="B437" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C437" s="3">
         <v>77</v>
       </c>
-      <c r="D437" s="3">
+      <c r="D437" s="2">
         <v>43965</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="18">
-      <c r="A438" s="4">
+      <c r="A438" s="3">
         <v>437</v>
       </c>
-      <c r="B438" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C438" s="4">
+      <c r="B438" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C438" s="3">
         <v>86</v>
       </c>
-      <c r="D438" s="3">
+      <c r="D438" s="2">
         <v>43966</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="18">
-      <c r="A439" s="4">
+      <c r="A439" s="3">
         <v>438</v>
       </c>
-      <c r="B439" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C439" s="4">
+      <c r="B439" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C439" s="3">
         <v>73</v>
       </c>
-      <c r="D439" s="3">
+      <c r="D439" s="2">
         <v>43966</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="18">
-      <c r="A440" s="4">
+      <c r="A440" s="3">
         <v>439</v>
       </c>
-      <c r="B440" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C440" s="4">
+      <c r="B440" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C440" s="3">
         <v>60</v>
       </c>
-      <c r="D440" s="3">
+      <c r="D440" s="2">
         <v>43966</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="18">
-      <c r="A441" s="4">
+      <c r="A441" s="3">
         <v>440</v>
       </c>
-      <c r="B441" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C441" s="4">
+      <c r="B441" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C441" s="3">
         <v>88</v>
       </c>
-      <c r="D441" s="3">
+      <c r="D441" s="2">
         <v>43966</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="18">
-      <c r="A442" s="4">
+      <c r="A442" s="3">
         <v>441</v>
       </c>
-      <c r="B442" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C442" s="4">
+      <c r="B442" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C442" s="3">
         <v>61</v>
       </c>
-      <c r="D442" s="3">
+      <c r="D442" s="2">
         <v>43966</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="18">
-      <c r="A443" s="4">
+      <c r="A443" s="3">
         <v>442</v>
       </c>
-      <c r="B443" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C443" s="4">
+      <c r="B443" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C443" s="3">
         <v>77</v>
       </c>
-      <c r="D443" s="3">
+      <c r="D443" s="2">
         <v>43966</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="18">
-      <c r="A444" s="4">
+      <c r="A444" s="3">
         <v>443</v>
       </c>
-      <c r="B444" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C444" s="4">
+      <c r="B444" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C444" s="3">
         <v>88</v>
       </c>
-      <c r="D444" s="3">
+      <c r="D444" s="2">
         <v>43967</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="18">
-      <c r="A445" s="4">
+      <c r="A445" s="3">
         <v>444</v>
       </c>
-      <c r="B445" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C445" s="4">
+      <c r="B445" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C445" s="3">
         <v>76</v>
       </c>
-      <c r="D445" s="3">
+      <c r="D445" s="2">
         <v>43967</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="18">
-      <c r="A446" s="4">
+      <c r="A446" s="3">
         <v>445</v>
       </c>
-      <c r="B446" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C446" s="4">
+      <c r="B446" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C446" s="3">
         <v>86</v>
       </c>
-      <c r="D446" s="3">
+      <c r="D446" s="2">
         <v>43967</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="18">
-      <c r="A447" s="4">
+      <c r="A447" s="3">
         <v>446</v>
       </c>
-      <c r="B447" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C447" s="4">
+      <c r="B447" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C447" s="3">
         <v>78</v>
       </c>
-      <c r="D447" s="3">
+      <c r="D447" s="2">
         <v>43967</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="18">
-      <c r="A448" s="4">
+      <c r="A448" s="3">
         <v>447</v>
       </c>
-      <c r="B448" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C448" s="4">
+      <c r="B448" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C448" s="3">
         <v>93</v>
       </c>
-      <c r="D448" s="3">
+      <c r="D448" s="2">
         <v>43967</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="18">
-      <c r="A449" s="4">
+      <c r="A449" s="3">
         <v>448</v>
       </c>
-      <c r="B449" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C449" s="4">
+      <c r="B449" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C449" s="3">
         <v>81</v>
       </c>
-      <c r="D449" s="3">
+      <c r="D449" s="2">
         <v>43967</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="18">
-      <c r="A450" s="4">
+      <c r="A450" s="3">
         <v>449</v>
       </c>
-      <c r="B450" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C450" s="4">
+      <c r="B450" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C450" s="3">
         <v>95</v>
       </c>
-      <c r="D450" s="3">
+      <c r="D450" s="2">
         <v>43968</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="18">
-      <c r="A451" s="4">
+      <c r="A451" s="3">
         <v>450</v>
       </c>
-      <c r="B451" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C451" s="4">
+      <c r="B451" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C451" s="3">
         <v>78</v>
       </c>
-      <c r="D451" s="3">
+      <c r="D451" s="2">
         <v>43968</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="18">
-      <c r="A452" s="4">
+      <c r="A452" s="3">
         <v>451</v>
       </c>
-      <c r="B452" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C452" s="4">
+      <c r="B452" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C452" s="3">
         <v>81</v>
       </c>
-      <c r="D452" s="3">
+      <c r="D452" s="2">
         <v>43968</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="18">
-      <c r="A453" s="4">
+      <c r="A453" s="3">
         <v>452</v>
       </c>
-      <c r="B453" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C453" s="4">
+      <c r="B453" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C453" s="3">
         <v>92</v>
       </c>
-      <c r="D453" s="3">
+      <c r="D453" s="2">
         <v>43969</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="18">
-      <c r="A454" s="4">
+      <c r="A454" s="3">
         <v>453</v>
       </c>
-      <c r="B454" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C454" s="4">
+      <c r="B454" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C454" s="3">
         <v>67</v>
       </c>
-      <c r="D454" s="3">
+      <c r="D454" s="2">
         <v>43969</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="18">
-      <c r="A455" s="4">
+      <c r="A455" s="3">
         <v>454</v>
       </c>
-      <c r="B455" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C455" s="4">
+      <c r="B455" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C455" s="3">
         <v>78</v>
       </c>
-      <c r="D455" s="3">
+      <c r="D455" s="2">
         <v>43969</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="18">
-      <c r="A456" s="4">
+      <c r="A456" s="3">
         <v>455</v>
       </c>
-      <c r="B456" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C456" s="4">
+      <c r="B456" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C456" s="3">
         <v>90</v>
       </c>
-      <c r="D456" s="3">
+      <c r="D456" s="2">
         <v>43969</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="18">
-      <c r="A457" s="4">
+      <c r="A457" s="3">
         <v>456</v>
       </c>
-      <c r="B457" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C457" s="4">
+      <c r="B457" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C457" s="3">
         <v>82</v>
       </c>
-      <c r="D457" s="3">
+      <c r="D457" s="2">
         <v>43969</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="18">
-      <c r="A458" s="4">
+      <c r="A458" s="3">
         <v>457</v>
       </c>
-      <c r="B458" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C458" s="4">
+      <c r="B458" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C458" s="3">
         <v>51</v>
       </c>
-      <c r="D458" s="3">
+      <c r="D458" s="2">
         <v>43969</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="18">
-      <c r="A459" s="4">
+      <c r="A459" s="3">
         <v>458</v>
       </c>
-      <c r="B459" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C459" s="4">
+      <c r="B459" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C459" s="3">
         <v>78</v>
       </c>
-      <c r="D459" s="3">
+      <c r="D459" s="2">
         <v>43969</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="18">
-      <c r="A460" s="4">
+      <c r="A460" s="3">
         <v>459</v>
       </c>
-      <c r="B460" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C460" s="4">
+      <c r="B460" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C460" s="3">
         <v>79</v>
       </c>
-      <c r="D460" s="3">
+      <c r="D460" s="2">
         <v>43969</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="18">
-      <c r="A461" s="4">
+      <c r="A461" s="3">
         <v>460</v>
       </c>
-      <c r="B461" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C461" s="4">
+      <c r="B461" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C461" s="3">
         <v>68</v>
       </c>
-      <c r="D461" s="3">
+      <c r="D461" s="2">
         <v>43969</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="18">
-      <c r="A462" s="4">
+      <c r="A462" s="3">
         <v>461</v>
       </c>
-      <c r="B462" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C462" s="4">
+      <c r="B462" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C462" s="3">
         <v>92</v>
       </c>
-      <c r="D462" s="3">
+      <c r="D462" s="2">
         <v>43969</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="18">
-      <c r="A463" s="4">
+      <c r="A463" s="3">
         <v>462</v>
       </c>
-      <c r="B463" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C463" s="4">
+      <c r="B463" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C463" s="3">
         <v>68</v>
       </c>
-      <c r="D463" s="3">
+      <c r="D463" s="2">
         <v>43969</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="18">
-      <c r="A464" s="4">
+      <c r="A464" s="3">
         <v>463</v>
       </c>
-      <c r="B464" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C464" s="4">
+      <c r="B464" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C464" s="3">
         <v>88</v>
       </c>
-      <c r="D464" s="3">
+      <c r="D464" s="2">
         <v>43970</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="18">
-      <c r="A465" s="4">
+      <c r="A465" s="3">
         <v>464</v>
       </c>
-      <c r="B465" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C465" s="4">
+      <c r="B465" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C465" s="3">
         <v>70</v>
       </c>
-      <c r="D465" s="3">
+      <c r="D465" s="2">
         <v>43970</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="18">
-      <c r="A466" s="4">
+      <c r="A466" s="3">
         <v>465</v>
       </c>
-      <c r="B466" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C466" s="4">
+      <c r="B466" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C466" s="3">
         <v>85</v>
       </c>
-      <c r="D466" s="3">
+      <c r="D466" s="2">
         <v>43970</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="18">
-      <c r="A467" s="4">
+      <c r="A467" s="3">
         <v>466</v>
       </c>
-      <c r="B467" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C467" s="4">
+      <c r="B467" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C467" s="3">
         <v>70</v>
       </c>
-      <c r="D467" s="3">
+      <c r="D467" s="2">
         <v>43970</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="18">
-      <c r="A468" s="4">
+      <c r="A468" s="3">
         <v>467</v>
       </c>
-      <c r="B468" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C468" s="4">
+      <c r="B468" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C468" s="3">
         <v>66</v>
       </c>
-      <c r="D468" s="3">
+      <c r="D468" s="2">
         <v>43970</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="18">
-      <c r="A469" s="4">
+      <c r="A469" s="3">
         <v>468</v>
       </c>
-      <c r="B469" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C469" s="4">
+      <c r="B469" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C469" s="3">
         <v>66</v>
       </c>
-      <c r="D469" s="3">
+      <c r="D469" s="2">
         <v>43971</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="18">
-      <c r="A470" s="4">
+      <c r="A470" s="3">
         <v>469</v>
       </c>
-      <c r="B470" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C470" s="4">
+      <c r="B470" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C470" s="3">
         <v>61</v>
       </c>
-      <c r="D470" s="3">
+      <c r="D470" s="2">
         <v>43971</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="18">
-      <c r="A471" s="4">
+      <c r="A471" s="3">
         <v>470</v>
       </c>
-      <c r="B471" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C471" s="4">
+      <c r="B471" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C471" s="3">
         <v>67</v>
       </c>
-      <c r="D471" s="3">
+      <c r="D471" s="2">
         <v>43971</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="18">
-      <c r="A472" s="4">
+      <c r="A472" s="3">
         <v>471</v>
       </c>
-      <c r="B472" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C472" s="4">
+      <c r="B472" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C472" s="3">
         <v>61</v>
       </c>
-      <c r="D472" s="3">
+      <c r="D472" s="2">
         <v>43972</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="18">
-      <c r="A473" s="4">
+      <c r="A473" s="3">
         <v>472</v>
       </c>
-      <c r="B473" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C473" s="4">
+      <c r="B473" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C473" s="3">
         <v>84</v>
       </c>
-      <c r="D473" s="3">
+      <c r="D473" s="2">
         <v>43972</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="18">
-      <c r="A474" s="4">
+      <c r="A474" s="3">
         <v>473</v>
       </c>
-      <c r="B474" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C474" s="4">
+      <c r="B474" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C474" s="3">
         <v>74</v>
       </c>
-      <c r="D474" s="3">
+      <c r="D474" s="2">
         <v>43972</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="18">
-      <c r="A475" s="4">
+      <c r="A475" s="3">
         <v>474</v>
       </c>
-      <c r="B475" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C475" s="4">
+      <c r="B475" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C475" s="3">
         <v>68</v>
       </c>
-      <c r="D475" s="3">
+      <c r="D475" s="2">
         <v>43973</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="18">
-      <c r="A476" s="4">
+      <c r="A476" s="3">
         <v>475</v>
       </c>
-      <c r="B476" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C476" s="4">
+      <c r="B476" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C476" s="3">
         <v>78</v>
       </c>
-      <c r="D476" s="3">
+      <c r="D476" s="2">
         <v>43973</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="18">
-      <c r="A477" s="4">
+      <c r="A477" s="3">
         <v>476</v>
       </c>
-      <c r="B477" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C477" s="4">
+      <c r="B477" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C477" s="3">
         <v>80</v>
       </c>
-      <c r="D477" s="3">
+      <c r="D477" s="2">
         <v>43973</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="18">
-      <c r="A478" s="4">
+      <c r="A478" s="3">
         <v>477</v>
       </c>
-      <c r="B478" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C478" s="4">
+      <c r="B478" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C478" s="3">
         <v>73</v>
       </c>
-      <c r="D478" s="3">
+      <c r="D478" s="2">
         <v>43974</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="18">
-      <c r="A479" s="4">
+      <c r="A479" s="3">
         <v>478</v>
       </c>
-      <c r="B479" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C479" s="4">
+      <c r="B479" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C479" s="3">
         <v>87</v>
       </c>
-      <c r="D479" s="3">
+      <c r="D479" s="2">
         <v>43974</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="18">
-      <c r="A480" s="4">
+      <c r="A480" s="3">
         <v>479</v>
       </c>
-      <c r="B480" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C480" s="4">
+      <c r="B480" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C480" s="3">
         <v>74</v>
       </c>
-      <c r="D480" s="3">
+      <c r="D480" s="2">
         <v>43974</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="18">
-      <c r="A481" s="4">
+      <c r="A481" s="3">
         <v>480</v>
       </c>
-      <c r="B481" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C481" s="4">
+      <c r="B481" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C481" s="3">
         <v>89</v>
       </c>
-      <c r="D481" s="3">
+      <c r="D481" s="2">
         <v>43974</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="18">
-      <c r="A482" s="4">
+      <c r="A482" s="3">
         <v>481</v>
       </c>
-      <c r="B482" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C482" s="4">
+      <c r="B482" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C482" s="3">
         <v>75</v>
       </c>
-      <c r="D482" s="3">
+      <c r="D482" s="2">
         <v>43974</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="18">
-      <c r="A483" s="4">
+      <c r="A483" s="3">
         <v>482</v>
       </c>
-      <c r="B483" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C483" s="4">
+      <c r="B483" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C483" s="3">
         <v>73</v>
       </c>
-      <c r="D483" s="3">
+      <c r="D483" s="2">
         <v>43974</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="18">
-      <c r="A484" s="4">
+      <c r="A484" s="3">
         <v>483</v>
       </c>
-      <c r="B484" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C484" s="4">
+      <c r="B484" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C484" s="3">
         <v>57</v>
       </c>
-      <c r="D484" s="3">
+      <c r="D484" s="2">
         <v>43975</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="18">
-      <c r="A485" s="4">
+      <c r="A485" s="3">
         <v>484</v>
       </c>
-      <c r="B485" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C485" s="4">
+      <c r="B485" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C485" s="3">
         <v>56</v>
       </c>
-      <c r="D485" s="3">
+      <c r="D485" s="2">
         <v>43975</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="18">
-      <c r="A486" s="4">
+      <c r="A486" s="3">
         <v>485</v>
       </c>
-      <c r="B486" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C486" s="4">
+      <c r="B486" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C486" s="3">
         <v>85</v>
       </c>
-      <c r="D486" s="3">
+      <c r="D486" s="2">
         <v>43975</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="18">
-      <c r="A487" s="4">
+      <c r="A487" s="3">
         <v>486</v>
       </c>
-      <c r="B487" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C487" s="4">
+      <c r="B487" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C487" s="3">
         <v>88</v>
       </c>
-      <c r="D487" s="3">
+      <c r="D487" s="2">
         <v>43975</v>
       </c>
     </row>
@@ -7390,7 +7252,7 @@
       <c r="C488" s="1">
         <v>80</v>
       </c>
-      <c r="D488" s="3">
+      <c r="D488" s="2">
         <v>43976</v>
       </c>
     </row>
@@ -7404,7 +7266,7 @@
       <c r="C489" s="1">
         <v>80</v>
       </c>
-      <c r="D489" s="3">
+      <c r="D489" s="2">
         <v>43976</v>
       </c>
     </row>
@@ -7418,7 +7280,7 @@
       <c r="C490" s="1">
         <v>84</v>
       </c>
-      <c r="D490" s="3">
+      <c r="D490" s="2">
         <v>43976</v>
       </c>
     </row>
@@ -7432,7 +7294,7 @@
       <c r="C491" s="1">
         <v>78</v>
       </c>
-      <c r="D491" s="3">
+      <c r="D491" s="2">
         <v>43976</v>
       </c>
     </row>
@@ -7446,7 +7308,7 @@
       <c r="C492" s="1">
         <v>66</v>
       </c>
-      <c r="D492" s="3">
+      <c r="D492" s="2">
         <v>43976</v>
       </c>
     </row>
@@ -7460,7 +7322,7 @@
       <c r="C493" s="1">
         <v>69</v>
       </c>
-      <c r="D493" s="3">
+      <c r="D493" s="2">
         <v>43977</v>
       </c>
     </row>
@@ -7474,7 +7336,7 @@
       <c r="C494" s="1">
         <v>87</v>
       </c>
-      <c r="D494" s="3">
+      <c r="D494" s="2">
         <v>43977</v>
       </c>
     </row>
@@ -7488,7 +7350,7 @@
       <c r="C495" s="1">
         <v>70</v>
       </c>
-      <c r="D495" s="3">
+      <c r="D495" s="2">
         <v>43977</v>
       </c>
     </row>
@@ -7502,7 +7364,7 @@
       <c r="C496" s="1">
         <v>85</v>
       </c>
-      <c r="D496" s="3">
+      <c r="D496" s="2">
         <v>43977</v>
       </c>
     </row>
@@ -7516,7 +7378,7 @@
       <c r="C497" s="1">
         <v>71</v>
       </c>
-      <c r="D497" s="3">
+      <c r="D497" s="2">
         <v>43977</v>
       </c>
     </row>
@@ -7530,7 +7392,7 @@
       <c r="C498" s="1">
         <v>76</v>
       </c>
-      <c r="D498" s="3">
+      <c r="D498" s="2">
         <v>43977</v>
       </c>
     </row>
@@ -7544,7 +7406,7 @@
       <c r="C499" s="1">
         <v>85</v>
       </c>
-      <c r="D499" s="3">
+      <c r="D499" s="2">
         <v>43977</v>
       </c>
     </row>
@@ -7558,7 +7420,7 @@
       <c r="C500" s="1">
         <v>91</v>
       </c>
-      <c r="D500" s="3">
+      <c r="D500" s="2">
         <v>43977</v>
       </c>
     </row>
@@ -7572,7 +7434,7 @@
       <c r="C501" s="1">
         <v>75</v>
       </c>
-      <c r="D501" s="3">
+      <c r="D501" s="2">
         <v>43978</v>
       </c>
     </row>
@@ -7586,7 +7448,7 @@
       <c r="C502" s="1">
         <v>90</v>
       </c>
-      <c r="D502" s="3">
+      <c r="D502" s="2">
         <v>43978</v>
       </c>
     </row>
@@ -7600,7 +7462,7 @@
       <c r="C503" s="1">
         <v>86</v>
       </c>
-      <c r="D503" s="3">
+      <c r="D503" s="2">
         <v>43978</v>
       </c>
     </row>
@@ -7614,7 +7476,7 @@
       <c r="C504" s="1">
         <v>91</v>
       </c>
-      <c r="D504" s="3">
+      <c r="D504" s="2">
         <v>43978</v>
       </c>
     </row>
@@ -7628,7 +7490,7 @@
       <c r="C505" s="1">
         <v>80</v>
       </c>
-      <c r="D505" s="3">
+      <c r="D505" s="2">
         <v>43978</v>
       </c>
     </row>
@@ -7642,7 +7504,7 @@
       <c r="C506" s="1">
         <v>84</v>
       </c>
-      <c r="D506" s="3">
+      <c r="D506" s="2">
         <v>43978</v>
       </c>
     </row>
@@ -7656,7 +7518,7 @@
       <c r="C507" s="1">
         <v>64</v>
       </c>
-      <c r="D507" s="3">
+      <c r="D507" s="2">
         <v>43979</v>
       </c>
     </row>
@@ -7670,7 +7532,7 @@
       <c r="C508" s="1">
         <v>92</v>
       </c>
-      <c r="D508" s="3">
+      <c r="D508" s="2">
         <v>43979</v>
       </c>
     </row>
@@ -7684,7 +7546,7 @@
       <c r="C509" s="1">
         <v>88</v>
       </c>
-      <c r="D509" s="3">
+      <c r="D509" s="2">
         <v>43979</v>
       </c>
     </row>
@@ -7698,7 +7560,7 @@
       <c r="C510" s="1">
         <v>62</v>
       </c>
-      <c r="D510" s="3">
+      <c r="D510" s="2">
         <v>43979</v>
       </c>
     </row>
@@ -7712,7 +7574,7 @@
       <c r="C511" s="1">
         <v>78</v>
       </c>
-      <c r="D511" s="3">
+      <c r="D511" s="2">
         <v>43980</v>
       </c>
     </row>
@@ -7726,7 +7588,7 @@
       <c r="C512" s="1">
         <v>37</v>
       </c>
-      <c r="D512" s="3">
+      <c r="D512" s="2">
         <v>43980</v>
       </c>
     </row>
@@ -7740,7 +7602,7 @@
       <c r="C513" s="1">
         <v>89</v>
       </c>
-      <c r="D513" s="3">
+      <c r="D513" s="2">
         <v>43980</v>
       </c>
     </row>
@@ -7754,7 +7616,7 @@
       <c r="C514" s="1">
         <v>72</v>
       </c>
-      <c r="D514" s="3">
+      <c r="D514" s="2">
         <v>43980</v>
       </c>
     </row>
@@ -7768,7 +7630,7 @@
       <c r="C515" s="1">
         <v>91</v>
       </c>
-      <c r="D515" s="3">
+      <c r="D515" s="2">
         <v>43980</v>
       </c>
     </row>
@@ -7782,7 +7644,7 @@
       <c r="C516" s="1">
         <v>67</v>
       </c>
-      <c r="D516" s="3">
+      <c r="D516" s="2">
         <v>43980</v>
       </c>
     </row>
@@ -7796,7 +7658,7 @@
       <c r="C517" s="1">
         <v>95</v>
       </c>
-      <c r="D517" s="3">
+      <c r="D517" s="2">
         <v>43980</v>
       </c>
     </row>
@@ -7810,7 +7672,7 @@
       <c r="C518" s="1">
         <v>89</v>
       </c>
-      <c r="D518" s="3">
+      <c r="D518" s="2">
         <v>43980</v>
       </c>
     </row>
@@ -7824,7 +7686,7 @@
       <c r="C519" s="1">
         <v>81</v>
       </c>
-      <c r="D519" s="3">
+      <c r="D519" s="2">
         <v>43981</v>
       </c>
     </row>
@@ -7838,7 +7700,7 @@
       <c r="C520" s="1">
         <v>84</v>
       </c>
-      <c r="D520" s="3">
+      <c r="D520" s="2">
         <v>43981</v>
       </c>
     </row>
@@ -7852,7 +7714,7 @@
       <c r="C521" s="1">
         <v>91</v>
       </c>
-      <c r="D521" s="3">
+      <c r="D521" s="2">
         <v>43981</v>
       </c>
     </row>
@@ -7866,7 +7728,7 @@
       <c r="C522" s="1">
         <v>68</v>
       </c>
-      <c r="D522" s="3">
+      <c r="D522" s="2">
         <v>43981</v>
       </c>
     </row>
@@ -7880,7 +7742,7 @@
       <c r="C523" s="1">
         <v>66</v>
       </c>
-      <c r="D523" s="3">
+      <c r="D523" s="2">
         <v>43981</v>
       </c>
     </row>
@@ -7894,7 +7756,7 @@
       <c r="C524" s="1">
         <v>84</v>
       </c>
-      <c r="D524" s="3">
+      <c r="D524" s="2">
         <v>43981</v>
       </c>
     </row>
@@ -7908,7 +7770,7 @@
       <c r="C525" s="1">
         <v>75</v>
       </c>
-      <c r="D525" s="3">
+      <c r="D525" s="2">
         <v>43981</v>
       </c>
     </row>
@@ -7922,7 +7784,7 @@
       <c r="C526" s="1">
         <v>93</v>
       </c>
-      <c r="D526" s="3">
+      <c r="D526" s="2">
         <v>43982</v>
       </c>
     </row>
@@ -7936,7 +7798,7 @@
       <c r="C527" s="1">
         <v>86</v>
       </c>
-      <c r="D527" s="3">
+      <c r="D527" s="2">
         <v>43982</v>
       </c>
     </row>
@@ -7950,7 +7812,7 @@
       <c r="C528" s="1">
         <v>69</v>
       </c>
-      <c r="D528" s="3">
+      <c r="D528" s="2">
         <v>43983</v>
       </c>
     </row>
@@ -7964,7 +7826,7 @@
       <c r="C529" s="1">
         <v>91</v>
       </c>
-      <c r="D529" s="3">
+      <c r="D529" s="2">
         <v>43984</v>
       </c>
     </row>
@@ -7978,7 +7840,7 @@
       <c r="C530" s="1">
         <v>88</v>
       </c>
-      <c r="D530" s="3">
+      <c r="D530" s="2">
         <v>43984</v>
       </c>
     </row>
@@ -7992,7 +7854,7 @@
       <c r="C531" s="1">
         <v>85</v>
       </c>
-      <c r="D531" s="3">
+      <c r="D531" s="2">
         <v>43984</v>
       </c>
     </row>
@@ -8006,7 +7868,7 @@
       <c r="C532" s="1">
         <v>70</v>
       </c>
-      <c r="D532" s="3">
+      <c r="D532" s="2">
         <v>43984</v>
       </c>
     </row>
@@ -8020,7 +7882,7 @@
       <c r="C533" s="1">
         <v>91</v>
       </c>
-      <c r="D533" s="3">
+      <c r="D533" s="2">
         <v>43984</v>
       </c>
     </row>
@@ -8034,7 +7896,7 @@
       <c r="C534" s="1">
         <v>80</v>
       </c>
-      <c r="D534" s="3">
+      <c r="D534" s="2">
         <v>43985</v>
       </c>
     </row>
@@ -8048,7 +7910,7 @@
       <c r="C535" s="1">
         <v>52</v>
       </c>
-      <c r="D535" s="3">
+      <c r="D535" s="2">
         <v>43985</v>
       </c>
     </row>
@@ -8062,7 +7924,7 @@
       <c r="C536" s="1">
         <v>66</v>
       </c>
-      <c r="D536" s="3">
+      <c r="D536" s="2">
         <v>43986</v>
       </c>
     </row>
@@ -8076,7 +7938,7 @@
       <c r="C537" s="1">
         <v>86</v>
       </c>
-      <c r="D537" s="3">
+      <c r="D537" s="2">
         <v>43986</v>
       </c>
     </row>
@@ -8090,7 +7952,7 @@
       <c r="C538" s="1">
         <v>59</v>
       </c>
-      <c r="D538" s="3">
+      <c r="D538" s="2">
         <v>43986</v>
       </c>
     </row>
@@ -8104,7 +7966,7 @@
       <c r="C539" s="1">
         <v>80</v>
       </c>
-      <c r="D539" s="3">
+      <c r="D539" s="2">
         <v>43986</v>
       </c>
     </row>
@@ -8118,7 +7980,7 @@
       <c r="C540" s="1">
         <v>90</v>
       </c>
-      <c r="D540" s="3">
+      <c r="D540" s="2">
         <v>43986</v>
       </c>
     </row>
@@ -8132,7 +7994,7 @@
       <c r="C541" s="1">
         <v>47</v>
       </c>
-      <c r="D541" s="3">
+      <c r="D541" s="2">
         <v>43987</v>
       </c>
     </row>
@@ -8146,7 +8008,7 @@
       <c r="C542" s="1">
         <v>80</v>
       </c>
-      <c r="D542" s="3">
+      <c r="D542" s="2">
         <v>43987</v>
       </c>
     </row>
@@ -8160,7 +8022,7 @@
       <c r="C543" s="1">
         <v>76</v>
       </c>
-      <c r="D543" s="3">
+      <c r="D543" s="2">
         <v>43987</v>
       </c>
     </row>
@@ -8174,7 +8036,7 @@
       <c r="C544" s="1">
         <v>78</v>
       </c>
-      <c r="D544" s="3">
+      <c r="D544" s="2">
         <v>43988</v>
       </c>
     </row>
@@ -8188,7 +8050,7 @@
       <c r="C545" s="1">
         <v>64</v>
       </c>
-      <c r="D545" s="3">
+      <c r="D545" s="2">
         <v>43988</v>
       </c>
     </row>
@@ -8202,7 +8064,7 @@
       <c r="C546" s="1">
         <v>78</v>
       </c>
-      <c r="D546" s="3">
+      <c r="D546" s="2">
         <v>43988</v>
       </c>
     </row>
@@ -8216,7 +8078,7 @@
       <c r="C547" s="1">
         <v>89</v>
       </c>
-      <c r="D547" s="3">
+      <c r="D547" s="2">
         <v>43989</v>
       </c>
     </row>
@@ -8230,7 +8092,7 @@
       <c r="C548" s="1">
         <v>76</v>
       </c>
-      <c r="D548" s="3">
+      <c r="D548" s="2">
         <v>43990</v>
       </c>
     </row>
@@ -8244,7 +8106,7 @@
       <c r="C549" s="1">
         <v>84</v>
       </c>
-      <c r="D549" s="3">
+      <c r="D549" s="2">
         <v>43990</v>
       </c>
     </row>
@@ -8258,7 +8120,7 @@
       <c r="C550" s="1">
         <v>89</v>
       </c>
-      <c r="D550" s="3">
+      <c r="D550" s="2">
         <v>43991</v>
       </c>
     </row>
@@ -8272,7 +8134,7 @@
       <c r="C551" s="1">
         <v>85</v>
       </c>
-      <c r="D551" s="3">
+      <c r="D551" s="2">
         <v>43991</v>
       </c>
     </row>
@@ -8286,7 +8148,7 @@
       <c r="C552" s="1">
         <v>37</v>
       </c>
-      <c r="D552" s="3">
+      <c r="D552" s="2">
         <v>43992</v>
       </c>
     </row>
@@ -8300,7 +8162,7 @@
       <c r="C553" s="1">
         <v>87</v>
       </c>
-      <c r="D553" s="3">
+      <c r="D553" s="2">
         <v>43993</v>
       </c>
     </row>
@@ -8314,7 +8176,7 @@
       <c r="C554" s="1">
         <v>66</v>
       </c>
-      <c r="D554" s="3">
+      <c r="D554" s="2">
         <v>43993</v>
       </c>
     </row>
@@ -8328,7 +8190,7 @@
       <c r="C555" s="1">
         <v>83</v>
       </c>
-      <c r="D555" s="3">
+      <c r="D555" s="2">
         <v>43994</v>
       </c>
     </row>
@@ -8342,7 +8204,7 @@
       <c r="C556" s="1">
         <v>66</v>
       </c>
-      <c r="D556" s="3">
+      <c r="D556" s="2">
         <v>43994</v>
       </c>
     </row>
@@ -8356,7 +8218,7 @@
       <c r="C557" s="1">
         <v>84</v>
       </c>
-      <c r="D557" s="3">
+      <c r="D557" s="2">
         <v>43995</v>
       </c>
     </row>
@@ -8370,7 +8232,7 @@
       <c r="C558" s="1">
         <v>81</v>
       </c>
-      <c r="D558" s="3">
+      <c r="D558" s="2">
         <v>43995</v>
       </c>
     </row>
@@ -8384,7 +8246,7 @@
       <c r="C559" s="1">
         <v>43</v>
       </c>
-      <c r="D559" s="3">
+      <c r="D559" s="2">
         <v>43995</v>
       </c>
     </row>
@@ -8398,7 +8260,7 @@
       <c r="C560" s="1">
         <v>76</v>
       </c>
-      <c r="D560" s="3">
+      <c r="D560" s="2">
         <v>43995</v>
       </c>
     </row>
@@ -8412,7 +8274,7 @@
       <c r="C561" s="1">
         <v>79</v>
       </c>
-      <c r="D561" s="3">
+      <c r="D561" s="2">
         <v>43996</v>
       </c>
     </row>
@@ -8426,7 +8288,7 @@
       <c r="C562" s="1">
         <v>90</v>
       </c>
-      <c r="D562" s="3">
+      <c r="D562" s="2">
         <v>43996</v>
       </c>
     </row>
@@ -8440,7 +8302,7 @@
       <c r="C563" s="1">
         <v>84</v>
       </c>
-      <c r="D563" s="3">
+      <c r="D563" s="2">
         <v>43996</v>
       </c>
     </row>
@@ -8454,7 +8316,7 @@
       <c r="C564" s="1">
         <v>101</v>
       </c>
-      <c r="D564" s="3">
+      <c r="D564" s="2">
         <v>43997</v>
       </c>
     </row>
@@ -8468,7 +8330,7 @@
       <c r="C565" s="1">
         <v>86</v>
       </c>
-      <c r="D565" s="3">
+      <c r="D565" s="2">
         <v>43998</v>
       </c>
     </row>
@@ -8482,7 +8344,7 @@
       <c r="C566" s="1">
         <v>75</v>
       </c>
-      <c r="D566" s="3">
+      <c r="D566" s="2">
         <v>43998</v>
       </c>
     </row>
@@ -8496,7 +8358,7 @@
       <c r="C567" s="1">
         <v>93</v>
       </c>
-      <c r="D567" s="3">
+      <c r="D567" s="2">
         <v>43999</v>
       </c>
     </row>
@@ -8510,7 +8372,7 @@
       <c r="C568" s="1">
         <v>76</v>
       </c>
-      <c r="D568" s="3">
+      <c r="D568" s="2">
         <v>43999</v>
       </c>
     </row>
@@ -8524,7 +8386,7 @@
       <c r="C569" s="1">
         <v>74</v>
       </c>
-      <c r="D569" s="3">
+      <c r="D569" s="2">
         <v>44000</v>
       </c>
     </row>
@@ -8538,7 +8400,7 @@
       <c r="C570" s="1">
         <v>72</v>
       </c>
-      <c r="D570" s="3">
+      <c r="D570" s="2">
         <v>44002</v>
       </c>
     </row>
@@ -8552,7 +8414,7 @@
       <c r="C571" s="1">
         <v>87</v>
       </c>
-      <c r="D571" s="3">
+      <c r="D571" s="2">
         <v>44002</v>
       </c>
     </row>
@@ -8566,7 +8428,7 @@
       <c r="C572" s="1">
         <v>76</v>
       </c>
-      <c r="D572" s="3">
+      <c r="D572" s="2">
         <v>44004</v>
       </c>
     </row>
@@ -8580,7 +8442,7 @@
       <c r="C573" s="1">
         <v>94</v>
       </c>
-      <c r="D573" s="3">
+      <c r="D573" s="2">
         <v>44004</v>
       </c>
     </row>
@@ -8594,7 +8456,7 @@
       <c r="C574" s="1">
         <v>100</v>
       </c>
-      <c r="D574" s="3">
+      <c r="D574" s="2">
         <v>44005</v>
       </c>
     </row>
@@ -8608,7 +8470,7 @@
       <c r="C575" s="1">
         <v>79</v>
       </c>
-      <c r="D575" s="3">
+      <c r="D575" s="2">
         <v>44006</v>
       </c>
     </row>
@@ -8622,7 +8484,7 @@
       <c r="C576" s="1">
         <v>56</v>
       </c>
-      <c r="D576" s="3">
+      <c r="D576" s="2">
         <v>44006</v>
       </c>
     </row>
@@ -8636,7 +8498,7 @@
       <c r="C577" s="1">
         <v>75</v>
       </c>
-      <c r="D577" s="3">
+      <c r="D577" s="2">
         <v>44006</v>
       </c>
     </row>
@@ -8650,7 +8512,7 @@
       <c r="C578" s="1">
         <v>39</v>
       </c>
-      <c r="D578" s="3">
+      <c r="D578" s="2">
         <v>44007</v>
       </c>
     </row>
@@ -8664,7 +8526,7 @@
       <c r="C579" s="1">
         <v>79</v>
       </c>
-      <c r="D579" s="3">
+      <c r="D579" s="2">
         <v>44008</v>
       </c>
     </row>
@@ -8678,7 +8540,7 @@
       <c r="C580" s="1">
         <v>89</v>
       </c>
-      <c r="D580" s="3">
+      <c r="D580" s="2">
         <v>44010</v>
       </c>
     </row>
@@ -8692,7 +8554,7 @@
       <c r="C581" s="1">
         <v>64</v>
       </c>
-      <c r="D581" s="3">
+      <c r="D581" s="2">
         <v>44010</v>
       </c>
     </row>
@@ -8706,7 +8568,7 @@
       <c r="C582" s="1">
         <v>77</v>
       </c>
-      <c r="D582" s="3">
+      <c r="D582" s="2">
         <v>44010</v>
       </c>
     </row>
@@ -8720,7 +8582,7 @@
       <c r="C583" s="1">
         <v>71</v>
       </c>
-      <c r="D583" s="3">
+      <c r="D583" s="2">
         <v>44011</v>
       </c>
     </row>
@@ -8734,7 +8596,7 @@
       <c r="C584" s="1">
         <v>93</v>
       </c>
-      <c r="D584" s="3">
+      <c r="D584" s="2">
         <v>44011</v>
       </c>
     </row>
@@ -8748,7 +8610,7 @@
       <c r="C585" s="1">
         <v>86</v>
       </c>
-      <c r="D585" s="3">
+      <c r="D585" s="2">
         <v>44011</v>
       </c>
     </row>
@@ -8762,7 +8624,7 @@
       <c r="C586" s="1">
         <v>87</v>
       </c>
-      <c r="D586" s="3">
+      <c r="D586" s="2">
         <v>44012</v>
       </c>
     </row>
@@ -8776,7 +8638,7 @@
       <c r="C587" s="1">
         <v>80</v>
       </c>
-      <c r="D587" s="3">
+      <c r="D587" s="2">
         <v>44013</v>
       </c>
     </row>
@@ -8790,7 +8652,7 @@
       <c r="C588" s="1">
         <v>86</v>
       </c>
-      <c r="D588" s="3">
+      <c r="D588" s="2">
         <v>44014</v>
       </c>
     </row>
@@ -8804,7 +8666,7 @@
       <c r="C589" s="1">
         <v>72</v>
       </c>
-      <c r="D589" s="3">
+      <c r="D589" s="2">
         <v>44015</v>
       </c>
     </row>
@@ -8818,7 +8680,7 @@
       <c r="C590" s="1">
         <v>51</v>
       </c>
-      <c r="D590" s="3">
+      <c r="D590" s="2">
         <v>44016</v>
       </c>
     </row>
@@ -8832,7 +8694,7 @@
       <c r="C591" s="1">
         <v>79</v>
       </c>
-      <c r="D591" s="3">
+      <c r="D591" s="2">
         <v>44021</v>
       </c>
     </row>
@@ -8846,7 +8708,7 @@
       <c r="C592" s="1">
         <v>72</v>
       </c>
-      <c r="D592" s="3">
+      <c r="D592" s="2">
         <v>44021</v>
       </c>
     </row>
@@ -8860,7 +8722,7 @@
       <c r="C593" s="1">
         <v>83</v>
       </c>
-      <c r="D593" s="3">
+      <c r="D593" s="2">
         <v>44022</v>
       </c>
     </row>
@@ -8874,7 +8736,7 @@
       <c r="C594" s="1">
         <v>68</v>
       </c>
-      <c r="D594" s="3">
+      <c r="D594" s="2">
         <v>44022</v>
       </c>
     </row>
@@ -8888,7 +8750,7 @@
       <c r="C595" s="1">
         <v>73</v>
       </c>
-      <c r="D595" s="3">
+      <c r="D595" s="2">
         <v>44023</v>
       </c>
     </row>
@@ -8902,7 +8764,7 @@
       <c r="C596" s="1">
         <v>74</v>
       </c>
-      <c r="D596" s="3">
+      <c r="D596" s="2">
         <v>44023</v>
       </c>
     </row>
@@ -8916,7 +8778,7 @@
       <c r="C597" s="1">
         <v>79</v>
       </c>
-      <c r="D597" s="3">
+      <c r="D597" s="2">
         <v>44030</v>
       </c>
     </row>
@@ -8930,7 +8792,7 @@
       <c r="C598" s="1">
         <v>50</v>
       </c>
-      <c r="D598" s="3">
+      <c r="D598" s="2">
         <v>44044</v>
       </c>
     </row>
@@ -8944,7 +8806,7 @@
       <c r="C599" s="1">
         <v>77</v>
       </c>
-      <c r="D599" s="3">
+      <c r="D599" s="2">
         <v>44047</v>
       </c>
     </row>
@@ -8958,7 +8820,7 @@
       <c r="C600" s="1">
         <v>85</v>
       </c>
-      <c r="D600" s="3">
+      <c r="D600" s="2">
         <v>44048</v>
       </c>
     </row>
@@ -8972,7 +8834,7 @@
       <c r="C601" s="1">
         <v>65</v>
       </c>
-      <c r="D601" s="3">
+      <c r="D601" s="2">
         <v>44049</v>
       </c>
     </row>
@@ -8986,7 +8848,7 @@
       <c r="C602" s="1">
         <v>74</v>
       </c>
-      <c r="D602" s="3">
+      <c r="D602" s="2">
         <v>44050</v>
       </c>
     </row>
@@ -9000,7 +8862,7 @@
       <c r="C603" s="1">
         <v>67</v>
       </c>
-      <c r="D603" s="3">
+      <c r="D603" s="2">
         <v>44050</v>
       </c>
     </row>
@@ -9014,7 +8876,7 @@
       <c r="C604" s="1">
         <v>65</v>
       </c>
-      <c r="D604" s="3">
+      <c r="D604" s="2">
         <v>44053</v>
       </c>
     </row>
@@ -9028,7 +8890,7 @@
       <c r="C605" s="1">
         <v>55</v>
       </c>
-      <c r="D605" s="3">
+      <c r="D605" s="2">
         <v>44053</v>
       </c>
     </row>
@@ -9042,7 +8904,7 @@
       <c r="C606" s="1">
         <v>78</v>
       </c>
-      <c r="D606" s="3">
+      <c r="D606" s="2">
         <v>44053</v>
       </c>
     </row>
@@ -9056,7 +8918,7 @@
       <c r="C607" s="1">
         <v>82</v>
       </c>
-      <c r="D607" s="3">
+      <c r="D607" s="2">
         <v>44056</v>
       </c>
     </row>
@@ -9070,7 +8932,7 @@
       <c r="C608" s="1">
         <v>87</v>
       </c>
-      <c r="D608" s="3">
+      <c r="D608" s="2">
         <v>44056</v>
       </c>
     </row>
@@ -9084,7 +8946,7 @@
       <c r="C609" s="1">
         <v>82</v>
       </c>
-      <c r="D609" s="3">
+      <c r="D609" s="2">
         <v>44059</v>
       </c>
     </row>
@@ -9098,7 +8960,7 @@
       <c r="C610" s="1">
         <v>77</v>
       </c>
-      <c r="D610" s="3">
+      <c r="D610" s="2">
         <v>44061</v>
       </c>
     </row>
@@ -9112,7 +8974,7 @@
       <c r="C611" s="1">
         <v>66</v>
       </c>
-      <c r="D611" s="3">
+      <c r="D611" s="2">
         <v>44064</v>
       </c>
     </row>
@@ -9126,7 +8988,7 @@
       <c r="C612" s="1">
         <v>83</v>
       </c>
-      <c r="D612" s="3">
+      <c r="D612" s="2">
         <v>44064</v>
       </c>
     </row>
@@ -9140,7 +9002,7 @@
       <c r="C613" s="1">
         <v>85</v>
       </c>
-      <c r="D613" s="3">
+      <c r="D613" s="2">
         <v>44066</v>
       </c>
     </row>
@@ -9154,7 +9016,7 @@
       <c r="C614" s="1">
         <v>68</v>
       </c>
-      <c r="D614" s="3">
+      <c r="D614" s="2">
         <v>44066</v>
       </c>
     </row>
@@ -9168,7 +9030,7 @@
       <c r="C615" s="1">
         <v>94</v>
       </c>
-      <c r="D615" s="3">
+      <c r="D615" s="2">
         <v>44068</v>
       </c>
     </row>
@@ -9182,7 +9044,7 @@
       <c r="C616" s="1">
         <v>68</v>
       </c>
-      <c r="D616" s="3">
+      <c r="D616" s="2">
         <v>44074</v>
       </c>
     </row>
@@ -9196,7 +9058,7 @@
       <c r="C617" s="1">
         <v>74</v>
       </c>
-      <c r="D617" s="3">
+      <c r="D617" s="2">
         <v>44075</v>
       </c>
     </row>
@@ -9210,7 +9072,7 @@
       <c r="C618" s="1">
         <v>64</v>
       </c>
-      <c r="D618" s="3">
+      <c r="D618" s="2">
         <v>44076</v>
       </c>
     </row>
@@ -9224,7 +9086,7 @@
       <c r="C619" s="1">
         <v>89</v>
       </c>
-      <c r="D619" s="3">
+      <c r="D619" s="2">
         <v>44076</v>
       </c>
     </row>
@@ -9238,7 +9100,7 @@
       <c r="C620" s="1">
         <v>71</v>
       </c>
-      <c r="D620" s="3">
+      <c r="D620" s="2">
         <v>44076</v>
       </c>
     </row>
@@ -9252,7 +9114,7 @@
       <c r="C621" s="1">
         <v>78</v>
       </c>
-      <c r="D621" s="3">
+      <c r="D621" s="2">
         <v>44077</v>
       </c>
     </row>
@@ -9266,7 +9128,7 @@
       <c r="C622" s="1">
         <v>82</v>
       </c>
-      <c r="D622" s="3">
+      <c r="D622" s="2">
         <v>44078</v>
       </c>
     </row>
@@ -9280,7 +9142,7 @@
       <c r="C623" s="1">
         <v>85</v>
       </c>
-      <c r="D623" s="3">
+      <c r="D623" s="2">
         <v>44079</v>
       </c>
     </row>
@@ -9294,7 +9156,7 @@
       <c r="C624" s="1">
         <v>92</v>
       </c>
-      <c r="D624" s="3">
+      <c r="D624" s="2">
         <v>44079</v>
       </c>
     </row>
@@ -9308,7 +9170,7 @@
       <c r="C625" s="1">
         <v>59</v>
       </c>
-      <c r="D625" s="3">
+      <c r="D625" s="2">
         <v>44079</v>
       </c>
     </row>
@@ -9322,7 +9184,7 @@
       <c r="C626" s="1">
         <v>58</v>
       </c>
-      <c r="D626" s="3">
+      <c r="D626" s="2">
         <v>44081</v>
       </c>
     </row>
@@ -9336,7 +9198,7 @@
       <c r="C627" s="1">
         <v>81</v>
       </c>
-      <c r="D627" s="3">
+      <c r="D627" s="2">
         <v>44082</v>
       </c>
     </row>
@@ -9350,7 +9212,7 @@
       <c r="C628" s="1">
         <v>103</v>
       </c>
-      <c r="D628" s="3">
+      <c r="D628" s="2">
         <v>44083</v>
       </c>
     </row>
@@ -9364,7 +9226,7 @@
       <c r="C629" s="1">
         <v>72</v>
       </c>
-      <c r="D629" s="3">
+      <c r="D629" s="2">
         <v>44083</v>
       </c>
     </row>
@@ -9378,7 +9240,7 @@
       <c r="C630" s="1">
         <v>79</v>
       </c>
-      <c r="D630" s="3">
+      <c r="D630" s="2">
         <v>44084</v>
       </c>
     </row>
@@ -9392,7 +9254,7 @@
       <c r="C631" s="1">
         <v>84</v>
       </c>
-      <c r="D631" s="3">
+      <c r="D631" s="2">
         <v>44084</v>
       </c>
     </row>
@@ -9406,7 +9268,7 @@
       <c r="C632" s="1">
         <v>82</v>
       </c>
-      <c r="D632" s="3">
+      <c r="D632" s="2">
         <v>44085</v>
       </c>
     </row>
@@ -9420,7 +9282,7 @@
       <c r="C633" s="1">
         <v>87</v>
       </c>
-      <c r="D633" s="3">
+      <c r="D633" s="2">
         <v>44086</v>
       </c>
     </row>
@@ -9434,7 +9296,7 @@
       <c r="C634" s="1">
         <v>70</v>
       </c>
-      <c r="D634" s="3">
+      <c r="D634" s="2">
         <v>44086</v>
       </c>
     </row>
@@ -9448,7 +9310,7 @@
       <c r="C635" s="1">
         <v>90</v>
       </c>
-      <c r="D635" s="3">
+      <c r="D635" s="2">
         <v>44087</v>
       </c>
     </row>
@@ -9462,7 +9324,7 @@
       <c r="C636" s="1">
         <v>92</v>
       </c>
-      <c r="D636" s="3">
+      <c r="D636" s="2">
         <v>44087</v>
       </c>
     </row>
@@ -9476,7 +9338,7 @@
       <c r="C637" s="1">
         <v>67</v>
       </c>
-      <c r="D637" s="3">
+      <c r="D637" s="2">
         <v>44087</v>
       </c>
     </row>
@@ -9490,7 +9352,7 @@
       <c r="C638" s="1">
         <v>52</v>
       </c>
-      <c r="D638" s="3">
+      <c r="D638" s="2">
         <v>44087</v>
       </c>
     </row>
@@ -9504,7 +9366,7 @@
       <c r="C639" s="1">
         <v>88</v>
       </c>
-      <c r="D639" s="3">
+      <c r="D639" s="2">
         <v>44088</v>
       </c>
     </row>
@@ -9518,7 +9380,7 @@
       <c r="C640" s="1">
         <v>73</v>
       </c>
-      <c r="D640" s="3">
+      <c r="D640" s="2">
         <v>44088</v>
       </c>
     </row>
@@ -9532,7 +9394,7 @@
       <c r="C641" s="1">
         <v>63</v>
       </c>
-      <c r="D641" s="3">
+      <c r="D641" s="2">
         <v>44088</v>
       </c>
     </row>
@@ -9546,7 +9408,7 @@
       <c r="C642" s="1">
         <v>75</v>
       </c>
-      <c r="D642" s="3">
+      <c r="D642" s="2">
         <v>44088</v>
       </c>
     </row>
@@ -9560,7 +9422,7 @@
       <c r="C643" s="1">
         <v>66</v>
       </c>
-      <c r="D643" s="3">
+      <c r="D643" s="2">
         <v>44088</v>
       </c>
     </row>
@@ -9574,7 +9436,7 @@
       <c r="C644" s="1">
         <v>71</v>
       </c>
-      <c r="D644" s="3">
+      <c r="D644" s="2">
         <v>44089</v>
       </c>
     </row>
@@ -9588,7 +9450,7 @@
       <c r="C645" s="1">
         <v>77</v>
       </c>
-      <c r="D645" s="3">
+      <c r="D645" s="2">
         <v>44089</v>
       </c>
     </row>
@@ -9602,7 +9464,7 @@
       <c r="C646" s="1">
         <v>73</v>
       </c>
-      <c r="D646" s="3">
+      <c r="D646" s="2">
         <v>44089</v>
       </c>
     </row>
@@ -9616,7 +9478,7 @@
       <c r="C647" s="1">
         <v>89</v>
       </c>
-      <c r="D647" s="3">
+      <c r="D647" s="2">
         <v>44089</v>
       </c>
     </row>
@@ -9630,7 +9492,7 @@
       <c r="C648" s="1">
         <v>85</v>
       </c>
-      <c r="D648" s="3">
+      <c r="D648" s="2">
         <v>44090</v>
       </c>
     </row>
@@ -9644,7 +9506,7 @@
       <c r="C649" s="1">
         <v>85</v>
       </c>
-      <c r="D649" s="3">
+      <c r="D649" s="2">
         <v>44090</v>
       </c>
     </row>
@@ -9658,7 +9520,7 @@
       <c r="C650" s="1">
         <v>67</v>
       </c>
-      <c r="D650" s="3">
+      <c r="D650" s="2">
         <v>44090</v>
       </c>
     </row>
@@ -9672,7 +9534,7 @@
       <c r="C651" s="1">
         <v>60</v>
       </c>
-      <c r="D651" s="3">
+      <c r="D651" s="2">
         <v>44090</v>
       </c>
     </row>
@@ -9686,7 +9548,7 @@
       <c r="C652" s="1">
         <v>84</v>
       </c>
-      <c r="D652" s="3">
+      <c r="D652" s="2">
         <v>44090</v>
       </c>
     </row>
@@ -9700,7 +9562,7 @@
       <c r="C653" s="1">
         <v>88</v>
       </c>
-      <c r="D653" s="3">
+      <c r="D653" s="2">
         <v>44090</v>
       </c>
     </row>
@@ -9714,7 +9576,7 @@
       <c r="C654" s="1">
         <v>71</v>
       </c>
-      <c r="D654" s="3">
+      <c r="D654" s="2">
         <v>44090</v>
       </c>
     </row>
@@ -9728,7 +9590,7 @@
       <c r="C655" s="1">
         <v>89</v>
       </c>
-      <c r="D655" s="3">
+      <c r="D655" s="2">
         <v>44090</v>
       </c>
     </row>
@@ -9742,7 +9604,7 @@
       <c r="C656" s="1">
         <v>81</v>
       </c>
-      <c r="D656" s="3">
+      <c r="D656" s="2">
         <v>44091</v>
       </c>
     </row>
@@ -9756,7 +9618,7 @@
       <c r="C657" s="1">
         <v>42</v>
       </c>
-      <c r="D657" s="3">
+      <c r="D657" s="2">
         <v>44091</v>
       </c>
     </row>
@@ -9770,7 +9632,7 @@
       <c r="C658" s="1">
         <v>86</v>
       </c>
-      <c r="D658" s="3">
+      <c r="D658" s="2">
         <v>44091</v>
       </c>
     </row>
@@ -9784,7 +9646,7 @@
       <c r="C659" s="1">
         <v>77</v>
       </c>
-      <c r="D659" s="3">
+      <c r="D659" s="2">
         <v>44091</v>
       </c>
     </row>
@@ -9798,7 +9660,7 @@
       <c r="C660" s="1">
         <v>72</v>
       </c>
-      <c r="D660" s="3">
+      <c r="D660" s="2">
         <v>44091</v>
       </c>
     </row>
@@ -9812,7 +9674,7 @@
       <c r="C661" s="1">
         <v>88</v>
       </c>
-      <c r="D661" s="3">
+      <c r="D661" s="2">
         <v>44091</v>
       </c>
     </row>
@@ -9826,7 +9688,7 @@
       <c r="C662" s="1">
         <v>86</v>
       </c>
-      <c r="D662" s="3">
+      <c r="D662" s="2">
         <v>44091</v>
       </c>
     </row>
@@ -9840,7 +9702,7 @@
       <c r="C663" s="1">
         <v>84</v>
       </c>
-      <c r="D663" s="3">
+      <c r="D663" s="2">
         <v>44091</v>
       </c>
     </row>
@@ -9854,7 +9716,7 @@
       <c r="C664" s="1">
         <v>73</v>
       </c>
-      <c r="D664" s="3">
+      <c r="D664" s="2">
         <v>44091</v>
       </c>
     </row>
@@ -9868,7 +9730,7 @@
       <c r="C665" s="1">
         <v>79</v>
       </c>
-      <c r="D665" s="3">
+      <c r="D665" s="2">
         <v>44092</v>
       </c>
     </row>
@@ -9882,7 +9744,7 @@
       <c r="C666" s="1">
         <v>93</v>
       </c>
-      <c r="D666" s="3">
+      <c r="D666" s="2">
         <v>44092</v>
       </c>
     </row>
@@ -9896,7 +9758,7 @@
       <c r="C667" s="1">
         <v>76</v>
       </c>
-      <c r="D667" s="3">
+      <c r="D667" s="2">
         <v>44092</v>
       </c>
     </row>
@@ -9910,7 +9772,7 @@
       <c r="C668" s="1">
         <v>81</v>
       </c>
-      <c r="D668" s="3">
+      <c r="D668" s="2">
         <v>44092</v>
       </c>
     </row>
@@ -9924,7 +9786,7 @@
       <c r="C669" s="1">
         <v>87</v>
       </c>
-      <c r="D669" s="3">
+      <c r="D669" s="2">
         <v>44092</v>
       </c>
     </row>
@@ -9938,7 +9800,7 @@
       <c r="C670" s="1">
         <v>69</v>
       </c>
-      <c r="D670" s="3">
+      <c r="D670" s="2">
         <v>44092</v>
       </c>
     </row>
@@ -9952,7 +9814,7 @@
       <c r="C671" s="1">
         <v>81</v>
       </c>
-      <c r="D671" s="3">
+      <c r="D671" s="2">
         <v>44093</v>
       </c>
     </row>
@@ -9966,7 +9828,7 @@
       <c r="C672" s="1">
         <v>71</v>
       </c>
-      <c r="D672" s="3">
+      <c r="D672" s="2">
         <v>44093</v>
       </c>
     </row>
@@ -9980,7 +9842,7 @@
       <c r="C673" s="1">
         <v>55</v>
       </c>
-      <c r="D673" s="3">
+      <c r="D673" s="2">
         <v>44093</v>
       </c>
     </row>
@@ -9994,7 +9856,7 @@
       <c r="C674" s="1">
         <v>65</v>
       </c>
-      <c r="D674" s="3">
+      <c r="D674" s="2">
         <v>44093</v>
       </c>
     </row>
@@ -10008,7 +9870,7 @@
       <c r="C675" s="1">
         <v>73</v>
       </c>
-      <c r="D675" s="3">
+      <c r="D675" s="2">
         <v>44093</v>
       </c>
     </row>
@@ -10022,16 +9884,615 @@
       <c r="C676" s="1">
         <v>70</v>
       </c>
-      <c r="D676" s="3">
+      <c r="D676" s="2">
         <v>44093</v>
       </c>
     </row>
     <row r="677" spans="1:4" ht="18">
-      <c r="D677" s="1"/>
+      <c r="A677" s="1">
+        <v>676</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C677" s="1">
+        <v>78</v>
+      </c>
+      <c r="D677" s="2">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" ht="18">
+      <c r="A678" s="1">
+        <v>677</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C678" s="1">
+        <v>53</v>
+      </c>
+      <c r="D678" s="2">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" ht="18">
+      <c r="A679" s="1">
+        <v>678</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C679" s="1">
+        <v>71</v>
+      </c>
+      <c r="D679" s="2">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" ht="18">
+      <c r="A680" s="1">
+        <v>679</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C680" s="1">
+        <v>64</v>
+      </c>
+      <c r="D680" s="2">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" ht="18">
+      <c r="A681" s="1">
+        <v>680</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C681" s="1">
+        <v>83</v>
+      </c>
+      <c r="D681" s="2">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" ht="18">
+      <c r="A682" s="1">
+        <v>681</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C682" s="1">
+        <v>66</v>
+      </c>
+      <c r="D682" s="2">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" ht="18">
+      <c r="A683" s="1">
+        <v>682</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C683" s="1">
+        <v>74</v>
+      </c>
+      <c r="D683" s="2">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" ht="18">
+      <c r="A684" s="1">
+        <v>683</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C684" s="1">
+        <v>63</v>
+      </c>
+      <c r="D684" s="2">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" ht="18">
+      <c r="A685" s="1">
+        <v>684</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C685" s="1">
+        <v>87</v>
+      </c>
+      <c r="D685" s="2">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" ht="18">
+      <c r="A686" s="1">
+        <v>685</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C686" s="1">
+        <v>71</v>
+      </c>
+      <c r="D686" s="2">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" ht="18">
+      <c r="A687" s="1">
+        <v>686</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C687" s="1">
+        <v>58</v>
+      </c>
+      <c r="D687" s="2">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" ht="18">
+      <c r="A688" s="1">
+        <v>687</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C688" s="1">
+        <v>54</v>
+      </c>
+      <c r="D688" s="2">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" ht="18">
+      <c r="A689" s="1">
+        <v>688</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C689" s="1">
+        <v>69</v>
+      </c>
+      <c r="D689" s="2">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" ht="18">
+      <c r="A690" s="1">
+        <v>689</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C690" s="1">
+        <v>37</v>
+      </c>
+      <c r="D690" s="2">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" ht="18">
+      <c r="A691" s="1">
+        <v>690</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C691" s="1">
+        <v>76</v>
+      </c>
+      <c r="D691" s="2">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" ht="18">
+      <c r="A692" s="1">
+        <v>691</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C692" s="1">
+        <v>51</v>
+      </c>
+      <c r="D692" s="2">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" ht="18">
+      <c r="A693" s="1">
+        <v>692</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C693" s="1">
+        <v>79</v>
+      </c>
+      <c r="D693" s="2">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" ht="18">
+      <c r="A694" s="1">
+        <v>693</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C694" s="1">
+        <v>94</v>
+      </c>
+      <c r="D694" s="2">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" ht="18">
+      <c r="A695" s="1">
+        <v>694</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C695" s="1">
+        <v>67</v>
+      </c>
+      <c r="D695" s="2">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" ht="18">
+      <c r="A696" s="1">
+        <v>695</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C696" s="1">
+        <v>62</v>
+      </c>
+      <c r="D696" s="2">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" ht="18">
+      <c r="A697" s="1">
+        <v>696</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C697" s="1">
+        <v>66</v>
+      </c>
+      <c r="D697" s="2">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" ht="18">
+      <c r="A698" s="1">
+        <v>697</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C698" s="1">
+        <v>48</v>
+      </c>
+      <c r="D698" s="2">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" ht="18">
+      <c r="A699" s="1">
+        <v>698</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C699" s="1">
+        <v>69</v>
+      </c>
+      <c r="D699" s="2">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" ht="18">
+      <c r="A700" s="1">
+        <v>699</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C700" s="1">
+        <v>67</v>
+      </c>
+      <c r="D700" s="2">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" ht="18">
+      <c r="A701" s="1">
+        <v>700</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C701" s="1">
+        <v>63</v>
+      </c>
+      <c r="D701" s="2">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" ht="18">
+      <c r="A702" s="1">
+        <v>701</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C702" s="1">
+        <v>61</v>
+      </c>
+      <c r="D702" s="2">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" ht="18">
+      <c r="A703" s="1">
+        <v>702</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C703" s="1">
+        <v>66</v>
+      </c>
+      <c r="D703" s="2">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" ht="18">
+      <c r="A704" s="1">
+        <v>703</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C704" s="1">
+        <v>66</v>
+      </c>
+      <c r="D704" s="2">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" ht="18">
+      <c r="A705" s="1">
+        <v>704</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C705" s="1">
+        <v>81</v>
+      </c>
+      <c r="D705" s="2">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" ht="18">
+      <c r="A706" s="1">
+        <v>705</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C706" s="1">
+        <v>77</v>
+      </c>
+      <c r="D706" s="2">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" ht="18">
+      <c r="A707" s="1">
+        <v>706</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C707" s="1">
+        <v>40</v>
+      </c>
+      <c r="D707" s="2">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" ht="18">
+      <c r="A708" s="1">
+        <v>707</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C708" s="1">
+        <v>81</v>
+      </c>
+      <c r="D708" s="2">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" ht="18">
+      <c r="A709" s="1">
+        <v>708</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C709" s="1">
+        <v>76</v>
+      </c>
+      <c r="D709" s="2">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" ht="18">
+      <c r="A710" s="1">
+        <v>709</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C710" s="1">
+        <v>80</v>
+      </c>
+      <c r="D710" s="2">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" ht="18">
+      <c r="A711" s="1">
+        <v>710</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C711" s="1">
+        <v>77</v>
+      </c>
+      <c r="D711" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" ht="18">
+      <c r="A712" s="1">
+        <v>711</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C712" s="1">
+        <v>69</v>
+      </c>
+      <c r="D712" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" ht="18">
+      <c r="A713" s="1">
+        <v>712</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C713" s="1">
+        <v>85</v>
+      </c>
+      <c r="D713" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" ht="18">
+      <c r="A714" s="1">
+        <v>713</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C714" s="1">
+        <v>57</v>
+      </c>
+      <c r="D714" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" ht="18">
+      <c r="A715" s="1">
+        <v>714</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C715" s="1">
+        <v>75</v>
+      </c>
+      <c r="D715" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" ht="18">
+      <c r="A716" s="1">
+        <v>715</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C716" s="1">
+        <v>90</v>
+      </c>
+      <c r="D716" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" ht="18">
+      <c r="A717" s="1">
+        <v>716</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C717" s="1">
+        <v>86</v>
+      </c>
+      <c r="D717" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" ht="18">
+      <c r="A718" s="1">
+        <v>717</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C718" s="1">
+        <v>71</v>
+      </c>
+      <c r="D718" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" ht="18">
+      <c r="A719" s="1">
+        <v>718</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C719" s="1">
+        <v>83</v>
+      </c>
+      <c r="D719" s="2">
+        <v>44099</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D676">
-    <sortCondition ref="A676"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D719">
+    <sortCondition ref="A713:A719"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/elhunytak.xlsx
+++ b/elhunytak.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrasszesztai/Desktop/coronavirus-hungary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38987A2-773E-4941-9625-CC0C4B743AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF75400-2BC9-2043-ADD6-1C7AECEF2EB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16820" xr2:uid="{0544A352-7DB0-2A45-8CF4-AF47C37FBE51}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="28260" windowHeight="16740" xr2:uid="{0544A352-7DB0-2A45-8CF4-AF47C37FBE51}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="6">
   <si>
     <t>Nő</t>
   </si>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC04843-EAC7-1448-A924-51BE772E7CA9}">
-  <dimension ref="A1:D719"/>
+  <dimension ref="A1:D1353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A1291" zoomScale="101" workbookViewId="0">
+      <selection activeCell="C1305" sqref="C1305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10490,9 +10490,8885 @@
         <v>44099</v>
       </c>
     </row>
+    <row r="720" spans="1:4" ht="18">
+      <c r="A720" s="1">
+        <v>719</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C720" s="1">
+        <v>88</v>
+      </c>
+      <c r="D720" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" ht="18">
+      <c r="A721" s="1">
+        <v>720</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C721" s="1">
+        <v>47</v>
+      </c>
+      <c r="D721" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" ht="18">
+      <c r="A722" s="1">
+        <v>721</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C722" s="1">
+        <v>52</v>
+      </c>
+      <c r="D722" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" ht="18">
+      <c r="A723" s="1">
+        <v>722</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C723" s="1">
+        <v>64</v>
+      </c>
+      <c r="D723" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" ht="18">
+      <c r="A724" s="1">
+        <v>723</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C724" s="1">
+        <v>74</v>
+      </c>
+      <c r="D724" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" ht="18">
+      <c r="A725" s="1">
+        <v>724</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C725" s="1">
+        <v>82</v>
+      </c>
+      <c r="D725" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" ht="18">
+      <c r="A726" s="1">
+        <v>725</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C726" s="1">
+        <v>78</v>
+      </c>
+      <c r="D726" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" ht="18">
+      <c r="A727" s="1">
+        <v>726</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C727" s="1">
+        <v>67</v>
+      </c>
+      <c r="D727" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" ht="18">
+      <c r="A728" s="1">
+        <v>727</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C728" s="1">
+        <v>84</v>
+      </c>
+      <c r="D728" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" ht="18">
+      <c r="A729" s="1">
+        <v>728</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C729" s="1">
+        <v>75</v>
+      </c>
+      <c r="D729" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" ht="18">
+      <c r="A730" s="1">
+        <v>729</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C730" s="1">
+        <v>83</v>
+      </c>
+      <c r="D730" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" ht="18">
+      <c r="A731" s="1">
+        <v>730</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C731" s="1">
+        <v>82</v>
+      </c>
+      <c r="D731" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" ht="18">
+      <c r="A732" s="1">
+        <v>731</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C732" s="1">
+        <v>30</v>
+      </c>
+      <c r="D732" s="2">
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" ht="18">
+      <c r="A733" s="1">
+        <v>732</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C733" s="1">
+        <v>70</v>
+      </c>
+      <c r="D733" s="2">
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" ht="18">
+      <c r="A734" s="1">
+        <v>733</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C734" s="1">
+        <v>88</v>
+      </c>
+      <c r="D734" s="2">
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" ht="18">
+      <c r="A735" s="1">
+        <v>734</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C735" s="1">
+        <v>92</v>
+      </c>
+      <c r="D735" s="2">
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" ht="18">
+      <c r="A736" s="1">
+        <v>735</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C736" s="1">
+        <v>80</v>
+      </c>
+      <c r="D736" s="2">
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" ht="18">
+      <c r="A737" s="1">
+        <v>736</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C737" s="1">
+        <v>75</v>
+      </c>
+      <c r="D737" s="2">
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" ht="18">
+      <c r="A738" s="1">
+        <v>737</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C738" s="1">
+        <v>79</v>
+      </c>
+      <c r="D738" s="2">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" ht="18">
+      <c r="A739" s="1">
+        <v>738</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C739" s="1">
+        <v>54</v>
+      </c>
+      <c r="D739" s="2">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" ht="18">
+      <c r="A740" s="1">
+        <v>739</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C740" s="1">
+        <v>76</v>
+      </c>
+      <c r="D740" s="2">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" ht="18">
+      <c r="A741" s="1">
+        <v>740</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C741" s="1">
+        <v>80</v>
+      </c>
+      <c r="D741" s="2">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" ht="18">
+      <c r="A742" s="1">
+        <v>741</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C742" s="1">
+        <v>77</v>
+      </c>
+      <c r="D742" s="2">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" ht="18">
+      <c r="A743" s="1">
+        <v>742</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C743" s="1">
+        <v>82</v>
+      </c>
+      <c r="D743" s="2">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" ht="18">
+      <c r="A744" s="1">
+        <v>743</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C744" s="1">
+        <v>78</v>
+      </c>
+      <c r="D744" s="2">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" ht="18">
+      <c r="A745" s="1">
+        <v>744</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C745" s="1">
+        <v>66</v>
+      </c>
+      <c r="D745" s="2">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" ht="18">
+      <c r="A746" s="1">
+        <v>745</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C746" s="1">
+        <v>87</v>
+      </c>
+      <c r="D746" s="2">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" ht="18">
+      <c r="A747" s="1">
+        <v>746</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C747" s="1">
+        <v>82</v>
+      </c>
+      <c r="D747" s="2">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" ht="18">
+      <c r="A748" s="1">
+        <v>747</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C748" s="1">
+        <v>78</v>
+      </c>
+      <c r="D748" s="2">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" ht="18">
+      <c r="A749" s="1">
+        <v>748</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C749" s="1">
+        <v>65</v>
+      </c>
+      <c r="D749" s="2">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" ht="18">
+      <c r="A750" s="1">
+        <v>749</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C750" s="1">
+        <v>89</v>
+      </c>
+      <c r="D750" s="2">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" ht="18">
+      <c r="A751" s="1">
+        <v>750</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C751" s="1">
+        <v>65</v>
+      </c>
+      <c r="D751" s="2">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" ht="18">
+      <c r="A752" s="1">
+        <v>751</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C752" s="1">
+        <v>68</v>
+      </c>
+      <c r="D752" s="2">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" ht="18">
+      <c r="A753" s="1">
+        <v>752</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C753" s="1">
+        <v>66</v>
+      </c>
+      <c r="D753" s="2">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" ht="18">
+      <c r="A754" s="1">
+        <v>753</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C754" s="1">
+        <v>60</v>
+      </c>
+      <c r="D754" s="2">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" ht="18">
+      <c r="A755" s="1">
+        <v>754</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C755" s="1">
+        <v>69</v>
+      </c>
+      <c r="D755" s="2">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" ht="18">
+      <c r="A756" s="1">
+        <v>755</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C756" s="1">
+        <v>84</v>
+      </c>
+      <c r="D756" s="2">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" ht="18">
+      <c r="A757" s="1">
+        <v>756</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C757" s="1">
+        <v>75</v>
+      </c>
+      <c r="D757" s="2">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" ht="18">
+      <c r="A758" s="1">
+        <v>757</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C758" s="1">
+        <v>92</v>
+      </c>
+      <c r="D758" s="2">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" ht="18">
+      <c r="A759" s="1">
+        <v>758</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C759" s="1">
+        <v>61</v>
+      </c>
+      <c r="D759" s="2">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" ht="18">
+      <c r="A760" s="1">
+        <v>759</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C760" s="1">
+        <v>76</v>
+      </c>
+      <c r="D760" s="2">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" ht="18">
+      <c r="A761" s="1">
+        <v>760</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C761" s="1">
+        <v>78</v>
+      </c>
+      <c r="D761" s="2">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" ht="18">
+      <c r="A762" s="1">
+        <v>761</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C762" s="1">
+        <v>74</v>
+      </c>
+      <c r="D762" s="2">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" ht="18">
+      <c r="A763" s="1">
+        <v>762</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C763" s="1">
+        <v>55</v>
+      </c>
+      <c r="D763" s="2">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" ht="18">
+      <c r="A764" s="1">
+        <v>763</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C764" s="1">
+        <v>54</v>
+      </c>
+      <c r="D764" s="2">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" ht="18">
+      <c r="A765" s="1">
+        <v>764</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C765" s="1">
+        <v>73</v>
+      </c>
+      <c r="D765" s="2">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" ht="18">
+      <c r="A766" s="1">
+        <v>765</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C766" s="1">
+        <v>73</v>
+      </c>
+      <c r="D766" s="2">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" ht="18">
+      <c r="A767" s="1">
+        <v>766</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C767" s="1">
+        <v>44</v>
+      </c>
+      <c r="D767" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" ht="18">
+      <c r="A768" s="1">
+        <v>767</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C768" s="1">
+        <v>76</v>
+      </c>
+      <c r="D768" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" ht="18">
+      <c r="A769" s="1">
+        <v>768</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C769" s="1">
+        <v>72</v>
+      </c>
+      <c r="D769" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" ht="18">
+      <c r="A770" s="1">
+        <v>769</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C770" s="1">
+        <v>80</v>
+      </c>
+      <c r="D770" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" ht="18">
+      <c r="A771" s="1">
+        <v>770</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C771" s="1">
+        <v>48</v>
+      </c>
+      <c r="D771" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" ht="18">
+      <c r="A772" s="1">
+        <v>771</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C772" s="1">
+        <v>67</v>
+      </c>
+      <c r="D772" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" ht="18">
+      <c r="A773" s="1">
+        <v>772</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C773" s="1">
+        <v>66</v>
+      </c>
+      <c r="D773" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" ht="18">
+      <c r="A774" s="1">
+        <v>773</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C774" s="1">
+        <v>78</v>
+      </c>
+      <c r="D774" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" ht="18">
+      <c r="A775" s="1">
+        <v>774</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C775" s="1">
+        <v>71</v>
+      </c>
+      <c r="D775" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" ht="18">
+      <c r="A776" s="1">
+        <v>775</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C776" s="1">
+        <v>70</v>
+      </c>
+      <c r="D776" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" ht="18">
+      <c r="A777" s="1">
+        <v>776</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C777" s="1">
+        <v>68</v>
+      </c>
+      <c r="D777" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" ht="18">
+      <c r="A778" s="1">
+        <v>777</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C778" s="1">
+        <v>74</v>
+      </c>
+      <c r="D778" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" ht="18">
+      <c r="A779" s="1">
+        <v>778</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C779" s="1">
+        <v>62</v>
+      </c>
+      <c r="D779" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" ht="18">
+      <c r="A780" s="1">
+        <v>779</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C780" s="1">
+        <v>73</v>
+      </c>
+      <c r="D780" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" ht="18">
+      <c r="A781" s="1">
+        <v>780</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C781" s="1">
+        <v>83</v>
+      </c>
+      <c r="D781" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" ht="18">
+      <c r="A782" s="1">
+        <v>781</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C782" s="1">
+        <v>78</v>
+      </c>
+      <c r="D782" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" ht="18">
+      <c r="A783" s="1">
+        <v>782</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C783" s="1">
+        <v>57</v>
+      </c>
+      <c r="D783" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" ht="18">
+      <c r="A784" s="1">
+        <v>783</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C784" s="1">
+        <v>61</v>
+      </c>
+      <c r="D784" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" ht="18">
+      <c r="A785" s="1">
+        <v>784</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C785" s="1">
+        <v>74</v>
+      </c>
+      <c r="D785" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" ht="18">
+      <c r="A786" s="1">
+        <v>785</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C786" s="1">
+        <v>86</v>
+      </c>
+      <c r="D786" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" ht="18">
+      <c r="A787" s="1">
+        <v>786</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C787" s="1">
+        <v>82</v>
+      </c>
+      <c r="D787" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" ht="18">
+      <c r="A788" s="1">
+        <v>787</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C788" s="1">
+        <v>67</v>
+      </c>
+      <c r="D788" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" ht="18">
+      <c r="A789" s="1">
+        <v>788</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C789" s="1">
+        <v>78</v>
+      </c>
+      <c r="D789" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" ht="18">
+      <c r="A790" s="1">
+        <v>789</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C790" s="1">
+        <v>72</v>
+      </c>
+      <c r="D790" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" ht="18">
+      <c r="A791" s="1">
+        <v>790</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C791" s="1">
+        <v>95</v>
+      </c>
+      <c r="D791" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" ht="18">
+      <c r="A792" s="1">
+        <v>791</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C792" s="1">
+        <v>94</v>
+      </c>
+      <c r="D792" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" ht="18">
+      <c r="A793" s="1">
+        <v>792</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C793" s="1">
+        <v>83</v>
+      </c>
+      <c r="D793" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" ht="18">
+      <c r="A794" s="1">
+        <v>793</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C794" s="1">
+        <v>79</v>
+      </c>
+      <c r="D794" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" ht="18">
+      <c r="A795" s="1">
+        <v>794</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C795" s="1">
+        <v>80</v>
+      </c>
+      <c r="D795" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" ht="18">
+      <c r="A796" s="1">
+        <v>795</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C796" s="1">
+        <v>76</v>
+      </c>
+      <c r="D796" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" ht="18">
+      <c r="A797" s="1">
+        <v>796</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C797" s="1">
+        <v>96</v>
+      </c>
+      <c r="D797" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" ht="18">
+      <c r="A798" s="1">
+        <v>797</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C798" s="1">
+        <v>80</v>
+      </c>
+      <c r="D798" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" ht="18">
+      <c r="A799" s="1">
+        <v>798</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C799" s="1">
+        <v>72</v>
+      </c>
+      <c r="D799" s="2">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" ht="18">
+      <c r="A800" s="1">
+        <v>799</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C800" s="1">
+        <v>83</v>
+      </c>
+      <c r="D800" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" ht="18">
+      <c r="A801" s="1">
+        <v>800</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C801" s="1">
+        <v>76</v>
+      </c>
+      <c r="D801" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" ht="18">
+      <c r="A802" s="1">
+        <v>801</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C802" s="1">
+        <v>85</v>
+      </c>
+      <c r="D802" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" ht="18">
+      <c r="A803" s="1">
+        <v>802</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C803" s="1">
+        <v>73</v>
+      </c>
+      <c r="D803" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" ht="18">
+      <c r="A804" s="1">
+        <v>803</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C804" s="1">
+        <v>55</v>
+      </c>
+      <c r="D804" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" ht="18">
+      <c r="A805" s="1">
+        <v>804</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C805" s="1">
+        <v>68</v>
+      </c>
+      <c r="D805" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" ht="18">
+      <c r="A806" s="1">
+        <v>805</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C806" s="1">
+        <v>72</v>
+      </c>
+      <c r="D806" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" ht="18">
+      <c r="A807" s="1">
+        <v>806</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C807" s="1">
+        <v>72</v>
+      </c>
+      <c r="D807" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" ht="18">
+      <c r="A808" s="1">
+        <v>807</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C808" s="1">
+        <v>56</v>
+      </c>
+      <c r="D808" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" ht="18">
+      <c r="A809" s="1">
+        <v>808</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C809" s="1">
+        <v>76</v>
+      </c>
+      <c r="D809" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" ht="18">
+      <c r="A810" s="1">
+        <v>809</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C810" s="1">
+        <v>65</v>
+      </c>
+      <c r="D810" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" ht="18">
+      <c r="A811" s="1">
+        <v>810</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C811" s="1">
+        <v>61</v>
+      </c>
+      <c r="D811" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" ht="18">
+      <c r="A812" s="1">
+        <v>811</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C812" s="1">
+        <v>67</v>
+      </c>
+      <c r="D812" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" ht="18">
+      <c r="A813" s="1">
+        <v>812</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C813" s="1">
+        <v>94</v>
+      </c>
+      <c r="D813" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" ht="18">
+      <c r="A814" s="1">
+        <v>813</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C814" s="1">
+        <v>80</v>
+      </c>
+      <c r="D814" s="2">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" ht="18">
+      <c r="A815" s="1">
+        <v>814</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C815" s="1">
+        <v>78</v>
+      </c>
+      <c r="D815" s="2">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" ht="18">
+      <c r="A816" s="1">
+        <v>815</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C816" s="1">
+        <v>78</v>
+      </c>
+      <c r="D816" s="2">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" ht="18">
+      <c r="A817" s="1">
+        <v>816</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C817" s="1">
+        <v>80</v>
+      </c>
+      <c r="D817" s="2">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" ht="18">
+      <c r="A818" s="1">
+        <v>817</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C818" s="1">
+        <v>70</v>
+      </c>
+      <c r="D818" s="2">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" ht="18">
+      <c r="A819" s="1">
+        <v>818</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C819" s="1">
+        <v>75</v>
+      </c>
+      <c r="D819" s="2">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" ht="18">
+      <c r="A820" s="1">
+        <v>819</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C820" s="1">
+        <v>79</v>
+      </c>
+      <c r="D820" s="2">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" ht="18">
+      <c r="A821" s="1">
+        <v>820</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C821" s="1">
+        <v>68</v>
+      </c>
+      <c r="D821" s="2">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" ht="18">
+      <c r="A822" s="1">
+        <v>821</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C822" s="1">
+        <v>80</v>
+      </c>
+      <c r="D822" s="2">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" ht="18">
+      <c r="A823" s="1">
+        <v>822</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C823" s="1">
+        <v>80</v>
+      </c>
+      <c r="D823" s="2">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" ht="18">
+      <c r="A824" s="1">
+        <v>823</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C824" s="1">
+        <v>72</v>
+      </c>
+      <c r="D824" s="2">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" ht="18">
+      <c r="A825" s="1">
+        <v>824</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C825" s="1">
+        <v>77</v>
+      </c>
+      <c r="D825" s="2">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" ht="18">
+      <c r="A826" s="1">
+        <v>825</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C826" s="1">
+        <v>81</v>
+      </c>
+      <c r="D826" s="2">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" ht="18">
+      <c r="A827" s="1">
+        <v>826</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C827" s="1">
+        <v>77</v>
+      </c>
+      <c r="D827" s="2">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" ht="18">
+      <c r="A828" s="1">
+        <v>827</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C828" s="1">
+        <v>68</v>
+      </c>
+      <c r="D828" s="2">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" ht="18">
+      <c r="A829" s="1">
+        <v>828</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C829" s="1">
+        <v>74</v>
+      </c>
+      <c r="D829" s="2">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" ht="18">
+      <c r="A830" s="1">
+        <v>829</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C830" s="1">
+        <v>83</v>
+      </c>
+      <c r="D830" s="2">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" ht="18">
+      <c r="A831" s="1">
+        <v>830</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C831" s="1">
+        <v>75</v>
+      </c>
+      <c r="D831" s="2">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" ht="18">
+      <c r="A832" s="1">
+        <v>831</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C832" s="1">
+        <v>77</v>
+      </c>
+      <c r="D832" s="2">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" ht="18">
+      <c r="A833" s="1">
+        <v>832</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C833" s="1">
+        <v>72</v>
+      </c>
+      <c r="D833" s="2">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" ht="18">
+      <c r="A834" s="1">
+        <v>833</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C834" s="1">
+        <v>81</v>
+      </c>
+      <c r="D834" s="2">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" ht="18">
+      <c r="A835" s="1">
+        <v>834</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C835" s="1">
+        <v>89</v>
+      </c>
+      <c r="D835" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" ht="18">
+      <c r="A836" s="1">
+        <v>835</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C836" s="1">
+        <v>88</v>
+      </c>
+      <c r="D836" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" ht="18">
+      <c r="A837" s="1">
+        <v>836</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C837" s="1">
+        <v>66</v>
+      </c>
+      <c r="D837" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" ht="18">
+      <c r="A838" s="1">
+        <v>837</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C838" s="1">
+        <v>67</v>
+      </c>
+      <c r="D838" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" ht="18">
+      <c r="A839" s="1">
+        <v>838</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C839" s="1">
+        <v>81</v>
+      </c>
+      <c r="D839" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" ht="18">
+      <c r="A840" s="1">
+        <v>839</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C840" s="1">
+        <v>77</v>
+      </c>
+      <c r="D840" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" ht="18">
+      <c r="A841" s="1">
+        <v>840</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C841" s="1">
+        <v>44</v>
+      </c>
+      <c r="D841" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" ht="18">
+      <c r="A842" s="1">
+        <v>841</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C842" s="1">
+        <v>87</v>
+      </c>
+      <c r="D842" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" ht="18">
+      <c r="A843" s="1">
+        <v>842</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C843" s="1">
+        <v>68</v>
+      </c>
+      <c r="D843" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" ht="18">
+      <c r="A844" s="1">
+        <v>843</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C844" s="1">
+        <v>92</v>
+      </c>
+      <c r="D844" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" ht="18">
+      <c r="A845" s="1">
+        <v>844</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C845" s="1">
+        <v>81</v>
+      </c>
+      <c r="D845" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" ht="18">
+      <c r="A846" s="1">
+        <v>845</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C846" s="1">
+        <v>62</v>
+      </c>
+      <c r="D846" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" ht="18">
+      <c r="A847" s="1">
+        <v>846</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C847" s="1">
+        <v>87</v>
+      </c>
+      <c r="D847" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" ht="18">
+      <c r="A848" s="1">
+        <v>847</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C848" s="1">
+        <v>80</v>
+      </c>
+      <c r="D848" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" ht="18">
+      <c r="A849" s="1">
+        <v>848</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C849" s="1">
+        <v>53</v>
+      </c>
+      <c r="D849" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" ht="18">
+      <c r="A850" s="1">
+        <v>849</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C850" s="1">
+        <v>65</v>
+      </c>
+      <c r="D850" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" ht="18">
+      <c r="A851" s="1">
+        <v>850</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C851" s="1">
+        <v>79</v>
+      </c>
+      <c r="D851" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" ht="18">
+      <c r="A852" s="1">
+        <v>851</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C852" s="1">
+        <v>80</v>
+      </c>
+      <c r="D852" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" ht="18">
+      <c r="A853" s="1">
+        <v>852</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C853" s="1">
+        <v>79</v>
+      </c>
+      <c r="D853" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" ht="18">
+      <c r="A854" s="1">
+        <v>853</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C854" s="1">
+        <v>83</v>
+      </c>
+      <c r="D854" s="2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" ht="18">
+      <c r="A855" s="1">
+        <v>854</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C855" s="1">
+        <v>75</v>
+      </c>
+      <c r="D855" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" ht="18">
+      <c r="A856" s="1">
+        <v>855</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C856" s="1">
+        <v>80</v>
+      </c>
+      <c r="D856" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" ht="18">
+      <c r="A857" s="1">
+        <v>856</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C857" s="1">
+        <v>89</v>
+      </c>
+      <c r="D857" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" ht="18">
+      <c r="A858" s="1">
+        <v>857</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C858" s="1">
+        <v>56</v>
+      </c>
+      <c r="D858" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" ht="18">
+      <c r="A859" s="1">
+        <v>858</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C859" s="1">
+        <v>52</v>
+      </c>
+      <c r="D859" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" ht="18">
+      <c r="A860" s="1">
+        <v>859</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C860" s="1">
+        <v>81</v>
+      </c>
+      <c r="D860" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" ht="18">
+      <c r="A861" s="1">
+        <v>860</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C861" s="1">
+        <v>82</v>
+      </c>
+      <c r="D861" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" ht="18">
+      <c r="A862" s="1">
+        <v>861</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C862" s="1">
+        <v>73</v>
+      </c>
+      <c r="D862" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" ht="18">
+      <c r="A863" s="1">
+        <v>862</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C863" s="1">
+        <v>59</v>
+      </c>
+      <c r="D863" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" ht="18">
+      <c r="A864" s="1">
+        <v>863</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C864" s="1">
+        <v>59</v>
+      </c>
+      <c r="D864" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" ht="18">
+      <c r="A865" s="1">
+        <v>864</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C865" s="1">
+        <v>76</v>
+      </c>
+      <c r="D865" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" ht="18">
+      <c r="A866" s="1">
+        <v>865</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C866" s="1">
+        <v>81</v>
+      </c>
+      <c r="D866" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" ht="18">
+      <c r="A867" s="1">
+        <v>866</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C867" s="1">
+        <v>83</v>
+      </c>
+      <c r="D867" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" ht="18">
+      <c r="A868" s="1">
+        <v>867</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C868" s="1">
+        <v>80</v>
+      </c>
+      <c r="D868" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" ht="18">
+      <c r="A869" s="1">
+        <v>868</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C869" s="1">
+        <v>78</v>
+      </c>
+      <c r="D869" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" ht="18">
+      <c r="A870" s="1">
+        <v>869</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C870" s="1">
+        <v>73</v>
+      </c>
+      <c r="D870" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" ht="18">
+      <c r="A871" s="1">
+        <v>870</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C871" s="1">
+        <v>79</v>
+      </c>
+      <c r="D871" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" ht="18">
+      <c r="A872" s="1">
+        <v>871</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C872" s="1">
+        <v>73</v>
+      </c>
+      <c r="D872" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" ht="18">
+      <c r="A873" s="1">
+        <v>872</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C873" s="1">
+        <v>62</v>
+      </c>
+      <c r="D873" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" ht="18">
+      <c r="A874" s="1">
+        <v>873</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C874" s="1">
+        <v>72</v>
+      </c>
+      <c r="D874" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" ht="18">
+      <c r="A875" s="1">
+        <v>874</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C875" s="1">
+        <v>21</v>
+      </c>
+      <c r="D875" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" ht="18">
+      <c r="A876" s="1">
+        <v>875</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C876" s="1">
+        <v>80</v>
+      </c>
+      <c r="D876" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" ht="18">
+      <c r="A877" s="1">
+        <v>876</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C877" s="1">
+        <v>69</v>
+      </c>
+      <c r="D877" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" ht="18">
+      <c r="A878" s="1">
+        <v>877</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C878" s="1">
+        <v>79</v>
+      </c>
+      <c r="D878" s="2">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" ht="18">
+      <c r="A879" s="1">
+        <v>878</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C879" s="1">
+        <v>73</v>
+      </c>
+      <c r="D879" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" ht="18">
+      <c r="A880" s="1">
+        <v>879</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C880" s="1">
+        <v>77</v>
+      </c>
+      <c r="D880" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" ht="18">
+      <c r="A881" s="1">
+        <v>880</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C881" s="1">
+        <v>81</v>
+      </c>
+      <c r="D881" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" ht="18">
+      <c r="A882" s="1">
+        <v>881</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C882" s="1">
+        <v>79</v>
+      </c>
+      <c r="D882" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" ht="18">
+      <c r="A883" s="1">
+        <v>882</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C883" s="1">
+        <v>73</v>
+      </c>
+      <c r="D883" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" ht="18">
+      <c r="A884" s="1">
+        <v>883</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C884" s="1">
+        <v>54</v>
+      </c>
+      <c r="D884" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" ht="18">
+      <c r="A885" s="1">
+        <v>884</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C885" s="1">
+        <v>88</v>
+      </c>
+      <c r="D885" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" ht="18">
+      <c r="A886" s="1">
+        <v>885</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C886" s="1">
+        <v>76</v>
+      </c>
+      <c r="D886" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" ht="18">
+      <c r="A887" s="1">
+        <v>886</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C887" s="1">
+        <v>77</v>
+      </c>
+      <c r="D887" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" ht="18">
+      <c r="A888" s="1">
+        <v>887</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C888" s="1">
+        <v>78</v>
+      </c>
+      <c r="D888" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" ht="18">
+      <c r="A889" s="1">
+        <v>888</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C889" s="1">
+        <v>93</v>
+      </c>
+      <c r="D889" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" ht="18">
+      <c r="A890" s="1">
+        <v>889</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C890" s="1">
+        <v>92</v>
+      </c>
+      <c r="D890" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" ht="18">
+      <c r="A891" s="1">
+        <v>890</v>
+      </c>
+      <c r="B891" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C891" s="1">
+        <v>86</v>
+      </c>
+      <c r="D891" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" ht="18">
+      <c r="A892" s="1">
+        <v>891</v>
+      </c>
+      <c r="B892" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C892" s="1">
+        <v>65</v>
+      </c>
+      <c r="D892" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" ht="18">
+      <c r="A893" s="1">
+        <v>892</v>
+      </c>
+      <c r="B893" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C893" s="1">
+        <v>63</v>
+      </c>
+      <c r="D893" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" ht="18">
+      <c r="A894" s="1">
+        <v>893</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C894" s="1">
+        <v>77</v>
+      </c>
+      <c r="D894" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" ht="18">
+      <c r="A895" s="1">
+        <v>894</v>
+      </c>
+      <c r="B895" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C895" s="1">
+        <v>37</v>
+      </c>
+      <c r="D895" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" ht="18">
+      <c r="A896" s="1">
+        <v>895</v>
+      </c>
+      <c r="B896" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C896" s="1">
+        <v>64</v>
+      </c>
+      <c r="D896" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" ht="18">
+      <c r="A897" s="1">
+        <v>896</v>
+      </c>
+      <c r="B897" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C897" s="1">
+        <v>46</v>
+      </c>
+      <c r="D897" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" ht="18">
+      <c r="A898" s="1">
+        <v>897</v>
+      </c>
+      <c r="B898" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C898" s="1">
+        <v>74</v>
+      </c>
+      <c r="D898" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" ht="18">
+      <c r="A899" s="1">
+        <v>898</v>
+      </c>
+      <c r="B899" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C899" s="1">
+        <v>72</v>
+      </c>
+      <c r="D899" s="2">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" ht="18">
+      <c r="A900" s="1">
+        <v>899</v>
+      </c>
+      <c r="B900" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C900" s="1">
+        <v>87</v>
+      </c>
+      <c r="D900" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" ht="18">
+      <c r="A901" s="1">
+        <v>900</v>
+      </c>
+      <c r="B901" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C901" s="1">
+        <v>66</v>
+      </c>
+      <c r="D901" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" ht="18">
+      <c r="A902" s="1">
+        <v>901</v>
+      </c>
+      <c r="B902" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C902" s="1">
+        <v>69</v>
+      </c>
+      <c r="D902" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" ht="18">
+      <c r="A903" s="1">
+        <v>902</v>
+      </c>
+      <c r="B903" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C903" s="1">
+        <v>86</v>
+      </c>
+      <c r="D903" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" ht="18">
+      <c r="A904" s="1">
+        <v>903</v>
+      </c>
+      <c r="B904" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C904" s="1">
+        <v>69</v>
+      </c>
+      <c r="D904" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" ht="18">
+      <c r="A905" s="1">
+        <v>904</v>
+      </c>
+      <c r="B905" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C905" s="1">
+        <v>88</v>
+      </c>
+      <c r="D905" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" ht="18">
+      <c r="A906" s="1">
+        <v>905</v>
+      </c>
+      <c r="B906" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C906" s="1">
+        <v>57</v>
+      </c>
+      <c r="D906" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" ht="18">
+      <c r="A907" s="1">
+        <v>906</v>
+      </c>
+      <c r="B907" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C907" s="1">
+        <v>87</v>
+      </c>
+      <c r="D907" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" ht="18">
+      <c r="A908" s="1">
+        <v>907</v>
+      </c>
+      <c r="B908" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C908" s="1">
+        <v>84</v>
+      </c>
+      <c r="D908" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" ht="18">
+      <c r="A909" s="1">
+        <v>908</v>
+      </c>
+      <c r="B909" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C909" s="1">
+        <v>39</v>
+      </c>
+      <c r="D909" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" ht="18">
+      <c r="A910" s="1">
+        <v>909</v>
+      </c>
+      <c r="B910" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C910" s="1">
+        <v>92</v>
+      </c>
+      <c r="D910" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" ht="18">
+      <c r="A911" s="1">
+        <v>910</v>
+      </c>
+      <c r="B911" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C911" s="1">
+        <v>91</v>
+      </c>
+      <c r="D911" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" ht="18">
+      <c r="A912" s="1">
+        <v>911</v>
+      </c>
+      <c r="B912" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C912" s="1">
+        <v>86</v>
+      </c>
+      <c r="D912" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" ht="18">
+      <c r="A913" s="1">
+        <v>912</v>
+      </c>
+      <c r="B913" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C913" s="1">
+        <v>68</v>
+      </c>
+      <c r="D913" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" ht="18">
+      <c r="A914" s="1">
+        <v>913</v>
+      </c>
+      <c r="B914" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C914" s="1">
+        <v>92</v>
+      </c>
+      <c r="D914" s="2">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" ht="18">
+      <c r="A915" s="1">
+        <v>914</v>
+      </c>
+      <c r="B915" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C915" s="1">
+        <v>75</v>
+      </c>
+      <c r="D915" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" ht="18">
+      <c r="A916" s="1">
+        <v>915</v>
+      </c>
+      <c r="B916" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C916" s="1">
+        <v>62</v>
+      </c>
+      <c r="D916" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" ht="18">
+      <c r="A917" s="1">
+        <v>916</v>
+      </c>
+      <c r="B917" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C917" s="1">
+        <v>77</v>
+      </c>
+      <c r="D917" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" ht="18">
+      <c r="A918" s="1">
+        <v>917</v>
+      </c>
+      <c r="B918" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C918" s="1">
+        <v>82</v>
+      </c>
+      <c r="D918" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" ht="18">
+      <c r="A919" s="1">
+        <v>918</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C919" s="1">
+        <v>74</v>
+      </c>
+      <c r="D919" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" ht="18">
+      <c r="A920" s="1">
+        <v>919</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C920" s="1">
+        <v>83</v>
+      </c>
+      <c r="D920" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" ht="18">
+      <c r="A921" s="1">
+        <v>920</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C921" s="1">
+        <v>76</v>
+      </c>
+      <c r="D921" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" ht="18">
+      <c r="A922" s="1">
+        <v>921</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C922" s="1">
+        <v>76</v>
+      </c>
+      <c r="D922" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" ht="18">
+      <c r="A923" s="1">
+        <v>922</v>
+      </c>
+      <c r="B923" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C923" s="1">
+        <v>66</v>
+      </c>
+      <c r="D923" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" ht="18">
+      <c r="A924" s="1">
+        <v>923</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C924" s="1">
+        <v>78</v>
+      </c>
+      <c r="D924" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" ht="18">
+      <c r="A925" s="1">
+        <v>924</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C925" s="1">
+        <v>62</v>
+      </c>
+      <c r="D925" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" ht="18">
+      <c r="A926" s="1">
+        <v>925</v>
+      </c>
+      <c r="B926" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C926" s="1">
+        <v>78</v>
+      </c>
+      <c r="D926" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" ht="18">
+      <c r="A927" s="1">
+        <v>926</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C927" s="1">
+        <v>72</v>
+      </c>
+      <c r="D927" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" ht="18">
+      <c r="A928" s="1">
+        <v>927</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C928" s="1">
+        <v>79</v>
+      </c>
+      <c r="D928" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" ht="18">
+      <c r="A929" s="1">
+        <v>928</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C929" s="1">
+        <v>78</v>
+      </c>
+      <c r="D929" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" ht="18">
+      <c r="A930" s="1">
+        <v>929</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C930" s="1">
+        <v>88</v>
+      </c>
+      <c r="D930" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" ht="18">
+      <c r="A931" s="1">
+        <v>930</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C931" s="1">
+        <v>80</v>
+      </c>
+      <c r="D931" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" ht="18">
+      <c r="A932" s="1">
+        <v>931</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C932" s="1">
+        <v>80</v>
+      </c>
+      <c r="D932" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" ht="18">
+      <c r="A933" s="1">
+        <v>932</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C933" s="1">
+        <v>87</v>
+      </c>
+      <c r="D933" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" ht="18">
+      <c r="A934" s="1">
+        <v>933</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C934" s="1">
+        <v>78</v>
+      </c>
+      <c r="D934" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" ht="18">
+      <c r="A935" s="1">
+        <v>934</v>
+      </c>
+      <c r="B935" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C935" s="1">
+        <v>81</v>
+      </c>
+      <c r="D935" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" ht="18">
+      <c r="A936" s="1">
+        <v>935</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C936" s="1">
+        <v>84</v>
+      </c>
+      <c r="D936" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" ht="18">
+      <c r="A937" s="1">
+        <v>936</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C937" s="1">
+        <v>94</v>
+      </c>
+      <c r="D937" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" ht="18">
+      <c r="A938" s="1">
+        <v>937</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C938" s="1">
+        <v>90</v>
+      </c>
+      <c r="D938" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" ht="18">
+      <c r="A939" s="1">
+        <v>938</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C939" s="1">
+        <v>76</v>
+      </c>
+      <c r="D939" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" ht="18">
+      <c r="A940" s="1">
+        <v>939</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C940" s="1">
+        <v>94</v>
+      </c>
+      <c r="D940" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" ht="18">
+      <c r="A941" s="1">
+        <v>940</v>
+      </c>
+      <c r="B941" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C941" s="1">
+        <v>63</v>
+      </c>
+      <c r="D941" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" ht="18">
+      <c r="A942" s="1">
+        <v>941</v>
+      </c>
+      <c r="B942" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C942" s="1">
+        <v>43</v>
+      </c>
+      <c r="D942" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" ht="18">
+      <c r="A943" s="1">
+        <v>942</v>
+      </c>
+      <c r="B943" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C943" s="1">
+        <v>84</v>
+      </c>
+      <c r="D943" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" ht="18">
+      <c r="A944" s="1">
+        <v>943</v>
+      </c>
+      <c r="B944" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C944" s="1">
+        <v>70</v>
+      </c>
+      <c r="D944" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" ht="18">
+      <c r="A945" s="1">
+        <v>944</v>
+      </c>
+      <c r="B945" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C945" s="1">
+        <v>87</v>
+      </c>
+      <c r="D945" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" ht="18">
+      <c r="A946" s="1">
+        <v>945</v>
+      </c>
+      <c r="B946" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C946" s="1">
+        <v>85</v>
+      </c>
+      <c r="D946" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" ht="18">
+      <c r="A947" s="1">
+        <v>946</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C947" s="1">
+        <v>85</v>
+      </c>
+      <c r="D947" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" ht="18">
+      <c r="A948" s="1">
+        <v>947</v>
+      </c>
+      <c r="B948" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C948" s="1">
+        <v>96</v>
+      </c>
+      <c r="D948" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" ht="18">
+      <c r="A949" s="1">
+        <v>948</v>
+      </c>
+      <c r="B949" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C949" s="1">
+        <v>68</v>
+      </c>
+      <c r="D949" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" ht="18">
+      <c r="A950" s="1">
+        <v>949</v>
+      </c>
+      <c r="B950" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C950" s="1">
+        <v>76</v>
+      </c>
+      <c r="D950" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" ht="18">
+      <c r="A951" s="1">
+        <v>950</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C951" s="1">
+        <v>69</v>
+      </c>
+      <c r="D951" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" ht="18">
+      <c r="A952" s="1">
+        <v>951</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C952" s="1">
+        <v>82</v>
+      </c>
+      <c r="D952" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" ht="18">
+      <c r="A953" s="1">
+        <v>952</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C953" s="1">
+        <v>71</v>
+      </c>
+      <c r="D953" s="2">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" ht="18">
+      <c r="A954" s="1">
+        <v>953</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C954" s="1">
+        <v>83</v>
+      </c>
+      <c r="D954" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" ht="18">
+      <c r="A955" s="1">
+        <v>954</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C955" s="1">
+        <v>78</v>
+      </c>
+      <c r="D955" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" ht="18">
+      <c r="A956" s="1">
+        <v>955</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C956" s="1">
+        <v>69</v>
+      </c>
+      <c r="D956" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" ht="18">
+      <c r="A957" s="1">
+        <v>956</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C957" s="1">
+        <v>55</v>
+      </c>
+      <c r="D957" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" ht="18">
+      <c r="A958" s="1">
+        <v>957</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C958" s="1">
+        <v>75</v>
+      </c>
+      <c r="D958" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" ht="18">
+      <c r="A959" s="1">
+        <v>958</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C959" s="1">
+        <v>72</v>
+      </c>
+      <c r="D959" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" ht="18">
+      <c r="A960" s="1">
+        <v>959</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C960" s="1">
+        <v>76</v>
+      </c>
+      <c r="D960" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" ht="18">
+      <c r="A961" s="1">
+        <v>960</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C961" s="1">
+        <v>77</v>
+      </c>
+      <c r="D961" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" ht="18">
+      <c r="A962" s="1">
+        <v>961</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C962" s="1">
+        <v>63</v>
+      </c>
+      <c r="D962" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" ht="18">
+      <c r="A963" s="1">
+        <v>962</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C963" s="1">
+        <v>61</v>
+      </c>
+      <c r="D963" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" ht="18">
+      <c r="A964" s="1">
+        <v>963</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C964" s="1">
+        <v>69</v>
+      </c>
+      <c r="D964" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" ht="18">
+      <c r="A965" s="1">
+        <v>964</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C965" s="1">
+        <v>78</v>
+      </c>
+      <c r="D965" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" ht="18">
+      <c r="A966" s="1">
+        <v>965</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C966" s="1">
+        <v>74</v>
+      </c>
+      <c r="D966" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" ht="18">
+      <c r="A967" s="1">
+        <v>966</v>
+      </c>
+      <c r="B967" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C967" s="1">
+        <v>77</v>
+      </c>
+      <c r="D967" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" ht="18">
+      <c r="A968" s="1">
+        <v>967</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C968" s="1">
+        <v>70</v>
+      </c>
+      <c r="D968" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" ht="18">
+      <c r="A969" s="1">
+        <v>968</v>
+      </c>
+      <c r="B969" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C969" s="1">
+        <v>66</v>
+      </c>
+      <c r="D969" s="2">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" ht="18">
+      <c r="A970" s="1">
+        <v>969</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C970" s="1">
+        <v>61</v>
+      </c>
+      <c r="D970" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" ht="18">
+      <c r="A971" s="1">
+        <v>970</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C971" s="1">
+        <v>70</v>
+      </c>
+      <c r="D971" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" ht="18">
+      <c r="A972" s="1">
+        <v>971</v>
+      </c>
+      <c r="B972" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C972" s="1">
+        <v>71</v>
+      </c>
+      <c r="D972" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" ht="18">
+      <c r="A973" s="1">
+        <v>972</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C973" s="1">
+        <v>55</v>
+      </c>
+      <c r="D973" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" ht="18">
+      <c r="A974" s="1">
+        <v>973</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C974" s="1">
+        <v>62</v>
+      </c>
+      <c r="D974" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" ht="18">
+      <c r="A975" s="1">
+        <v>974</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C975" s="1">
+        <v>75</v>
+      </c>
+      <c r="D975" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" ht="18">
+      <c r="A976" s="1">
+        <v>975</v>
+      </c>
+      <c r="B976" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C976" s="1">
+        <v>66</v>
+      </c>
+      <c r="D976" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" ht="18">
+      <c r="A977" s="1">
+        <v>976</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C977" s="1">
+        <v>83</v>
+      </c>
+      <c r="D977" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" ht="18">
+      <c r="A978" s="1">
+        <v>977</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C978" s="1">
+        <v>60</v>
+      </c>
+      <c r="D978" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" ht="18">
+      <c r="A979" s="1">
+        <v>978</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C979" s="1">
+        <v>72</v>
+      </c>
+      <c r="D979" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" ht="18">
+      <c r="A980" s="1">
+        <v>979</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C980" s="1">
+        <v>79</v>
+      </c>
+      <c r="D980" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" ht="18">
+      <c r="A981" s="1">
+        <v>980</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C981" s="1">
+        <v>74</v>
+      </c>
+      <c r="D981" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" ht="18">
+      <c r="A982" s="1">
+        <v>981</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C982" s="1">
+        <v>83</v>
+      </c>
+      <c r="D982" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" ht="18">
+      <c r="A983" s="1">
+        <v>982</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C983" s="1">
+        <v>78</v>
+      </c>
+      <c r="D983" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" ht="18">
+      <c r="A984" s="1">
+        <v>983</v>
+      </c>
+      <c r="B984" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C984" s="1">
+        <v>69</v>
+      </c>
+      <c r="D984" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" ht="18">
+      <c r="A985" s="1">
+        <v>984</v>
+      </c>
+      <c r="B985" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C985" s="1">
+        <v>73</v>
+      </c>
+      <c r="D985" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" ht="18">
+      <c r="A986" s="1">
+        <v>985</v>
+      </c>
+      <c r="B986" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C986" s="1">
+        <v>83</v>
+      </c>
+      <c r="D986" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" ht="18">
+      <c r="A987" s="1">
+        <v>986</v>
+      </c>
+      <c r="B987" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C987" s="1">
+        <v>66</v>
+      </c>
+      <c r="D987" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" ht="18">
+      <c r="A988" s="1">
+        <v>987</v>
+      </c>
+      <c r="B988" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C988" s="1">
+        <v>84</v>
+      </c>
+      <c r="D988" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" ht="18">
+      <c r="A989" s="1">
+        <v>988</v>
+      </c>
+      <c r="B989" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C989" s="1">
+        <v>76</v>
+      </c>
+      <c r="D989" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" ht="18">
+      <c r="A990" s="1">
+        <v>989</v>
+      </c>
+      <c r="B990" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C990" s="1">
+        <v>84</v>
+      </c>
+      <c r="D990" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" ht="18">
+      <c r="A991" s="1">
+        <v>990</v>
+      </c>
+      <c r="B991" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C991" s="1">
+        <v>79</v>
+      </c>
+      <c r="D991" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" ht="18">
+      <c r="A992" s="1">
+        <v>991</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C992" s="1">
+        <v>86</v>
+      </c>
+      <c r="D992" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" ht="18">
+      <c r="A993" s="1">
+        <v>992</v>
+      </c>
+      <c r="B993" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C993" s="1">
+        <v>64</v>
+      </c>
+      <c r="D993" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" ht="18">
+      <c r="A994" s="1">
+        <v>993</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C994" s="1">
+        <v>93</v>
+      </c>
+      <c r="D994" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" ht="18">
+      <c r="A995" s="1">
+        <v>994</v>
+      </c>
+      <c r="B995" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C995" s="1">
+        <v>88</v>
+      </c>
+      <c r="D995" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" ht="18">
+      <c r="A996" s="1">
+        <v>995</v>
+      </c>
+      <c r="B996" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C996" s="1">
+        <v>79</v>
+      </c>
+      <c r="D996" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" ht="18">
+      <c r="A997" s="1">
+        <v>996</v>
+      </c>
+      <c r="B997" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C997" s="1">
+        <v>74</v>
+      </c>
+      <c r="D997" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" ht="18">
+      <c r="A998" s="1">
+        <v>997</v>
+      </c>
+      <c r="B998" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C998" s="1">
+        <v>76</v>
+      </c>
+      <c r="D998" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" ht="18">
+      <c r="A999" s="1">
+        <v>998</v>
+      </c>
+      <c r="B999" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C999" s="1">
+        <v>86</v>
+      </c>
+      <c r="D999" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" ht="18">
+      <c r="A1000" s="1">
+        <v>999</v>
+      </c>
+      <c r="B1000" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1000" s="1">
+        <v>94</v>
+      </c>
+      <c r="D1000" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" ht="18">
+      <c r="A1001" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1001" s="1">
+        <v>66</v>
+      </c>
+      <c r="D1001" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" ht="18">
+      <c r="A1002" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B1002" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1002" s="1">
+        <v>82</v>
+      </c>
+      <c r="D1002" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" ht="18">
+      <c r="A1003" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1003" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1003" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" ht="18">
+      <c r="A1004" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1004" s="1">
+        <v>92</v>
+      </c>
+      <c r="D1004" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" ht="18">
+      <c r="A1005" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1005" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1005" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" ht="18">
+      <c r="A1006" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1006" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1006" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" ht="18">
+      <c r="A1007" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B1007" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1007" s="1">
+        <v>94</v>
+      </c>
+      <c r="D1007" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" ht="18">
+      <c r="A1008" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1008" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1008" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" ht="18">
+      <c r="A1009" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1009" s="1">
+        <v>69</v>
+      </c>
+      <c r="D1009" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" ht="18">
+      <c r="A1010" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1010" s="1">
+        <v>79</v>
+      </c>
+      <c r="D1010" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" ht="18">
+      <c r="A1011" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1011" s="1">
+        <v>78</v>
+      </c>
+      <c r="D1011" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" ht="18">
+      <c r="A1012" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1012" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1012" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" ht="18">
+      <c r="A1013" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1013" s="1">
+        <v>68</v>
+      </c>
+      <c r="D1013" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" ht="18">
+      <c r="A1014" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1014" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1014" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" ht="18">
+      <c r="A1015" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1015" s="1">
+        <v>92</v>
+      </c>
+      <c r="D1015" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" ht="18">
+      <c r="A1016" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B1016" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1016" s="1">
+        <v>73</v>
+      </c>
+      <c r="D1016" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" ht="18">
+      <c r="A1017" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1017" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1017" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" ht="18">
+      <c r="A1018" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1018" s="1">
+        <v>78</v>
+      </c>
+      <c r="D1018" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" ht="18">
+      <c r="A1019" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1019" s="1">
+        <v>67</v>
+      </c>
+      <c r="D1019" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" ht="18">
+      <c r="A1020" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1020" s="1">
+        <v>90</v>
+      </c>
+      <c r="D1020" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" ht="18">
+      <c r="A1021" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1021" s="1">
+        <v>82</v>
+      </c>
+      <c r="D1021" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" ht="18">
+      <c r="A1022" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1022" s="1">
+        <v>64</v>
+      </c>
+      <c r="D1022" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" ht="18">
+      <c r="A1023" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1023" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1023" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" ht="18">
+      <c r="A1024" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1024" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1024" s="2">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" ht="18">
+      <c r="A1025" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1025" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1025" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" ht="18">
+      <c r="A1026" s="1">
+        <v>1025</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1026" s="1">
+        <v>68</v>
+      </c>
+      <c r="D1026" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" ht="18">
+      <c r="A1027" s="1">
+        <v>1026</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1027" s="1">
+        <v>81</v>
+      </c>
+      <c r="D1027" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" ht="18">
+      <c r="A1028" s="1">
+        <v>1027</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1028" s="1">
+        <v>62</v>
+      </c>
+      <c r="D1028" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" ht="18">
+      <c r="A1029" s="1">
+        <v>1028</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1029" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1029" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" ht="18">
+      <c r="A1030" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1030" s="1">
+        <v>60</v>
+      </c>
+      <c r="D1030" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" ht="18">
+      <c r="A1031" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1031" s="1">
+        <v>60</v>
+      </c>
+      <c r="D1031" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" ht="18">
+      <c r="A1032" s="1">
+        <v>1031</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1032" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1032" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" ht="18">
+      <c r="A1033" s="1">
+        <v>1032</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1033" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1033" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" ht="18">
+      <c r="A1034" s="1">
+        <v>1033</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1034" s="1">
+        <v>65</v>
+      </c>
+      <c r="D1034" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" ht="18">
+      <c r="A1035" s="1">
+        <v>1034</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1035" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1035" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" ht="18">
+      <c r="A1036" s="1">
+        <v>1035</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1036" s="1">
+        <v>81</v>
+      </c>
+      <c r="D1036" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" ht="18">
+      <c r="A1037" s="1">
+        <v>1036</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1037" s="1">
+        <v>76</v>
+      </c>
+      <c r="D1037" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" ht="18">
+      <c r="A1038" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1038" s="1">
+        <v>60</v>
+      </c>
+      <c r="D1038" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" ht="18">
+      <c r="A1039" s="1">
+        <v>1038</v>
+      </c>
+      <c r="B1039" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1039" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1039" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" ht="18">
+      <c r="A1040" s="1">
+        <v>1039</v>
+      </c>
+      <c r="B1040" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1040" s="1">
+        <v>78</v>
+      </c>
+      <c r="D1040" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" ht="18">
+      <c r="A1041" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1041" s="1">
+        <v>77</v>
+      </c>
+      <c r="D1041" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" ht="18">
+      <c r="A1042" s="1">
+        <v>1041</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1042" s="1">
+        <v>68</v>
+      </c>
+      <c r="D1042" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" ht="18">
+      <c r="A1043" s="1">
+        <v>1042</v>
+      </c>
+      <c r="B1043" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1043" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1043" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" ht="18">
+      <c r="A1044" s="1">
+        <v>1043</v>
+      </c>
+      <c r="B1044" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1044" s="1">
+        <v>97</v>
+      </c>
+      <c r="D1044" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" ht="18">
+      <c r="A1045" s="1">
+        <v>1044</v>
+      </c>
+      <c r="B1045" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1045" s="1">
+        <v>62</v>
+      </c>
+      <c r="D1045" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" ht="18">
+      <c r="A1046" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B1046" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1046" s="1">
+        <v>60</v>
+      </c>
+      <c r="D1046" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" ht="18">
+      <c r="A1047" s="1">
+        <v>1046</v>
+      </c>
+      <c r="B1047" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1047" s="1">
+        <v>87</v>
+      </c>
+      <c r="D1047" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" ht="18">
+      <c r="A1048" s="1">
+        <v>1047</v>
+      </c>
+      <c r="B1048" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1048" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1048" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" ht="18">
+      <c r="A1049" s="1">
+        <v>1048</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1049" s="1">
+        <v>84</v>
+      </c>
+      <c r="D1049" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" ht="18">
+      <c r="A1050" s="1">
+        <v>1049</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1050" s="1">
+        <v>73</v>
+      </c>
+      <c r="D1050" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" ht="18">
+      <c r="A1051" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1051" s="1">
+        <v>66</v>
+      </c>
+      <c r="D1051" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" ht="18">
+      <c r="A1052" s="1">
+        <v>1051</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1052" s="1">
+        <v>62</v>
+      </c>
+      <c r="D1052" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" ht="18">
+      <c r="A1053" s="1">
+        <v>1052</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1053" s="1">
+        <v>65</v>
+      </c>
+      <c r="D1053" s="2">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" ht="18">
+      <c r="A1054" s="1">
+        <v>1053</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1054" s="1">
+        <v>64</v>
+      </c>
+      <c r="D1054" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" ht="18">
+      <c r="A1055" s="1">
+        <v>1054</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1055" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1055" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" ht="18">
+      <c r="A1056" s="1">
+        <v>1055</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1056" s="1">
+        <v>83</v>
+      </c>
+      <c r="D1056" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" ht="18">
+      <c r="A1057" s="1">
+        <v>1056</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1057" s="1">
+        <v>67</v>
+      </c>
+      <c r="D1057" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" ht="18">
+      <c r="A1058" s="1">
+        <v>1057</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1058" s="1">
+        <v>77</v>
+      </c>
+      <c r="D1058" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" ht="18">
+      <c r="A1059" s="1">
+        <v>1058</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1059" s="1">
+        <v>64</v>
+      </c>
+      <c r="D1059" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" ht="18">
+      <c r="A1060" s="1">
+        <v>1059</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1060" s="1">
+        <v>67</v>
+      </c>
+      <c r="D1060" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" ht="18">
+      <c r="A1061" s="1">
+        <v>1060</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1061" s="1">
+        <v>77</v>
+      </c>
+      <c r="D1061" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" ht="18">
+      <c r="A1062" s="1">
+        <v>1061</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1062" s="1">
+        <v>81</v>
+      </c>
+      <c r="D1062" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" ht="18">
+      <c r="A1063" s="1">
+        <v>1062</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1063" s="1">
+        <v>82</v>
+      </c>
+      <c r="D1063" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" ht="18">
+      <c r="A1064" s="1">
+        <v>1063</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1064" s="1">
+        <v>90</v>
+      </c>
+      <c r="D1064" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" ht="18">
+      <c r="A1065" s="1">
+        <v>1064</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1065" s="1">
+        <v>78</v>
+      </c>
+      <c r="D1065" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" ht="18">
+      <c r="A1066" s="1">
+        <v>1065</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1066" s="1">
+        <v>78</v>
+      </c>
+      <c r="D1066" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" ht="18">
+      <c r="A1067" s="1">
+        <v>1066</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1067" s="1">
+        <v>84</v>
+      </c>
+      <c r="D1067" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" ht="18">
+      <c r="A1068" s="1">
+        <v>1067</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1068" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1068" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" ht="18">
+      <c r="A1069" s="1">
+        <v>1068</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1069" s="1">
+        <v>70</v>
+      </c>
+      <c r="D1069" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" ht="18">
+      <c r="A1070" s="1">
+        <v>1069</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1070" s="1">
+        <v>83</v>
+      </c>
+      <c r="D1070" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" ht="18">
+      <c r="A1071" s="1">
+        <v>1070</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1071" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1071" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" ht="18">
+      <c r="A1072" s="1">
+        <v>1071</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1072" s="1">
+        <v>68</v>
+      </c>
+      <c r="D1072" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" ht="18">
+      <c r="A1073" s="1">
+        <v>1072</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1073" s="1">
+        <v>74</v>
+      </c>
+      <c r="D1073" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" ht="18">
+      <c r="A1074" s="1">
+        <v>1073</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1074" s="1">
+        <v>79</v>
+      </c>
+      <c r="D1074" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" ht="18">
+      <c r="A1075" s="1">
+        <v>1074</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1075" s="1">
+        <v>75</v>
+      </c>
+      <c r="D1075" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" ht="18">
+      <c r="A1076" s="1">
+        <v>1075</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1076" s="1">
+        <v>69</v>
+      </c>
+      <c r="D1076" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" ht="18">
+      <c r="A1077" s="1">
+        <v>1076</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1077" s="1">
+        <v>68</v>
+      </c>
+      <c r="D1077" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" ht="18">
+      <c r="A1078" s="1">
+        <v>1077</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1078" s="1">
+        <v>63</v>
+      </c>
+      <c r="D1078" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" ht="18">
+      <c r="A1079" s="1">
+        <v>1078</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1079" s="1">
+        <v>66</v>
+      </c>
+      <c r="D1079" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" ht="18">
+      <c r="A1080" s="1">
+        <v>1079</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1080" s="1">
+        <v>67</v>
+      </c>
+      <c r="D1080" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" ht="18">
+      <c r="A1081" s="1">
+        <v>1080</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1081" s="1">
+        <v>84</v>
+      </c>
+      <c r="D1081" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" ht="18">
+      <c r="A1082" s="1">
+        <v>1081</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1082" s="1">
+        <v>82</v>
+      </c>
+      <c r="D1082" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" ht="18">
+      <c r="A1083" s="1">
+        <v>1082</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1083" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1083" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" ht="18">
+      <c r="A1084" s="1">
+        <v>1083</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1084" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1084" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" ht="18">
+      <c r="A1085" s="1">
+        <v>1084</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1085" s="1">
+        <v>87</v>
+      </c>
+      <c r="D1085" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" ht="18">
+      <c r="A1086" s="1">
+        <v>1085</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1086" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1086" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" ht="18">
+      <c r="A1087" s="1">
+        <v>1086</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1087" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1087" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" ht="18">
+      <c r="A1088" s="1">
+        <v>1087</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1088" s="1">
+        <v>73</v>
+      </c>
+      <c r="D1088" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" ht="18">
+      <c r="A1089" s="1">
+        <v>1088</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1089" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1089" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" ht="18">
+      <c r="A1090" s="1">
+        <v>1089</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1090" s="1">
+        <v>60</v>
+      </c>
+      <c r="D1090" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" ht="18">
+      <c r="A1091" s="1">
+        <v>1090</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1091" s="1">
+        <v>76</v>
+      </c>
+      <c r="D1091" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" ht="18">
+      <c r="A1092" s="1">
+        <v>1091</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1092" s="1">
+        <v>76</v>
+      </c>
+      <c r="D1092" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" ht="18">
+      <c r="A1093" s="1">
+        <v>1092</v>
+      </c>
+      <c r="B1093" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1093" s="1">
+        <v>81</v>
+      </c>
+      <c r="D1093" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" ht="18">
+      <c r="A1094" s="1">
+        <v>1093</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1094" s="1">
+        <v>67</v>
+      </c>
+      <c r="D1094" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" ht="18">
+      <c r="A1095" s="1">
+        <v>1094</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1095" s="1">
+        <v>80</v>
+      </c>
+      <c r="D1095" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" ht="18">
+      <c r="A1096" s="1">
+        <v>1095</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1096" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1096" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" ht="18">
+      <c r="A1097" s="1">
+        <v>1096</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1097" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1097" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" ht="18">
+      <c r="A1098" s="1">
+        <v>1097</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1098" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1098" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" ht="18">
+      <c r="A1099" s="1">
+        <v>1098</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1099" s="1">
+        <v>70</v>
+      </c>
+      <c r="D1099" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" ht="18">
+      <c r="A1100" s="1">
+        <v>1099</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1100" s="1">
+        <v>92</v>
+      </c>
+      <c r="D1100" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" ht="18">
+      <c r="A1101" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1101" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1101" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" ht="18">
+      <c r="A1102" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1102" s="1">
+        <v>75</v>
+      </c>
+      <c r="D1102" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" ht="18">
+      <c r="A1103" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1103" s="1">
+        <v>72</v>
+      </c>
+      <c r="D1103" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" ht="18">
+      <c r="A1104" s="1">
+        <v>1103</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1104" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1104" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" ht="18">
+      <c r="A1105" s="1">
+        <v>1104</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1105" s="1">
+        <v>57</v>
+      </c>
+      <c r="D1105" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" ht="18">
+      <c r="A1106" s="1">
+        <v>1105</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1106" s="1">
+        <v>81</v>
+      </c>
+      <c r="D1106" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" ht="18">
+      <c r="A1107" s="1">
+        <v>1106</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1107" s="1">
+        <v>79</v>
+      </c>
+      <c r="D1107" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" ht="18">
+      <c r="A1108" s="1">
+        <v>1107</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1108" s="1">
+        <v>87</v>
+      </c>
+      <c r="D1108" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" ht="18">
+      <c r="A1109" s="1">
+        <v>1108</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1109" s="1">
+        <v>90</v>
+      </c>
+      <c r="D1109" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" ht="18">
+      <c r="A1110" s="1">
+        <v>1109</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1110" s="1">
+        <v>92</v>
+      </c>
+      <c r="D1110" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" ht="18">
+      <c r="A1111" s="1">
+        <v>1110</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1111" s="1">
+        <v>50</v>
+      </c>
+      <c r="D1111" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" ht="18">
+      <c r="A1112" s="1">
+        <v>1111</v>
+      </c>
+      <c r="B1112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1112" s="1">
+        <v>83</v>
+      </c>
+      <c r="D1112" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" ht="18">
+      <c r="A1113" s="1">
+        <v>1112</v>
+      </c>
+      <c r="B1113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1113" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1113" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" ht="18">
+      <c r="A1114" s="1">
+        <v>1113</v>
+      </c>
+      <c r="B1114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1114" s="1">
+        <v>82</v>
+      </c>
+      <c r="D1114" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" ht="18">
+      <c r="A1115" s="1">
+        <v>1114</v>
+      </c>
+      <c r="B1115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1115" s="1">
+        <v>79</v>
+      </c>
+      <c r="D1115" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" ht="18">
+      <c r="A1116" s="1">
+        <v>1115</v>
+      </c>
+      <c r="B1116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1116" s="1">
+        <v>72</v>
+      </c>
+      <c r="D1116" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" ht="18">
+      <c r="A1117" s="1">
+        <v>1116</v>
+      </c>
+      <c r="B1117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1117" s="1">
+        <v>84</v>
+      </c>
+      <c r="D1117" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" ht="18">
+      <c r="A1118" s="1">
+        <v>1117</v>
+      </c>
+      <c r="B1118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1118" s="1">
+        <v>56</v>
+      </c>
+      <c r="D1118" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" ht="18">
+      <c r="A1119" s="1">
+        <v>1118</v>
+      </c>
+      <c r="B1119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1119" s="1">
+        <v>57</v>
+      </c>
+      <c r="D1119" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" ht="18">
+      <c r="A1120" s="1">
+        <v>1119</v>
+      </c>
+      <c r="B1120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1120" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1120" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" ht="18">
+      <c r="A1121" s="1">
+        <v>1120</v>
+      </c>
+      <c r="B1121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1121" s="1">
+        <v>60</v>
+      </c>
+      <c r="D1121" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" ht="18">
+      <c r="A1122" s="1">
+        <v>1121</v>
+      </c>
+      <c r="B1122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1122" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1122" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" ht="18">
+      <c r="A1123" s="1">
+        <v>1122</v>
+      </c>
+      <c r="B1123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1123" s="1">
+        <v>92</v>
+      </c>
+      <c r="D1123" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" ht="18">
+      <c r="A1124" s="1">
+        <v>1123</v>
+      </c>
+      <c r="B1124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1124" s="1">
+        <v>68</v>
+      </c>
+      <c r="D1124" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" ht="18">
+      <c r="A1125" s="1">
+        <v>1124</v>
+      </c>
+      <c r="B1125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1125" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1125" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" ht="18">
+      <c r="A1126" s="1">
+        <v>1125</v>
+      </c>
+      <c r="B1126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1126" s="1">
+        <v>65</v>
+      </c>
+      <c r="D1126" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" ht="18">
+      <c r="A1127" s="1">
+        <v>1126</v>
+      </c>
+      <c r="B1127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1127" s="1">
+        <v>82</v>
+      </c>
+      <c r="D1127" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" ht="18">
+      <c r="A1128" s="1">
+        <v>1127</v>
+      </c>
+      <c r="B1128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1128" s="1">
+        <v>87</v>
+      </c>
+      <c r="D1128" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" ht="18">
+      <c r="A1129" s="1">
+        <v>1128</v>
+      </c>
+      <c r="B1129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1129" s="1">
+        <v>83</v>
+      </c>
+      <c r="D1129" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" ht="18">
+      <c r="A1130" s="1">
+        <v>1129</v>
+      </c>
+      <c r="B1130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1130" s="1">
+        <v>66</v>
+      </c>
+      <c r="D1130" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" ht="18">
+      <c r="A1131" s="1">
+        <v>1130</v>
+      </c>
+      <c r="B1131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1131" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1131" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" ht="18">
+      <c r="A1132" s="1">
+        <v>1131</v>
+      </c>
+      <c r="B1132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1132" s="1">
+        <v>79</v>
+      </c>
+      <c r="D1132" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" ht="18">
+      <c r="A1133" s="1">
+        <v>1132</v>
+      </c>
+      <c r="B1133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1133" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1133" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" ht="18">
+      <c r="A1134" s="1">
+        <v>1133</v>
+      </c>
+      <c r="B1134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1134" s="1">
+        <v>62</v>
+      </c>
+      <c r="D1134" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" ht="18">
+      <c r="A1135" s="1">
+        <v>1134</v>
+      </c>
+      <c r="B1135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1135" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1135" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" ht="18">
+      <c r="A1136" s="1">
+        <v>1135</v>
+      </c>
+      <c r="B1136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1136" s="1">
+        <v>79</v>
+      </c>
+      <c r="D1136" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" ht="18">
+      <c r="A1137" s="1">
+        <v>1136</v>
+      </c>
+      <c r="B1137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1137" s="1">
+        <v>74</v>
+      </c>
+      <c r="D1137" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" ht="18">
+      <c r="A1138" s="1">
+        <v>1137</v>
+      </c>
+      <c r="B1138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1138" s="1">
+        <v>69</v>
+      </c>
+      <c r="D1138" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" ht="18">
+      <c r="A1139" s="1">
+        <v>1138</v>
+      </c>
+      <c r="B1139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1139" s="1">
+        <v>76</v>
+      </c>
+      <c r="D1139" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" ht="18">
+      <c r="A1140" s="1">
+        <v>1139</v>
+      </c>
+      <c r="B1140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1140" s="1">
+        <v>73</v>
+      </c>
+      <c r="D1140" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" ht="18">
+      <c r="A1141" s="1">
+        <v>1140</v>
+      </c>
+      <c r="B1141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1141" s="1">
+        <v>76</v>
+      </c>
+      <c r="D1141" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" ht="18">
+      <c r="A1142" s="1">
+        <v>1141</v>
+      </c>
+      <c r="B1142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1142" s="1">
+        <v>69</v>
+      </c>
+      <c r="D1142" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" ht="18">
+      <c r="A1143" s="1">
+        <v>1142</v>
+      </c>
+      <c r="B1143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1143" s="1">
+        <v>87</v>
+      </c>
+      <c r="D1143" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" ht="18">
+      <c r="A1144" s="1">
+        <v>1143</v>
+      </c>
+      <c r="B1144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1144" s="1">
+        <v>64</v>
+      </c>
+      <c r="D1144" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" ht="18">
+      <c r="A1145" s="1">
+        <v>1144</v>
+      </c>
+      <c r="B1145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1145" s="1">
+        <v>90</v>
+      </c>
+      <c r="D1145" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" ht="18">
+      <c r="A1146" s="1">
+        <v>1145</v>
+      </c>
+      <c r="B1146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1146" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1146" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" ht="18">
+      <c r="A1147" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B1147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1147" s="1">
+        <v>63</v>
+      </c>
+      <c r="D1147" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" ht="18">
+      <c r="A1148" s="1">
+        <v>1147</v>
+      </c>
+      <c r="B1148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1148" s="1">
+        <v>90</v>
+      </c>
+      <c r="D1148" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" ht="18">
+      <c r="A1149" s="1">
+        <v>1148</v>
+      </c>
+      <c r="B1149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1149" s="1">
+        <v>82</v>
+      </c>
+      <c r="D1149" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" ht="18">
+      <c r="A1150" s="1">
+        <v>1149</v>
+      </c>
+      <c r="B1150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1150" s="1">
+        <v>62</v>
+      </c>
+      <c r="D1150" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" ht="18">
+      <c r="A1151" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B1151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1151" s="1">
+        <v>63</v>
+      </c>
+      <c r="D1151" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" ht="18">
+      <c r="A1152" s="1">
+        <v>1151</v>
+      </c>
+      <c r="B1152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1152" s="1">
+        <v>78</v>
+      </c>
+      <c r="D1152" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" ht="18">
+      <c r="A1153" s="1">
+        <v>1152</v>
+      </c>
+      <c r="B1153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1153" s="1">
+        <v>72</v>
+      </c>
+      <c r="D1153" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" ht="18">
+      <c r="A1154" s="1">
+        <v>1153</v>
+      </c>
+      <c r="B1154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1154" s="1">
+        <v>74</v>
+      </c>
+      <c r="D1154" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" ht="18">
+      <c r="A1155" s="1">
+        <v>1154</v>
+      </c>
+      <c r="B1155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1155" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1155" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" ht="18">
+      <c r="A1156" s="1">
+        <v>1155</v>
+      </c>
+      <c r="B1156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1156" s="1">
+        <v>81</v>
+      </c>
+      <c r="D1156" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" ht="18">
+      <c r="A1157" s="1">
+        <v>1156</v>
+      </c>
+      <c r="B1157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1157" s="1">
+        <v>49</v>
+      </c>
+      <c r="D1157" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" ht="18">
+      <c r="A1158" s="1">
+        <v>1157</v>
+      </c>
+      <c r="B1158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1158" s="1">
+        <v>72</v>
+      </c>
+      <c r="D1158" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" ht="18">
+      <c r="A1159" s="1">
+        <v>1158</v>
+      </c>
+      <c r="B1159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1159" s="1">
+        <v>80</v>
+      </c>
+      <c r="D1159" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" ht="18">
+      <c r="A1160" s="1">
+        <v>1159</v>
+      </c>
+      <c r="B1160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1160" s="1">
+        <v>95</v>
+      </c>
+      <c r="D1160" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" ht="18">
+      <c r="A1161" s="1">
+        <v>1160</v>
+      </c>
+      <c r="B1161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1161" s="1">
+        <v>79</v>
+      </c>
+      <c r="D1161" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" ht="18">
+      <c r="A1162" s="1">
+        <v>1161</v>
+      </c>
+      <c r="B1162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1162" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1162" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" ht="18">
+      <c r="A1163" s="1">
+        <v>1162</v>
+      </c>
+      <c r="B1163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1163" s="1">
+        <v>74</v>
+      </c>
+      <c r="D1163" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" ht="18">
+      <c r="A1164" s="1">
+        <v>1163</v>
+      </c>
+      <c r="B1164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1164" s="1">
+        <v>90</v>
+      </c>
+      <c r="D1164" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" ht="18">
+      <c r="A1165" s="1">
+        <v>1164</v>
+      </c>
+      <c r="B1165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1165" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1165" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" ht="18">
+      <c r="A1166" s="1">
+        <v>1165</v>
+      </c>
+      <c r="B1166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1166" s="1">
+        <v>72</v>
+      </c>
+      <c r="D1166" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" ht="18">
+      <c r="A1167" s="1">
+        <v>1166</v>
+      </c>
+      <c r="B1167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1167" s="1">
+        <v>69</v>
+      </c>
+      <c r="D1167" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" ht="18">
+      <c r="A1168" s="1">
+        <v>1167</v>
+      </c>
+      <c r="B1168" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1168" s="1">
+        <v>94</v>
+      </c>
+      <c r="D1168" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" ht="18">
+      <c r="A1169" s="1">
+        <v>1168</v>
+      </c>
+      <c r="B1169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1169" s="1">
+        <v>39</v>
+      </c>
+      <c r="D1169" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" ht="18">
+      <c r="A1170" s="1">
+        <v>1169</v>
+      </c>
+      <c r="B1170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1170" s="1">
+        <v>76</v>
+      </c>
+      <c r="D1170" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" ht="18">
+      <c r="A1171" s="1">
+        <v>1170</v>
+      </c>
+      <c r="B1171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1171" s="1">
+        <v>87</v>
+      </c>
+      <c r="D1171" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" ht="18">
+      <c r="A1172" s="1">
+        <v>1171</v>
+      </c>
+      <c r="B1172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1172" s="1">
+        <v>60</v>
+      </c>
+      <c r="D1172" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" ht="18">
+      <c r="A1173" s="1">
+        <v>1172</v>
+      </c>
+      <c r="B1173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1173" s="1">
+        <v>93</v>
+      </c>
+      <c r="D1173" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" ht="18">
+      <c r="A1174" s="1">
+        <v>1173</v>
+      </c>
+      <c r="B1174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1174" s="1">
+        <v>81</v>
+      </c>
+      <c r="D1174" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" ht="18">
+      <c r="A1175" s="1">
+        <v>1174</v>
+      </c>
+      <c r="B1175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1175" s="1">
+        <v>78</v>
+      </c>
+      <c r="D1175" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" ht="18">
+      <c r="A1176" s="1">
+        <v>1175</v>
+      </c>
+      <c r="B1176" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1176" s="1">
+        <v>98</v>
+      </c>
+      <c r="D1176" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" ht="18">
+      <c r="A1177" s="1">
+        <v>1176</v>
+      </c>
+      <c r="B1177" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1177" s="1">
+        <v>87</v>
+      </c>
+      <c r="D1177" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" ht="18">
+      <c r="A1178" s="1">
+        <v>1177</v>
+      </c>
+      <c r="B1178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1178" s="1">
+        <v>77</v>
+      </c>
+      <c r="D1178" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" ht="18">
+      <c r="A1179" s="1">
+        <v>1178</v>
+      </c>
+      <c r="B1179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1179" s="1">
+        <v>84</v>
+      </c>
+      <c r="D1179" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" ht="18">
+      <c r="A1180" s="1">
+        <v>1179</v>
+      </c>
+      <c r="B1180" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1180" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1180" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" ht="18">
+      <c r="A1181" s="1">
+        <v>1180</v>
+      </c>
+      <c r="B1181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1181" s="1">
+        <v>80</v>
+      </c>
+      <c r="D1181" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" ht="18">
+      <c r="A1182" s="1">
+        <v>1181</v>
+      </c>
+      <c r="B1182" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1182" s="1">
+        <v>63</v>
+      </c>
+      <c r="D1182" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" ht="18">
+      <c r="A1183" s="1">
+        <v>1182</v>
+      </c>
+      <c r="B1183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1183" s="1">
+        <v>83</v>
+      </c>
+      <c r="D1183" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" ht="18">
+      <c r="A1184" s="1">
+        <v>1183</v>
+      </c>
+      <c r="B1184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1184" s="1">
+        <v>99</v>
+      </c>
+      <c r="D1184" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" ht="18">
+      <c r="A1185" s="1">
+        <v>1184</v>
+      </c>
+      <c r="B1185" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1185" s="1">
+        <v>40</v>
+      </c>
+      <c r="D1185" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" ht="18">
+      <c r="A1186" s="1">
+        <v>1185</v>
+      </c>
+      <c r="B1186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1186" s="1">
+        <v>90</v>
+      </c>
+      <c r="D1186" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" ht="18">
+      <c r="A1187" s="1">
+        <v>1186</v>
+      </c>
+      <c r="B1187" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1187" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1187" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" ht="18">
+      <c r="A1188" s="1">
+        <v>1187</v>
+      </c>
+      <c r="B1188" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1188" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1188" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" ht="18">
+      <c r="A1189" s="1">
+        <v>1188</v>
+      </c>
+      <c r="B1189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1189" s="1">
+        <v>84</v>
+      </c>
+      <c r="D1189" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" ht="18">
+      <c r="A1190" s="1">
+        <v>1189</v>
+      </c>
+      <c r="B1190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1190" s="1">
+        <v>80</v>
+      </c>
+      <c r="D1190" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" ht="18">
+      <c r="A1191" s="1">
+        <v>1190</v>
+      </c>
+      <c r="B1191" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1191" s="1">
+        <v>81</v>
+      </c>
+      <c r="D1191" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" ht="18">
+      <c r="A1192" s="1">
+        <v>1191</v>
+      </c>
+      <c r="B1192" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1192" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1192" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" ht="18">
+      <c r="A1193" s="1">
+        <v>1192</v>
+      </c>
+      <c r="B1193" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1193" s="1">
+        <v>77</v>
+      </c>
+      <c r="D1193" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" ht="18">
+      <c r="A1194" s="1">
+        <v>1193</v>
+      </c>
+      <c r="B1194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1194" s="1">
+        <v>79</v>
+      </c>
+      <c r="D1194" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" ht="18">
+      <c r="A1195" s="1">
+        <v>1194</v>
+      </c>
+      <c r="B1195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1195" s="1">
+        <v>74</v>
+      </c>
+      <c r="D1195" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" ht="18">
+      <c r="A1196" s="1">
+        <v>1195</v>
+      </c>
+      <c r="B1196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1196" s="1">
+        <v>67</v>
+      </c>
+      <c r="D1196" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" ht="18">
+      <c r="A1197" s="1">
+        <v>1196</v>
+      </c>
+      <c r="B1197" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1197" s="1">
+        <v>50</v>
+      </c>
+      <c r="D1197" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" ht="18">
+      <c r="A1198" s="1">
+        <v>1197</v>
+      </c>
+      <c r="B1198" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1198" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1198" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" ht="18">
+      <c r="A1199" s="1">
+        <v>1198</v>
+      </c>
+      <c r="B1199" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1199" s="1">
+        <v>78</v>
+      </c>
+      <c r="D1199" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" ht="18">
+      <c r="A1200" s="1">
+        <v>1199</v>
+      </c>
+      <c r="B1200" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1200" s="1">
+        <v>70</v>
+      </c>
+      <c r="D1200" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" ht="18">
+      <c r="A1201" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B1201" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1201" s="1">
+        <v>70</v>
+      </c>
+      <c r="D1201" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" ht="18">
+      <c r="A1202" s="1">
+        <v>1201</v>
+      </c>
+      <c r="B1202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1202" s="1">
+        <v>72</v>
+      </c>
+      <c r="D1202" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" ht="18">
+      <c r="A1203" s="1">
+        <v>1202</v>
+      </c>
+      <c r="B1203" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1203" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1203" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" ht="18">
+      <c r="A1204" s="1">
+        <v>1203</v>
+      </c>
+      <c r="B1204" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1204" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1204" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" ht="18">
+      <c r="A1205" s="1">
+        <v>1204</v>
+      </c>
+      <c r="B1205" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1205" s="1">
+        <v>59</v>
+      </c>
+      <c r="D1205" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" ht="18">
+      <c r="A1206" s="1">
+        <v>1205</v>
+      </c>
+      <c r="B1206" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1206" s="1">
+        <v>66</v>
+      </c>
+      <c r="D1206" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" ht="18">
+      <c r="A1207" s="1">
+        <v>1206</v>
+      </c>
+      <c r="B1207" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1207" s="1">
+        <v>81</v>
+      </c>
+      <c r="D1207" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" ht="18">
+      <c r="A1208" s="1">
+        <v>1207</v>
+      </c>
+      <c r="B1208" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1208" s="1">
+        <v>61</v>
+      </c>
+      <c r="D1208" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" ht="18">
+      <c r="A1209" s="1">
+        <v>1208</v>
+      </c>
+      <c r="B1209" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1209" s="1">
+        <v>80</v>
+      </c>
+      <c r="D1209" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" ht="18">
+      <c r="A1210" s="1">
+        <v>1209</v>
+      </c>
+      <c r="B1210" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1210" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1210" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" ht="18">
+      <c r="A1211" s="1">
+        <v>1210</v>
+      </c>
+      <c r="B1211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1211" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1211" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" ht="18">
+      <c r="A1212" s="1">
+        <v>1211</v>
+      </c>
+      <c r="B1212" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1212" s="1">
+        <v>70</v>
+      </c>
+      <c r="D1212" s="2">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" ht="18">
+      <c r="A1213" s="1">
+        <v>1212</v>
+      </c>
+      <c r="B1213" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1213" s="1">
+        <v>57</v>
+      </c>
+      <c r="D1213" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" ht="18">
+      <c r="A1214" s="1">
+        <v>1213</v>
+      </c>
+      <c r="B1214" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1214" s="1">
+        <v>69</v>
+      </c>
+      <c r="D1214" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" ht="18">
+      <c r="A1215" s="1">
+        <v>1214</v>
+      </c>
+      <c r="B1215" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1215" s="1">
+        <v>74</v>
+      </c>
+      <c r="D1215" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" ht="18">
+      <c r="A1216" s="1">
+        <v>1215</v>
+      </c>
+      <c r="B1216" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1216" s="1">
+        <v>83</v>
+      </c>
+      <c r="D1216" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" ht="18">
+      <c r="A1217" s="1">
+        <v>1216</v>
+      </c>
+      <c r="B1217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1217" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1217" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" ht="18">
+      <c r="A1218" s="1">
+        <v>1217</v>
+      </c>
+      <c r="B1218" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1218" s="1">
+        <v>70</v>
+      </c>
+      <c r="D1218" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" ht="18">
+      <c r="A1219" s="1">
+        <v>1218</v>
+      </c>
+      <c r="B1219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1219" s="1">
+        <v>73</v>
+      </c>
+      <c r="D1219" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" ht="18">
+      <c r="A1220" s="1">
+        <v>1219</v>
+      </c>
+      <c r="B1220" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1220" s="1">
+        <v>69</v>
+      </c>
+      <c r="D1220" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" ht="18">
+      <c r="A1221" s="1">
+        <v>1220</v>
+      </c>
+      <c r="B1221" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1221" s="1">
+        <v>58</v>
+      </c>
+      <c r="D1221" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" ht="18">
+      <c r="A1222" s="1">
+        <v>1221</v>
+      </c>
+      <c r="B1222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1222" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1222" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" ht="18">
+      <c r="A1223" s="1">
+        <v>1222</v>
+      </c>
+      <c r="B1223" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1223" s="1">
+        <v>82</v>
+      </c>
+      <c r="D1223" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" ht="18">
+      <c r="A1224" s="1">
+        <v>1223</v>
+      </c>
+      <c r="B1224" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1224" s="1">
+        <v>82</v>
+      </c>
+      <c r="D1224" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" ht="18">
+      <c r="A1225" s="1">
+        <v>1224</v>
+      </c>
+      <c r="B1225" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1225" s="1">
+        <v>73</v>
+      </c>
+      <c r="D1225" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" ht="18">
+      <c r="A1226" s="1">
+        <v>1225</v>
+      </c>
+      <c r="B1226" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1226" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1226" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" ht="18">
+      <c r="A1227" s="1">
+        <v>1226</v>
+      </c>
+      <c r="B1227" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1227" s="1">
+        <v>72</v>
+      </c>
+      <c r="D1227" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" ht="18">
+      <c r="A1228" s="1">
+        <v>1227</v>
+      </c>
+      <c r="B1228" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1228" s="1">
+        <v>77</v>
+      </c>
+      <c r="D1228" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" ht="18">
+      <c r="A1229" s="1">
+        <v>1228</v>
+      </c>
+      <c r="B1229" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1229" s="1">
+        <v>91</v>
+      </c>
+      <c r="D1229" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" ht="18">
+      <c r="A1230" s="1">
+        <v>1229</v>
+      </c>
+      <c r="B1230" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1230" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1230" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" ht="18">
+      <c r="A1231" s="1">
+        <v>1230</v>
+      </c>
+      <c r="B1231" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1231" s="1">
+        <v>73</v>
+      </c>
+      <c r="D1231" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" ht="18">
+      <c r="A1232" s="1">
+        <v>1231</v>
+      </c>
+      <c r="B1232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1232" s="1">
+        <v>60</v>
+      </c>
+      <c r="D1232" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" ht="18">
+      <c r="A1233" s="1">
+        <v>1232</v>
+      </c>
+      <c r="B1233" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1233" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1233" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" ht="18">
+      <c r="A1234" s="1">
+        <v>1233</v>
+      </c>
+      <c r="B1234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1234" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1234" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" ht="18">
+      <c r="A1235" s="1">
+        <v>1234</v>
+      </c>
+      <c r="B1235" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1235" s="1">
+        <v>94</v>
+      </c>
+      <c r="D1235" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" ht="18">
+      <c r="A1236" s="1">
+        <v>1235</v>
+      </c>
+      <c r="B1236" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1236" s="1">
+        <v>75</v>
+      </c>
+      <c r="D1236" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" ht="18">
+      <c r="A1237" s="1">
+        <v>1236</v>
+      </c>
+      <c r="B1237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1237" s="1">
+        <v>66</v>
+      </c>
+      <c r="D1237" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" ht="18">
+      <c r="A1238" s="1">
+        <v>1237</v>
+      </c>
+      <c r="B1238" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1238" s="1">
+        <v>75</v>
+      </c>
+      <c r="D1238" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" ht="18">
+      <c r="A1239" s="1">
+        <v>1238</v>
+      </c>
+      <c r="B1239" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1239" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1239" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" ht="18">
+      <c r="A1240" s="1">
+        <v>1239</v>
+      </c>
+      <c r="B1240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1240" s="1">
+        <v>80</v>
+      </c>
+      <c r="D1240" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" ht="18">
+      <c r="A1241" s="1">
+        <v>1240</v>
+      </c>
+      <c r="B1241" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1241" s="1">
+        <v>66</v>
+      </c>
+      <c r="D1241" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" ht="18">
+      <c r="A1242" s="1">
+        <v>1241</v>
+      </c>
+      <c r="B1242" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1242" s="1">
+        <v>87</v>
+      </c>
+      <c r="D1242" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" ht="18">
+      <c r="A1243" s="1">
+        <v>1242</v>
+      </c>
+      <c r="B1243" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1243" s="1">
+        <v>77</v>
+      </c>
+      <c r="D1243" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" ht="18">
+      <c r="A1244" s="1">
+        <v>1243</v>
+      </c>
+      <c r="B1244" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1244" s="1">
+        <v>78</v>
+      </c>
+      <c r="D1244" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" ht="18">
+      <c r="A1245" s="1">
+        <v>1244</v>
+      </c>
+      <c r="B1245" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1245" s="1">
+        <v>87</v>
+      </c>
+      <c r="D1245" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" ht="18">
+      <c r="A1246" s="1">
+        <v>1245</v>
+      </c>
+      <c r="B1246" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1246" s="1">
+        <v>62</v>
+      </c>
+      <c r="D1246" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" ht="18">
+      <c r="A1247" s="1">
+        <v>1246</v>
+      </c>
+      <c r="B1247" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1247" s="1">
+        <v>75</v>
+      </c>
+      <c r="D1247" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" ht="18">
+      <c r="A1248" s="1">
+        <v>1247</v>
+      </c>
+      <c r="B1248" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1248" s="1">
+        <v>84</v>
+      </c>
+      <c r="D1248" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" ht="18">
+      <c r="A1249" s="1">
+        <v>1248</v>
+      </c>
+      <c r="B1249" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1249" s="1">
+        <v>80</v>
+      </c>
+      <c r="D1249" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" ht="18">
+      <c r="A1250" s="1">
+        <v>1249</v>
+      </c>
+      <c r="B1250" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1250" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1250" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" ht="18">
+      <c r="A1251" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B1251" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1251" s="1">
+        <v>90</v>
+      </c>
+      <c r="D1251" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" ht="18">
+      <c r="A1252" s="1">
+        <v>1251</v>
+      </c>
+      <c r="B1252" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1252" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1252" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" ht="18">
+      <c r="A1253" s="1">
+        <v>1252</v>
+      </c>
+      <c r="B1253" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1253" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1253" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" ht="18">
+      <c r="A1254" s="1">
+        <v>1253</v>
+      </c>
+      <c r="B1254" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1254" s="1">
+        <v>74</v>
+      </c>
+      <c r="D1254" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" ht="18">
+      <c r="A1255" s="1">
+        <v>1254</v>
+      </c>
+      <c r="B1255" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1255" s="1">
+        <v>80</v>
+      </c>
+      <c r="D1255" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" ht="18">
+      <c r="A1256" s="1">
+        <v>1255</v>
+      </c>
+      <c r="B1256" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1256" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1256" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" ht="18">
+      <c r="A1257" s="1">
+        <v>1256</v>
+      </c>
+      <c r="B1257" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1257" s="1">
+        <v>91</v>
+      </c>
+      <c r="D1257" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" ht="18">
+      <c r="A1258" s="1">
+        <v>1257</v>
+      </c>
+      <c r="B1258" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1258" s="1">
+        <v>45</v>
+      </c>
+      <c r="D1258" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" ht="18">
+      <c r="A1259" s="1">
+        <v>1258</v>
+      </c>
+      <c r="B1259" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1259" s="1">
+        <v>94</v>
+      </c>
+      <c r="D1259" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" ht="18">
+      <c r="A1260" s="1">
+        <v>1259</v>
+      </c>
+      <c r="B1260" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1260" s="1">
+        <v>68</v>
+      </c>
+      <c r="D1260" s="2">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" ht="18">
+      <c r="A1261" s="1">
+        <v>1260</v>
+      </c>
+      <c r="B1261" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1261" s="1">
+        <v>77</v>
+      </c>
+      <c r="D1261" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" ht="18">
+      <c r="A1262" s="1">
+        <v>1261</v>
+      </c>
+      <c r="B1262" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1262" s="1">
+        <v>81</v>
+      </c>
+      <c r="D1262" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" ht="18">
+      <c r="A1263" s="1">
+        <v>1262</v>
+      </c>
+      <c r="B1263" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1263" s="1">
+        <v>92</v>
+      </c>
+      <c r="D1263" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" ht="18">
+      <c r="A1264" s="1">
+        <v>1263</v>
+      </c>
+      <c r="B1264" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1264" s="1">
+        <v>56</v>
+      </c>
+      <c r="D1264" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" ht="18">
+      <c r="A1265" s="1">
+        <v>1264</v>
+      </c>
+      <c r="B1265" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1265" s="1">
+        <v>66</v>
+      </c>
+      <c r="D1265" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" ht="18">
+      <c r="A1266" s="1">
+        <v>1265</v>
+      </c>
+      <c r="B1266" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1266" s="1">
+        <v>73</v>
+      </c>
+      <c r="D1266" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" ht="18">
+      <c r="A1267" s="1">
+        <v>1266</v>
+      </c>
+      <c r="B1267" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1267" s="1">
+        <v>62</v>
+      </c>
+      <c r="D1267" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" ht="18">
+      <c r="A1268" s="1">
+        <v>1267</v>
+      </c>
+      <c r="B1268" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1268" s="1">
+        <v>64</v>
+      </c>
+      <c r="D1268" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" ht="18">
+      <c r="A1269" s="1">
+        <v>1268</v>
+      </c>
+      <c r="B1269" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1269" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1269" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" ht="18">
+      <c r="A1270" s="1">
+        <v>1269</v>
+      </c>
+      <c r="B1270" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1270" s="1">
+        <v>81</v>
+      </c>
+      <c r="D1270" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" ht="18">
+      <c r="A1271" s="1">
+        <v>1270</v>
+      </c>
+      <c r="B1271" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1271" s="1">
+        <v>91</v>
+      </c>
+      <c r="D1271" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" ht="18">
+      <c r="A1272" s="1">
+        <v>1271</v>
+      </c>
+      <c r="B1272" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1272" s="1">
+        <v>87</v>
+      </c>
+      <c r="D1272" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" ht="18">
+      <c r="A1273" s="1">
+        <v>1272</v>
+      </c>
+      <c r="B1273" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1273" s="1">
+        <v>87</v>
+      </c>
+      <c r="D1273" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" ht="18">
+      <c r="A1274" s="1">
+        <v>1273</v>
+      </c>
+      <c r="B1274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1274" s="1">
+        <v>73</v>
+      </c>
+      <c r="D1274" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" ht="18">
+      <c r="A1275" s="1">
+        <v>1274</v>
+      </c>
+      <c r="B1275" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1275" s="1">
+        <v>76</v>
+      </c>
+      <c r="D1275" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" ht="18">
+      <c r="A1276" s="1">
+        <v>1275</v>
+      </c>
+      <c r="B1276" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1276" s="1">
+        <v>95</v>
+      </c>
+      <c r="D1276" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" ht="18">
+      <c r="A1277" s="1">
+        <v>1276</v>
+      </c>
+      <c r="B1277" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1277" s="1">
+        <v>70</v>
+      </c>
+      <c r="D1277" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" ht="18">
+      <c r="A1278" s="1">
+        <v>1277</v>
+      </c>
+      <c r="B1278" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1278" s="1">
+        <v>87</v>
+      </c>
+      <c r="D1278" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" ht="18">
+      <c r="A1279" s="1">
+        <v>1278</v>
+      </c>
+      <c r="B1279" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1279" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1279" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" ht="18">
+      <c r="A1280" s="1">
+        <v>1279</v>
+      </c>
+      <c r="B1280" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1280" s="1">
+        <v>72</v>
+      </c>
+      <c r="D1280" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" ht="18">
+      <c r="A1281" s="1">
+        <v>1280</v>
+      </c>
+      <c r="B1281" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1281" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1281" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" ht="18">
+      <c r="A1282" s="1">
+        <v>1281</v>
+      </c>
+      <c r="B1282" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1282" s="1">
+        <v>95</v>
+      </c>
+      <c r="D1282" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" ht="18">
+      <c r="A1283" s="1">
+        <v>1282</v>
+      </c>
+      <c r="B1283" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1283" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1283" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" ht="18">
+      <c r="A1284" s="1">
+        <v>1283</v>
+      </c>
+      <c r="B1284" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1284" s="1">
+        <v>83</v>
+      </c>
+      <c r="D1284" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" ht="18">
+      <c r="A1285" s="1">
+        <v>1284</v>
+      </c>
+      <c r="B1285" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1285" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1285" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" ht="18">
+      <c r="A1286" s="1">
+        <v>1285</v>
+      </c>
+      <c r="B1286" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1286" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1286" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" ht="18">
+      <c r="A1287" s="1">
+        <v>1286</v>
+      </c>
+      <c r="B1287" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1287" s="1">
+        <v>83</v>
+      </c>
+      <c r="D1287" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" ht="18">
+      <c r="A1288" s="1">
+        <v>1287</v>
+      </c>
+      <c r="B1288" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1288" s="1">
+        <v>69</v>
+      </c>
+      <c r="D1288" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" ht="18">
+      <c r="A1289" s="1">
+        <v>1288</v>
+      </c>
+      <c r="B1289" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1289" s="1">
+        <v>94</v>
+      </c>
+      <c r="D1289" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" ht="18">
+      <c r="A1290" s="1">
+        <v>1289</v>
+      </c>
+      <c r="B1290" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1290" s="1">
+        <v>80</v>
+      </c>
+      <c r="D1290" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" ht="18">
+      <c r="A1291" s="1">
+        <v>1290</v>
+      </c>
+      <c r="B1291" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1291" s="1">
+        <v>77</v>
+      </c>
+      <c r="D1291" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" ht="18">
+      <c r="A1292" s="1">
+        <v>1291</v>
+      </c>
+      <c r="B1292" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1292" s="1">
+        <v>57</v>
+      </c>
+      <c r="D1292" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" ht="18">
+      <c r="A1293" s="1">
+        <v>1292</v>
+      </c>
+      <c r="B1293" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1293" s="1">
+        <v>64</v>
+      </c>
+      <c r="D1293" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" ht="18">
+      <c r="A1294" s="1">
+        <v>1293</v>
+      </c>
+      <c r="B1294" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1294" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1294" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" ht="18">
+      <c r="A1295" s="1">
+        <v>1294</v>
+      </c>
+      <c r="B1295" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1295" s="1">
+        <v>93</v>
+      </c>
+      <c r="D1295" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" ht="18">
+      <c r="A1296" s="1">
+        <v>1295</v>
+      </c>
+      <c r="B1296" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1296" s="1">
+        <v>77</v>
+      </c>
+      <c r="D1296" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" ht="18">
+      <c r="A1297" s="1">
+        <v>1296</v>
+      </c>
+      <c r="B1297" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1297" s="1">
+        <v>68</v>
+      </c>
+      <c r="D1297" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" ht="18">
+      <c r="A1298" s="1">
+        <v>1297</v>
+      </c>
+      <c r="B1298" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1298" s="1">
+        <v>62</v>
+      </c>
+      <c r="D1298" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" ht="18">
+      <c r="A1299" s="1">
+        <v>1298</v>
+      </c>
+      <c r="B1299" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1299" s="1">
+        <v>65</v>
+      </c>
+      <c r="D1299" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" ht="18">
+      <c r="A1300" s="1">
+        <v>1299</v>
+      </c>
+      <c r="B1300" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1300" s="1">
+        <v>89</v>
+      </c>
+      <c r="D1300" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" ht="18">
+      <c r="A1301" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B1301" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1301" s="1">
+        <v>97</v>
+      </c>
+      <c r="D1301" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" ht="18">
+      <c r="A1302" s="1">
+        <v>1301</v>
+      </c>
+      <c r="B1302" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1302" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1302" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" ht="18">
+      <c r="A1303" s="1">
+        <v>1302</v>
+      </c>
+      <c r="B1303" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1303" s="1">
+        <v>68</v>
+      </c>
+      <c r="D1303" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" ht="18">
+      <c r="A1304" s="1">
+        <v>1303</v>
+      </c>
+      <c r="B1304" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1304" s="1">
+        <v>75</v>
+      </c>
+      <c r="D1304" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" ht="18">
+      <c r="A1305" s="1">
+        <v>1304</v>
+      </c>
+      <c r="B1305" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1305" s="1">
+        <v>91</v>
+      </c>
+      <c r="D1305" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" ht="18">
+      <c r="A1306" s="1">
+        <v>1305</v>
+      </c>
+      <c r="B1306" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1306" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1306" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" ht="18">
+      <c r="A1307" s="1">
+        <v>1306</v>
+      </c>
+      <c r="B1307" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1307" s="1">
+        <v>65</v>
+      </c>
+      <c r="D1307" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" ht="18">
+      <c r="A1308" s="1">
+        <v>1307</v>
+      </c>
+      <c r="B1308" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1308" s="1">
+        <v>66</v>
+      </c>
+      <c r="D1308" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" ht="18">
+      <c r="A1309" s="1">
+        <v>1308</v>
+      </c>
+      <c r="B1309" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1309" s="1">
+        <v>60</v>
+      </c>
+      <c r="D1309" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" ht="18">
+      <c r="A1310" s="1">
+        <v>1309</v>
+      </c>
+      <c r="B1310" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1310" s="1">
+        <v>83</v>
+      </c>
+      <c r="D1310" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" ht="18">
+      <c r="A1311" s="1">
+        <v>1310</v>
+      </c>
+      <c r="B1311" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1311" s="1">
+        <v>78</v>
+      </c>
+      <c r="D1311" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" ht="18">
+      <c r="A1312" s="1">
+        <v>1311</v>
+      </c>
+      <c r="B1312" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1312" s="1">
+        <v>80</v>
+      </c>
+      <c r="D1312" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" ht="18">
+      <c r="A1313" s="1">
+        <v>1312</v>
+      </c>
+      <c r="B1313" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1313" s="1">
+        <v>77</v>
+      </c>
+      <c r="D1313" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" ht="18">
+      <c r="A1314" s="1">
+        <v>1313</v>
+      </c>
+      <c r="B1314" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1314" s="1">
+        <v>60</v>
+      </c>
+      <c r="D1314" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" ht="18">
+      <c r="A1315" s="1">
+        <v>1314</v>
+      </c>
+      <c r="B1315" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1315" s="1">
+        <v>73</v>
+      </c>
+      <c r="D1315" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" ht="18">
+      <c r="A1316" s="1">
+        <v>1315</v>
+      </c>
+      <c r="B1316" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1316" s="1">
+        <v>77</v>
+      </c>
+      <c r="D1316" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" ht="18">
+      <c r="A1317" s="1">
+        <v>1316</v>
+      </c>
+      <c r="B1317" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1317" s="1">
+        <v>95</v>
+      </c>
+      <c r="D1317" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" ht="18">
+      <c r="A1318" s="1">
+        <v>1317</v>
+      </c>
+      <c r="B1318" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1318" s="1">
+        <v>76</v>
+      </c>
+      <c r="D1318" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" ht="18">
+      <c r="A1319" s="1">
+        <v>1318</v>
+      </c>
+      <c r="B1319" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1319" s="1">
+        <v>80</v>
+      </c>
+      <c r="D1319" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" ht="18">
+      <c r="A1320" s="1">
+        <v>1319</v>
+      </c>
+      <c r="B1320" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1320" s="1">
+        <v>77</v>
+      </c>
+      <c r="D1320" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" ht="18">
+      <c r="A1321" s="1">
+        <v>1320</v>
+      </c>
+      <c r="B1321" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1321" s="1">
+        <v>93</v>
+      </c>
+      <c r="D1321" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" ht="18">
+      <c r="A1322" s="1">
+        <v>1321</v>
+      </c>
+      <c r="B1322" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1322" s="1">
+        <v>83</v>
+      </c>
+      <c r="D1322" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" ht="18">
+      <c r="A1323" s="1">
+        <v>1322</v>
+      </c>
+      <c r="B1323" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1323" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1323" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" ht="18">
+      <c r="A1324" s="1">
+        <v>1323</v>
+      </c>
+      <c r="B1324" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1324" s="1">
+        <v>76</v>
+      </c>
+      <c r="D1324" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" ht="18">
+      <c r="A1325" s="1">
+        <v>1324</v>
+      </c>
+      <c r="B1325" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1325" s="1">
+        <v>80</v>
+      </c>
+      <c r="D1325" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" ht="18">
+      <c r="A1326" s="1">
+        <v>1325</v>
+      </c>
+      <c r="B1326" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1326" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1326" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" ht="18">
+      <c r="A1327" s="1">
+        <v>1326</v>
+      </c>
+      <c r="B1327" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1327" s="1">
+        <v>86</v>
+      </c>
+      <c r="D1327" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" ht="18">
+      <c r="A1328" s="1">
+        <v>1327</v>
+      </c>
+      <c r="B1328" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1328" s="1">
+        <v>79</v>
+      </c>
+      <c r="D1328" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" ht="18">
+      <c r="A1329" s="1">
+        <v>1328</v>
+      </c>
+      <c r="B1329" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1329" s="1">
+        <v>94</v>
+      </c>
+      <c r="D1329" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" ht="18">
+      <c r="A1330" s="1">
+        <v>1329</v>
+      </c>
+      <c r="B1330" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1330" s="1">
+        <v>33</v>
+      </c>
+      <c r="D1330" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" ht="18">
+      <c r="A1331" s="1">
+        <v>1330</v>
+      </c>
+      <c r="B1331" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1331" s="1">
+        <v>84</v>
+      </c>
+      <c r="D1331" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" ht="18">
+      <c r="A1332" s="1">
+        <v>1331</v>
+      </c>
+      <c r="B1332" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1332" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1332" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" ht="18">
+      <c r="A1333" s="1">
+        <v>1332</v>
+      </c>
+      <c r="B1333" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1333" s="1">
+        <v>93</v>
+      </c>
+      <c r="D1333" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" ht="18">
+      <c r="A1334" s="1">
+        <v>1333</v>
+      </c>
+      <c r="B1334" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1334" s="1">
+        <v>82</v>
+      </c>
+      <c r="D1334" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" ht="18">
+      <c r="A1335" s="1">
+        <v>1334</v>
+      </c>
+      <c r="B1335" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1335" s="1">
+        <v>44</v>
+      </c>
+      <c r="D1335" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" ht="18">
+      <c r="A1336" s="1">
+        <v>1335</v>
+      </c>
+      <c r="B1336" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1336" s="1">
+        <v>60</v>
+      </c>
+      <c r="D1336" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" ht="18">
+      <c r="A1337" s="1">
+        <v>1336</v>
+      </c>
+      <c r="B1337" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1337" s="1">
+        <v>66</v>
+      </c>
+      <c r="D1337" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" ht="18">
+      <c r="A1338" s="1">
+        <v>1337</v>
+      </c>
+      <c r="B1338" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1338" s="1">
+        <v>96</v>
+      </c>
+      <c r="D1338" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" ht="18">
+      <c r="A1339" s="1">
+        <v>1338</v>
+      </c>
+      <c r="B1339" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1339" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1339" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" ht="18">
+      <c r="A1340" s="1">
+        <v>1339</v>
+      </c>
+      <c r="B1340" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1340" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1340" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" ht="18">
+      <c r="A1341" s="1">
+        <v>1340</v>
+      </c>
+      <c r="B1341" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1341" s="1">
+        <v>82</v>
+      </c>
+      <c r="D1341" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" ht="18">
+      <c r="A1342" s="1">
+        <v>1341</v>
+      </c>
+      <c r="B1342" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1342" s="1">
+        <v>84</v>
+      </c>
+      <c r="D1342" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" ht="18">
+      <c r="A1343" s="1">
+        <v>1342</v>
+      </c>
+      <c r="B1343" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1343" s="1">
+        <v>84</v>
+      </c>
+      <c r="D1343" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" ht="18">
+      <c r="A1344" s="1">
+        <v>1343</v>
+      </c>
+      <c r="B1344" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1344" s="1">
+        <v>79</v>
+      </c>
+      <c r="D1344" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" ht="18">
+      <c r="A1345" s="1">
+        <v>1344</v>
+      </c>
+      <c r="B1345" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1345" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1345" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" ht="18">
+      <c r="A1346" s="1">
+        <v>1345</v>
+      </c>
+      <c r="B1346" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1346" s="1">
+        <v>85</v>
+      </c>
+      <c r="D1346" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" ht="18">
+      <c r="A1347" s="1">
+        <v>1346</v>
+      </c>
+      <c r="B1347" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1347" s="1">
+        <v>76</v>
+      </c>
+      <c r="D1347" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" ht="18">
+      <c r="A1348" s="1">
+        <v>1347</v>
+      </c>
+      <c r="B1348" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1348" s="1">
+        <v>88</v>
+      </c>
+      <c r="D1348" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" ht="18">
+      <c r="A1349" s="1">
+        <v>1348</v>
+      </c>
+      <c r="B1349" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1349" s="1">
+        <v>65</v>
+      </c>
+      <c r="D1349" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" ht="18">
+      <c r="A1350" s="1">
+        <v>1349</v>
+      </c>
+      <c r="B1350" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1350" s="1">
+        <v>81</v>
+      </c>
+      <c r="D1350" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" ht="18">
+      <c r="A1351" s="1">
+        <v>1350</v>
+      </c>
+      <c r="B1351" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1351" s="1">
+        <v>59</v>
+      </c>
+      <c r="D1351" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" ht="18">
+      <c r="A1352" s="1">
+        <v>1351</v>
+      </c>
+      <c r="B1352" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1352" s="1">
+        <v>62</v>
+      </c>
+      <c r="D1352" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" ht="18">
+      <c r="A1353" s="1">
+        <v>1352</v>
+      </c>
+      <c r="B1353" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1353" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1353" s="2">
+        <v>44127</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D719">
-    <sortCondition ref="A713:A719"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D1353">
+    <sortCondition ref="A1308:A1353"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
